--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97570462-B5EE-4F67-8821-07EEA4097E33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -328,11 +329,15 @@
     <t>建物管理会社担当者</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,12 +579,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,9 +662,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,6 +714,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,17 +906,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -938,7 +982,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1046,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1133,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1219,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -1259,7 +1303,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -1332,7 +1376,7 @@
       <c r="BM8" s="15"/>
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
-        <f t="shared" ref="BO8:BO20" si="0">IF(R8="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R8)</f>
+        <f t="shared" ref="BO8:BO17" si="0">IF(R8="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R8)</f>
         <v>001-001-003</v>
       </c>
       <c r="BP8" s="15"/>
@@ -1341,7 +1385,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -1425,7 +1469,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -1505,7 +1549,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -1540,7 +1584,9 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
-      <c r="AH11" s="14"/>
+      <c r="AH11" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
@@ -1583,7 +1629,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -1659,7 +1705,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -1735,7 +1781,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -1811,7 +1857,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -1887,7 +1933,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -1963,7 +2009,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2039,7 +2085,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2115,7 +2161,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -2191,7 +2237,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -2267,7 +2313,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -2343,7 +2389,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -2419,7 +2465,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -2495,7 +2541,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -2571,7 +2617,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -2647,7 +2693,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -2723,7 +2769,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -2799,7 +2845,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -2875,7 +2921,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -2951,7 +2997,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -3027,7 +3073,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -3103,7 +3149,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -3179,7 +3225,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -3255,7 +3301,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -3331,7 +3377,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -3407,7 +3453,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -3483,7 +3529,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -3559,7 +3605,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -3635,7 +3681,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -3711,7 +3757,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -3787,7 +3833,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -3871,12 +3917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3884,12 +3930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97570462-B5EE-4F67-8821-07EEA4097E33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC25109-AE6F-49BB-9E71-8C67580705FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="002_ホワイトボード" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -182,10 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認ポイント</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -267,10 +264,6 @@
   </si>
   <si>
     <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>賃貸管理会社を検索</t>
@@ -330,7 +323,274 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　</t>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>複数を選択でき、反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索をでき、反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した駐車場を駐車場一覧に反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>駐車場一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>管理サイト→物件管理→駐車場一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索可能項目を検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索した項目を正しくマッチングすること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作の一括変更</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された物件番号に対してリーシング担当者を一括変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>賃料を入力</t>
+    <rPh sb="0" eb="2">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業想定賃料、リーシング募集賃料、チラシ賃料、サブリース賃料の税別賃料を入力後、税込みの賃料を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゼイベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した車室を車室一覧に反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理サイト→物件管理→車室一覧→追加</t>
+    <rPh sb="11" eb="13">
+      <t>シャシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→駐車場一覧</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -909,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1048,12 +1308,12 @@
     </row>
     <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1068,7 +1328,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
@@ -1123,13 +1383,13 @@
       <c r="BM5" s="23"/>
       <c r="BN5" s="24"/>
       <c r="BO5" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
       <c r="BR5" s="24"/>
       <c r="BS5" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BT5" s="18"/>
     </row>
@@ -1140,56 +1400,20 @@
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+        <v>19</v>
+      </c>
       <c r="R6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
@@ -1210,8 +1434,8 @@
       <c r="BM6" s="15"/>
       <c r="BN6" s="16"/>
       <c r="BO6" s="19" t="str">
-        <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
-        <v>001-001-001</v>
+        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
+        <v>001-001-004</v>
       </c>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
@@ -1224,56 +1448,20 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+        <v>45</v>
+      </c>
       <c r="R7" s="14" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
+      <c r="U7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
@@ -1294,8 +1482,8 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f>IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
-        <v>001-001-002</v>
+        <f t="shared" si="0"/>
+        <v>001-001-005</v>
       </c>
       <c r="BP7" s="15"/>
       <c r="BQ7" s="15"/>
@@ -1307,26 +1495,16 @@
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="R8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -1341,7 +1519,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -1376,8 +1554,8 @@
       <c r="BM8" s="15"/>
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
-        <f t="shared" ref="BO8:BO17" si="0">IF(R8="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R8)</f>
-        <v>001-001-003</v>
+        <f t="shared" si="0"/>
+        <v>001-001-006</v>
       </c>
       <c r="BP8" s="15"/>
       <c r="BQ8" s="15"/>
@@ -1390,9 +1568,8 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15"/>
+        <v>49</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1405,12 +1582,12 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -1425,7 +1602,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -1461,7 +1638,7 @@
       <c r="BN9" s="16"/>
       <c r="BO9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-004</v>
+        <v>001-001-007</v>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -1474,7 +1651,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1488,12 +1665,2954 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
+      <c r="R10" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-008</v>
+      </c>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="21"/>
+    </row>
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-009</v>
+      </c>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="21"/>
+    </row>
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-010</v>
+      </c>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="21"/>
+    </row>
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-011</v>
+      </c>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="21"/>
+    </row>
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-012</v>
+      </c>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="21"/>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>001-001-013</v>
+      </c>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="21"/>
+    </row>
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="21"/>
+    </row>
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="19" t="str">
+        <f t="shared" ref="BO16:BO17" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <v>001-001-012</v>
+      </c>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="21"/>
+    </row>
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="19" t="str">
+        <f t="shared" ref="BO18:BO41" si="2">IF(R18="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R18)</f>
+        <v>001-001-013</v>
+      </c>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="21"/>
+    </row>
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="21"/>
+    </row>
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="21"/>
+    </row>
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="21"/>
+    </row>
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="21"/>
+    </row>
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="21"/>
+    </row>
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="16"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="21"/>
+    </row>
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="21"/>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="21"/>
+    </row>
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="16"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="21"/>
+    </row>
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="16"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="21"/>
+    </row>
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="16"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="21"/>
+    </row>
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="21"/>
+    </row>
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="20"/>
+      <c r="BT31" s="21"/>
+    </row>
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="20"/>
+      <c r="BT32" s="21"/>
+    </row>
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="16"/>
+      <c r="BS33" s="20"/>
+      <c r="BT33" s="21"/>
+    </row>
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="20"/>
+      <c r="BT34" s="21"/>
+    </row>
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="20"/>
+      <c r="BT35" s="21"/>
+    </row>
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="20"/>
+      <c r="BT36" s="21"/>
+    </row>
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="20"/>
+      <c r="BT37" s="21"/>
+    </row>
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="20"/>
+      <c r="BT38" s="21"/>
+    </row>
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="16"/>
+      <c r="BS39" s="20"/>
+      <c r="BT39" s="21"/>
+    </row>
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="16"/>
+      <c r="BO40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="16"/>
+      <c r="BS40" s="20"/>
+      <c r="BT40" s="21"/>
+    </row>
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="16"/>
+      <c r="BO41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="16"/>
+      <c r="BS41" s="20"/>
+      <c r="BT41" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83051E4-51C2-451B-8AE2-143A1E52F847}">
+  <dimension ref="B2:BT41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="4"/>
+    </row>
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="13"/>
+    </row>
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="24"/>
+      <c r="BO5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT5" s="18"/>
+    </row>
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="19" t="str">
+        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
+        <v>002-001-004</v>
+      </c>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="21"/>
+    </row>
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>002-001-005</v>
+      </c>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="21"/>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>002-001-006</v>
+      </c>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="20"/>
+      <c r="BT8" s="21"/>
+    </row>
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>002-001-007</v>
+      </c>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="21"/>
+    </row>
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
@@ -1541,7 +4660,7 @@
       <c r="BN10" s="16"/>
       <c r="BO10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-008</v>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -1566,12 +4685,12 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
+      <c r="R11" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
@@ -1584,9 +4703,7 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
-      <c r="AH11" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="AH11" s="14"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
@@ -1621,7 +4738,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-009</v>
       </c>
       <c r="BP11" s="15"/>
       <c r="BQ11" s="15"/>
@@ -1646,7 +4763,9 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="14"/>
+      <c r="R12" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="15"/>
@@ -1697,7 +4816,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-010</v>
       </c>
       <c r="BP12" s="15"/>
       <c r="BQ12" s="15"/>
@@ -1722,7 +4841,9 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="14"/>
+      <c r="R13" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -1773,7 +4894,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-011</v>
       </c>
       <c r="BP13" s="15"/>
       <c r="BQ13" s="15"/>
@@ -1798,7 +4919,9 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
+      <c r="R14" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -1849,7 +4972,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-012</v>
       </c>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="15"/>
@@ -1874,25 +4997,12 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="14"/>
+      <c r="R15" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
+      <c r="AG15" s="16"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="15"/>
@@ -1925,7 +5035,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-013</v>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -1950,25 +5060,12 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="14"/>
+      <c r="R16" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
+      <c r="AG16" s="16"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -2026,7 +5123,9 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="14"/>
+      <c r="R17" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -2076,8 +5175,8 @@
       <c r="BM17" s="15"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" ref="BO17:BO41" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <v>002-001-012</v>
       </c>
       <c r="BP17" s="15"/>
       <c r="BQ17" s="15"/>
@@ -2102,7 +5201,9 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -2152,8 +5253,8 @@
       <c r="BM18" s="15"/>
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
-        <f t="shared" ref="BO18:BO41" si="1">IF(R18="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R18)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>002-001-013</v>
       </c>
       <c r="BP18" s="15"/>
       <c r="BQ18" s="15"/>
@@ -3916,11 +7017,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -3929,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC25109-AE6F-49BB-9E71-8C67580705FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5F8C15-339A-4AEC-B68D-EF6DD753BFC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -592,6 +592,9 @@
   <si>
     <t>ホワイトボード→駐車場一覧</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>014</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2286,7 @@
       <c r="BM17" s="15"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
-        <f t="shared" ref="BO16:BO17" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <f t="shared" ref="BO17" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
         <v>001-001-012</v>
       </c>
       <c r="BP17" s="15"/>
@@ -4134,7 +4137,7 @@
   <dimension ref="B2:BT41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="R18" sqref="R18:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5098,7 +5101,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-014</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -5279,7 +5282,9 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
       <c r="U19" s="15"/>
@@ -5330,7 +5335,7 @@
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>002-001-014</v>
       </c>
       <c r="BP19" s="15"/>
       <c r="BQ19" s="15"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5F8C15-339A-4AEC-B68D-EF6DD753BFC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45021835-5374-4D5B-9139-FB22E642EC3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -595,6 +595,141 @@
   </si>
   <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>物件番号をクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場の詳細画面を反映されること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場詳細をクリックする</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場の詳細をクリックする</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場の詳細画面を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場の詳細画面の全項目を変更できないこと。</t>
+    <rPh sb="9" eb="12">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所在地をクリックする</t>
+    <rPh sb="0" eb="3">
+      <t>ショザイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図上検索画面に場所を吹き出し反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター検索をする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索可能項目を検索できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場詳細</t>
+    <rPh sb="0" eb="5">
+      <t>チュウシャジョウショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→駐車場一覧→駐車場の詳細</t>
+    <rPh sb="14" eb="17">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1173,7 +1308,7 @@
   <dimension ref="B2:BT41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4137,7 +4272,7 @@
   <dimension ref="B2:BT41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18:R19"/>
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4374,7 +4509,13 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
+      <c r="U6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AG6" s="4"/>
+      <c r="AH6" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
@@ -4416,7 +4557,13 @@
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
+      <c r="U7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AG7" s="16"/>
+      <c r="AH7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
@@ -4458,20 +4605,13 @@
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="14"/>
+      <c r="U8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
@@ -4537,7 +4677,9 @@
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
@@ -4550,7 +4692,9 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
-      <c r="AH9" s="14"/>
+      <c r="AH9" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
@@ -4597,7 +4741,9 @@
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -4615,7 +4761,9 @@
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
@@ -4628,7 +4776,9 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
-      <c r="AH10" s="14"/>
+      <c r="AH10" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
@@ -4675,7 +4825,9 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -4693,19 +4845,6 @@
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
       <c r="AH11" s="14"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -4753,7 +4892,9 @@
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -4831,7 +4972,9 @@
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45021835-5374-4D5B-9139-FB22E642EC3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E1D02-1D05-4B7C-96B3-F0A25D05F386}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
     <sheet name="002_ホワイトボード" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="003_契約管理" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -728,6 +729,459 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空無と手続の場合、車室の詳細だけ見れること。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室番号をクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込中の場合、貸止めをクリックして貸止めできること。また、申込フォームを送る/契約手続きに進むをクリックすると申込ユーザー登録画面を入力できること。空き状態を申込中に変更されること。</t>
+    <rPh sb="29" eb="31">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約管理</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヤクカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>随時対応</t>
+    <rPh sb="0" eb="2">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作鍵類の再発行・追加貸与を新規追加する</t>
+    <rPh sb="14" eb="16">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作鍵類の再発行・追加貸与画面を入力する。随時対応: 操作鍵類の再発行・追加貸与画面を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイヨ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面内容を入力たら保存できること。キャンセルタスクをクリックし未実施の状態に戻せる、完了タスクをクリックして完了されること、スキップタスクをクリックしスキップされること。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミジッシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タスクを入力できること。鍵種類と本数を追加したら発行手数料を自動反映されること。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵本数、型番を変更できること。</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カタバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１発送準備：スケジュール（期日･費用）の設定・送付先確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2発送準備：操作鍵類の型番設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3発送準備：請求書・操作鍵類・宅配便送付状準備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書PFDを正しく表示されること。駐車場操作鍵類の貸与に関するお知らせのPDFを正しく表示されること。請求書をメール送信できること。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4入金確認</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6操作鍵類の見積依頼（オーナー側）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類、足りない本数、発注先名、電話番号、価格等を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7操作鍵類の発注/入金（オーナー側）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">操作鍵類発注日、操作鍵類受領予定日を入力、保存できること。
+</t>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8 操作鍵類の受領・操作鍵類の予備数変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類、本数、備考を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応完了</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応完了をクリックしたら契約者一覧を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4271,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83051E4-51C2-451B-8AE2-143A1E52F847}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4845,7 +5299,12 @@
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
-      <c r="AH11" s="14"/>
+      <c r="U11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
@@ -4912,7 +5371,9 @@
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
@@ -4925,7 +5386,9 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
-      <c r="AH12" s="14"/>
+      <c r="AH12" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
@@ -7166,6 +7629,2916 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49AD3F2-A8ED-4C82-8D27-8CFE2C866ED2}">
+  <dimension ref="B2:BT41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="4"/>
+    </row>
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="13"/>
+    </row>
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="24"/>
+      <c r="BO5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT5" s="18"/>
+    </row>
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="19" t="str">
+        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
+        <v>003-001-004</v>
+      </c>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="20"/>
+      <c r="BT6" s="21"/>
+    </row>
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-005</v>
+      </c>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="21"/>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-006</v>
+      </c>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="20"/>
+      <c r="BT8" s="21"/>
+    </row>
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-007</v>
+      </c>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="21"/>
+    </row>
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-008</v>
+      </c>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="21"/>
+    </row>
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-009</v>
+      </c>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="21"/>
+    </row>
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-010</v>
+      </c>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="21"/>
+    </row>
+    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-011</v>
+      </c>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="21"/>
+    </row>
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-012</v>
+      </c>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="21"/>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-013</v>
+      </c>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="21"/>
+    </row>
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-014</v>
+      </c>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="21"/>
+    </row>
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="19" t="str">
+        <f t="shared" ref="BO17:BO41" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <v>003-001-012</v>
+      </c>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="21"/>
+    </row>
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-013</v>
+      </c>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="21"/>
+    </row>
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-014</v>
+      </c>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="21"/>
+    </row>
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="21"/>
+    </row>
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="21"/>
+    </row>
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="21"/>
+    </row>
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="21"/>
+    </row>
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="16"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="21"/>
+    </row>
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="21"/>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="21"/>
+    </row>
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="16"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="21"/>
+    </row>
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="16"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="21"/>
+    </row>
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="16"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="21"/>
+    </row>
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="21"/>
+    </row>
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="20"/>
+      <c r="BT31" s="21"/>
+    </row>
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="20"/>
+      <c r="BT32" s="21"/>
+    </row>
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="16"/>
+      <c r="BS33" s="20"/>
+      <c r="BT33" s="21"/>
+    </row>
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="20"/>
+      <c r="BT34" s="21"/>
+    </row>
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="20"/>
+      <c r="BT35" s="21"/>
+    </row>
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="20"/>
+      <c r="BT36" s="21"/>
+    </row>
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="20"/>
+      <c r="BT37" s="21"/>
+    </row>
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="20"/>
+      <c r="BT38" s="21"/>
+    </row>
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="16"/>
+      <c r="BS39" s="20"/>
+      <c r="BT39" s="21"/>
+    </row>
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="16"/>
+      <c r="BO40" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="16"/>
+      <c r="BS40" s="20"/>
+      <c r="BT40" s="21"/>
+    </row>
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="16"/>
+      <c r="BO41" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="16"/>
+      <c r="BS41" s="20"/>
+      <c r="BT41" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7180,7 +10553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E1D02-1D05-4B7C-96B3-F0A25D05F386}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
@@ -14,12 +13,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -68,19 +67,6 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楊皖軍</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>グン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,11 +1171,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2018/5/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戴慧娟</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戴慧娟</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1439,7 +1446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1481,7 +1488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,26 +1521,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,23 +1556,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,19 +1731,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1803,14 +1774,14 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
@@ -1822,7 +1793,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
@@ -1834,7 +1805,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1867,14 +1838,14 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -1886,7 +1857,7 @@
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
@@ -1898,14 +1869,14 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1920,12 +1891,12 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
       <c r="U5" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
@@ -1940,7 +1911,7 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
       <c r="AH5" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
@@ -1975,36 +1946,36 @@
       <c r="BM5" s="23"/>
       <c r="BN5" s="24"/>
       <c r="BO5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
       <c r="BR5" s="24"/>
       <c r="BS5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -2026,8 +1997,8 @@
       <c r="BM6" s="15"/>
       <c r="BN6" s="16"/>
       <c r="BO6" s="19" t="str">
-        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
-        <v>001-001-004</v>
+        <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
+        <v>001-001-001</v>
       </c>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
@@ -2035,24 +2006,24 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -2074,8 +2045,8 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>001-001-005</v>
+        <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <v>001-001-002</v>
       </c>
       <c r="BP7" s="15"/>
       <c r="BQ7" s="15"/>
@@ -2083,20 +2054,20 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2111,7 +2082,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -2147,7 +2118,7 @@
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-006</v>
+        <v>001-001-003</v>
       </c>
       <c r="BP8" s="15"/>
       <c r="BQ8" s="15"/>
@@ -2155,12 +2126,12 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2174,12 +2145,12 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -2194,7 +2165,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -2230,7 +2201,7 @@
       <c r="BN9" s="16"/>
       <c r="BO9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-007</v>
+        <v>001-001-004</v>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -2238,12 +2209,12 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2258,12 +2229,12 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -2278,7 +2249,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -2314,7 +2285,7 @@
       <c r="BN10" s="16"/>
       <c r="BO10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-008</v>
+        <v>001-001-005</v>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -2322,12 +2293,12 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2342,12 +2313,12 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2362,7 +2333,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -2398,7 +2369,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-009</v>
+        <v>001-001-006</v>
       </c>
       <c r="BP11" s="15"/>
       <c r="BQ11" s="15"/>
@@ -2406,12 +2377,12 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2426,12 +2397,12 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -2446,7 +2417,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -2482,7 +2453,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-010</v>
+        <v>001-001-007</v>
       </c>
       <c r="BP12" s="15"/>
       <c r="BQ12" s="15"/>
@@ -2490,12 +2461,12 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2510,12 +2481,12 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -2530,7 +2501,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -2566,7 +2537,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-011</v>
+        <v>001-001-008</v>
       </c>
       <c r="BP13" s="15"/>
       <c r="BQ13" s="15"/>
@@ -2574,12 +2545,12 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2594,12 +2565,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -2614,7 +2585,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -2650,7 +2621,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-012</v>
+        <v>001-001-009</v>
       </c>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="15"/>
@@ -2658,12 +2629,12 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -2678,16 +2649,16 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -2721,7 +2692,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-013</v>
+        <v>001-001-010</v>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -2729,12 +2700,12 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -2749,16 +2720,16 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG16" s="16"/>
       <c r="AH16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
@@ -2792,7 +2763,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>001-001-011</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -2800,12 +2771,12 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -2820,12 +2791,12 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -2840,7 +2811,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -2875,7 +2846,7 @@
       <c r="BM17" s="15"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
-        <f t="shared" ref="BO17" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <f t="shared" si="0"/>
         <v>001-001-012</v>
       </c>
       <c r="BP17" s="15"/>
@@ -2884,7 +2855,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2902,12 +2873,12 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -2922,7 +2893,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -2957,7 +2928,7 @@
       <c r="BM18" s="15"/>
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
-        <f t="shared" ref="BO18:BO41" si="2">IF(R18="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R18)</f>
+        <f t="shared" si="0"/>
         <v>001-001-013</v>
       </c>
       <c r="BP18" s="15"/>
@@ -2966,7 +2937,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -3033,7 +3004,7 @@
       <c r="BM19" s="15"/>
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP19" s="15"/>
@@ -3042,7 +3013,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -3109,7 +3080,7 @@
       <c r="BM20" s="15"/>
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP20" s="15"/>
@@ -3118,7 +3089,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -3185,7 +3156,7 @@
       <c r="BM21" s="15"/>
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP21" s="15"/>
@@ -3194,7 +3165,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -3261,7 +3232,7 @@
       <c r="BM22" s="15"/>
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP22" s="15"/>
@@ -3270,7 +3241,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -3337,7 +3308,7 @@
       <c r="BM23" s="15"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP23" s="15"/>
@@ -3346,7 +3317,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -3413,7 +3384,7 @@
       <c r="BM24" s="15"/>
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP24" s="15"/>
@@ -3422,7 +3393,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -3489,7 +3460,7 @@
       <c r="BM25" s="15"/>
       <c r="BN25" s="16"/>
       <c r="BO25" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP25" s="15"/>
@@ -3498,7 +3469,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -3565,7 +3536,7 @@
       <c r="BM26" s="15"/>
       <c r="BN26" s="16"/>
       <c r="BO26" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP26" s="15"/>
@@ -3574,7 +3545,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -3641,7 +3612,7 @@
       <c r="BM27" s="15"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP27" s="15"/>
@@ -3650,7 +3621,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -3717,7 +3688,7 @@
       <c r="BM28" s="15"/>
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP28" s="15"/>
@@ -3726,7 +3697,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -3793,7 +3764,7 @@
       <c r="BM29" s="15"/>
       <c r="BN29" s="16"/>
       <c r="BO29" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP29" s="15"/>
@@ -3802,7 +3773,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -3869,7 +3840,7 @@
       <c r="BM30" s="15"/>
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP30" s="15"/>
@@ -3878,7 +3849,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -3945,7 +3916,7 @@
       <c r="BM31" s="15"/>
       <c r="BN31" s="16"/>
       <c r="BO31" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP31" s="15"/>
@@ -3954,7 +3925,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -4021,7 +3992,7 @@
       <c r="BM32" s="15"/>
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP32" s="15"/>
@@ -4030,7 +4001,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -4097,7 +4068,7 @@
       <c r="BM33" s="15"/>
       <c r="BN33" s="16"/>
       <c r="BO33" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP33" s="15"/>
@@ -4106,7 +4077,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -4173,7 +4144,7 @@
       <c r="BM34" s="15"/>
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP34" s="15"/>
@@ -4182,7 +4153,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -4249,7 +4220,7 @@
       <c r="BM35" s="15"/>
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP35" s="15"/>
@@ -4258,7 +4229,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -4325,7 +4296,7 @@
       <c r="BM36" s="15"/>
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP36" s="15"/>
@@ -4334,7 +4305,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -4401,7 +4372,7 @@
       <c r="BM37" s="15"/>
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP37" s="15"/>
@@ -4410,7 +4381,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -4477,7 +4448,7 @@
       <c r="BM38" s="15"/>
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP38" s="15"/>
@@ -4486,7 +4457,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -4553,7 +4524,7 @@
       <c r="BM39" s="15"/>
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP39" s="15"/>
@@ -4562,7 +4533,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -4629,7 +4600,7 @@
       <c r="BM40" s="15"/>
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP40" s="15"/>
@@ -4638,7 +4609,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -4705,7 +4676,7 @@
       <c r="BM41" s="15"/>
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP41" s="15"/>
@@ -4722,19 +4693,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83051E4-51C2-451B-8AE2-143A1E52F847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4743,7 +4712,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4767,14 +4736,14 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
@@ -4786,7 +4755,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
@@ -4798,7 +4767,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -4807,7 +4776,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -4831,14 +4800,14 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -4850,7 +4819,7 @@
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
@@ -4862,14 +4831,14 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -4884,12 +4853,12 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
       <c r="U5" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
@@ -4904,7 +4873,7 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
       <c r="AH5" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
@@ -4939,24 +4908,24 @@
       <c r="BM5" s="23"/>
       <c r="BN5" s="24"/>
       <c r="BO5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
       <c r="BR5" s="24"/>
       <c r="BS5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="14" t="s">
         <v>3</v>
@@ -4964,11 +4933,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -4990,8 +4959,8 @@
       <c r="BM6" s="15"/>
       <c r="BN6" s="16"/>
       <c r="BO6" s="19" t="str">
-        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
-        <v>002-001-004</v>
+        <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
+        <v>002-001-001</v>
       </c>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
@@ -4999,24 +4968,24 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -5038,8 +5007,8 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>002-001-005</v>
+        <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <v>002-001-002</v>
       </c>
       <c r="BP7" s="15"/>
       <c r="BQ7" s="15"/>
@@ -5047,24 +5016,24 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
       <c r="U8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -5100,7 +5069,7 @@
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-006</v>
+        <v>002-001-003</v>
       </c>
       <c r="BP8" s="15"/>
       <c r="BQ8" s="15"/>
@@ -5108,12 +5077,12 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -5127,12 +5096,12 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -5147,7 +5116,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -5183,7 +5152,7 @@
       <c r="BN9" s="16"/>
       <c r="BO9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-007</v>
+        <v>002-001-004</v>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -5191,12 +5160,12 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -5211,12 +5180,12 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -5231,7 +5200,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -5267,7 +5236,7 @@
       <c r="BN10" s="16"/>
       <c r="BO10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-008</v>
+        <v>002-001-005</v>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -5275,12 +5244,12 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -5295,15 +5264,15 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -5339,7 +5308,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-009</v>
+        <v>002-001-006</v>
       </c>
       <c r="BP11" s="15"/>
       <c r="BQ11" s="15"/>
@@ -5347,12 +5316,12 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -5367,12 +5336,12 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -5387,7 +5356,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -5423,7 +5392,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-010</v>
+        <v>002-001-007</v>
       </c>
       <c r="BP12" s="15"/>
       <c r="BQ12" s="15"/>
@@ -5431,12 +5400,12 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -5451,7 +5420,7 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
@@ -5503,7 +5472,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-011</v>
+        <v>002-001-008</v>
       </c>
       <c r="BP13" s="15"/>
       <c r="BQ13" s="15"/>
@@ -5511,7 +5480,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -5529,7 +5498,7 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
@@ -5581,7 +5550,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-012</v>
+        <v>002-001-009</v>
       </c>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="15"/>
@@ -5589,7 +5558,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -5607,7 +5576,7 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
@@ -5644,7 +5613,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-013</v>
+        <v>002-001-010</v>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -5652,7 +5621,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -5670,7 +5639,7 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
@@ -5707,7 +5676,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-014</v>
+        <v>002-001-011</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -5715,7 +5684,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -5733,7 +5702,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
@@ -5784,7 +5753,7 @@
       <c r="BM17" s="15"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
-        <f t="shared" ref="BO17:BO41" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <f t="shared" si="0"/>
         <v>002-001-012</v>
       </c>
       <c r="BP17" s="15"/>
@@ -5793,7 +5762,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -5811,7 +5780,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
@@ -5862,7 +5831,7 @@
       <c r="BM18" s="15"/>
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>002-001-013</v>
       </c>
       <c r="BP18" s="15"/>
@@ -5871,7 +5840,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -5889,7 +5858,7 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
@@ -5940,7 +5909,7 @@
       <c r="BM19" s="15"/>
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>002-001-014</v>
       </c>
       <c r="BP19" s="15"/>
@@ -5949,7 +5918,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -6016,7 +5985,7 @@
       <c r="BM20" s="15"/>
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP20" s="15"/>
@@ -6025,7 +5994,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -6092,7 +6061,7 @@
       <c r="BM21" s="15"/>
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP21" s="15"/>
@@ -6101,7 +6070,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -6168,7 +6137,7 @@
       <c r="BM22" s="15"/>
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP22" s="15"/>
@@ -6177,7 +6146,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -6244,7 +6213,7 @@
       <c r="BM23" s="15"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP23" s="15"/>
@@ -6253,7 +6222,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -6320,7 +6289,7 @@
       <c r="BM24" s="15"/>
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP24" s="15"/>
@@ -6329,7 +6298,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -6396,7 +6365,7 @@
       <c r="BM25" s="15"/>
       <c r="BN25" s="16"/>
       <c r="BO25" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP25" s="15"/>
@@ -6405,7 +6374,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -6472,7 +6441,7 @@
       <c r="BM26" s="15"/>
       <c r="BN26" s="16"/>
       <c r="BO26" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP26" s="15"/>
@@ -6481,7 +6450,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -6548,7 +6517,7 @@
       <c r="BM27" s="15"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP27" s="15"/>
@@ -6557,7 +6526,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -6624,7 +6593,7 @@
       <c r="BM28" s="15"/>
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP28" s="15"/>
@@ -6633,7 +6602,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -6700,7 +6669,7 @@
       <c r="BM29" s="15"/>
       <c r="BN29" s="16"/>
       <c r="BO29" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP29" s="15"/>
@@ -6709,7 +6678,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -6776,7 +6745,7 @@
       <c r="BM30" s="15"/>
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP30" s="15"/>
@@ -6785,7 +6754,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -6852,7 +6821,7 @@
       <c r="BM31" s="15"/>
       <c r="BN31" s="16"/>
       <c r="BO31" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP31" s="15"/>
@@ -6861,7 +6830,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -6928,7 +6897,7 @@
       <c r="BM32" s="15"/>
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP32" s="15"/>
@@ -6937,7 +6906,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -7004,7 +6973,7 @@
       <c r="BM33" s="15"/>
       <c r="BN33" s="16"/>
       <c r="BO33" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP33" s="15"/>
@@ -7013,7 +6982,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -7080,7 +7049,7 @@
       <c r="BM34" s="15"/>
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP34" s="15"/>
@@ -7089,7 +7058,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -7156,7 +7125,7 @@
       <c r="BM35" s="15"/>
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP35" s="15"/>
@@ -7165,7 +7134,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -7232,7 +7201,7 @@
       <c r="BM36" s="15"/>
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP36" s="15"/>
@@ -7241,7 +7210,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -7308,7 +7277,7 @@
       <c r="BM37" s="15"/>
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP37" s="15"/>
@@ -7317,7 +7286,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -7384,7 +7353,7 @@
       <c r="BM38" s="15"/>
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP38" s="15"/>
@@ -7393,7 +7362,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -7460,7 +7429,7 @@
       <c r="BM39" s="15"/>
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP39" s="15"/>
@@ -7469,7 +7438,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -7536,7 +7505,7 @@
       <c r="BM40" s="15"/>
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP40" s="15"/>
@@ -7545,7 +7514,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -7612,7 +7581,7 @@
       <c r="BM41" s="15"/>
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP41" s="15"/>
@@ -7629,19 +7598,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49AD3F2-A8ED-4C82-8D27-8CFE2C866ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7650,7 +7617,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7674,14 +7641,14 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
@@ -7693,7 +7660,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
@@ -7705,7 +7672,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -7714,7 +7681,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -7738,14 +7705,14 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
@@ -7757,7 +7724,7 @@
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
@@ -7769,14 +7736,14 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -7791,12 +7758,12 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
       <c r="U5" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
@@ -7811,7 +7778,7 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
       <c r="AH5" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
@@ -7846,24 +7813,24 @@
       <c r="BM5" s="23"/>
       <c r="BN5" s="24"/>
       <c r="BO5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BP5" s="23"/>
       <c r="BQ5" s="23"/>
       <c r="BR5" s="24"/>
       <c r="BS5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="14" t="s">
         <v>3</v>
@@ -7871,11 +7838,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -7897,8 +7864,8 @@
       <c r="BM6" s="15"/>
       <c r="BN6" s="16"/>
       <c r="BO6" s="19" t="str">
-        <f t="shared" ref="BO6:BO16" si="0">IF(R9="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R9)</f>
-        <v>003-001-004</v>
+        <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
+        <v>003-001-001</v>
       </c>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
@@ -7906,24 +7873,24 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -7945,8 +7912,8 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>003-001-005</v>
+        <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <v>003-001-002</v>
       </c>
       <c r="BP7" s="15"/>
       <c r="BQ7" s="15"/>
@@ -7954,21 +7921,21 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -8004,7 +7971,7 @@
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-006</v>
+        <v>003-001-003</v>
       </c>
       <c r="BP8" s="15"/>
       <c r="BQ8" s="15"/>
@@ -8012,12 +7979,12 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -8031,12 +7998,12 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -8051,7 +8018,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -8087,7 +8054,7 @@
       <c r="BN9" s="16"/>
       <c r="BO9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-007</v>
+        <v>003-001-004</v>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -8095,7 +8062,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -8113,12 +8080,12 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -8133,7 +8100,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -8169,7 +8136,7 @@
       <c r="BN10" s="16"/>
       <c r="BO10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-008</v>
+        <v>003-001-005</v>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -8177,7 +8144,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -8195,15 +8162,15 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -8239,7 +8206,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-009</v>
+        <v>003-001-006</v>
       </c>
       <c r="BP11" s="15"/>
       <c r="BQ11" s="15"/>
@@ -8247,7 +8214,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -8265,12 +8232,12 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -8285,7 +8252,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -8321,7 +8288,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-010</v>
+        <v>003-001-007</v>
       </c>
       <c r="BP12" s="15"/>
       <c r="BQ12" s="15"/>
@@ -8329,7 +8296,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -8347,12 +8314,12 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -8367,7 +8334,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -8403,7 +8370,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-011</v>
+        <v>003-001-008</v>
       </c>
       <c r="BP13" s="15"/>
       <c r="BQ13" s="15"/>
@@ -8411,7 +8378,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -8429,12 +8396,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -8449,7 +8416,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -8485,7 +8452,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-012</v>
+        <v>003-001-009</v>
       </c>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="15"/>
@@ -8493,7 +8460,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -8511,16 +8478,16 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -8554,7 +8521,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-013</v>
+        <v>003-001-010</v>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -8562,7 +8529,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -8580,7 +8547,7 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
@@ -8617,7 +8584,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-014</v>
+        <v>003-001-011</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -8625,7 +8592,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -8643,7 +8610,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
@@ -8694,7 +8661,7 @@
       <c r="BM17" s="15"/>
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
-        <f t="shared" ref="BO17:BO41" si="1">IF(R17="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R17)</f>
+        <f t="shared" si="0"/>
         <v>003-001-012</v>
       </c>
       <c r="BP17" s="15"/>
@@ -8703,7 +8670,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -8721,7 +8688,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
@@ -8772,7 +8739,7 @@
       <c r="BM18" s="15"/>
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>003-001-013</v>
       </c>
       <c r="BP18" s="15"/>
@@ -8781,7 +8748,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -8799,7 +8766,7 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
@@ -8850,7 +8817,7 @@
       <c r="BM19" s="15"/>
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>003-001-014</v>
       </c>
       <c r="BP19" s="15"/>
@@ -8859,7 +8826,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -8926,7 +8893,7 @@
       <c r="BM20" s="15"/>
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP20" s="15"/>
@@ -8935,7 +8902,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -9002,7 +8969,7 @@
       <c r="BM21" s="15"/>
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP21" s="15"/>
@@ -9011,7 +8978,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -9078,7 +9045,7 @@
       <c r="BM22" s="15"/>
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP22" s="15"/>
@@ -9087,7 +9054,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -9154,7 +9121,7 @@
       <c r="BM23" s="15"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP23" s="15"/>
@@ -9163,7 +9130,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -9230,7 +9197,7 @@
       <c r="BM24" s="15"/>
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP24" s="15"/>
@@ -9239,7 +9206,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -9306,7 +9273,7 @@
       <c r="BM25" s="15"/>
       <c r="BN25" s="16"/>
       <c r="BO25" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP25" s="15"/>
@@ -9315,7 +9282,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -9382,7 +9349,7 @@
       <c r="BM26" s="15"/>
       <c r="BN26" s="16"/>
       <c r="BO26" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP26" s="15"/>
@@ -9391,7 +9358,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -9458,7 +9425,7 @@
       <c r="BM27" s="15"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP27" s="15"/>
@@ -9467,7 +9434,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -9534,7 +9501,7 @@
       <c r="BM28" s="15"/>
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP28" s="15"/>
@@ -9543,7 +9510,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -9610,7 +9577,7 @@
       <c r="BM29" s="15"/>
       <c r="BN29" s="16"/>
       <c r="BO29" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP29" s="15"/>
@@ -9619,7 +9586,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -9686,7 +9653,7 @@
       <c r="BM30" s="15"/>
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP30" s="15"/>
@@ -9695,7 +9662,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -9762,7 +9729,7 @@
       <c r="BM31" s="15"/>
       <c r="BN31" s="16"/>
       <c r="BO31" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP31" s="15"/>
@@ -9771,7 +9738,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -9838,7 +9805,7 @@
       <c r="BM32" s="15"/>
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP32" s="15"/>
@@ -9847,7 +9814,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -9914,7 +9881,7 @@
       <c r="BM33" s="15"/>
       <c r="BN33" s="16"/>
       <c r="BO33" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP33" s="15"/>
@@ -9923,7 +9890,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -9990,7 +9957,7 @@
       <c r="BM34" s="15"/>
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP34" s="15"/>
@@ -9999,7 +9966,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -10066,7 +10033,7 @@
       <c r="BM35" s="15"/>
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP35" s="15"/>
@@ -10075,7 +10042,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -10142,7 +10109,7 @@
       <c r="BM36" s="15"/>
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP36" s="15"/>
@@ -10151,7 +10118,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -10218,7 +10185,7 @@
       <c r="BM37" s="15"/>
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP37" s="15"/>
@@ -10227,7 +10194,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -10294,7 +10261,7 @@
       <c r="BM38" s="15"/>
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP38" s="15"/>
@@ -10303,7 +10270,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -10370,7 +10337,7 @@
       <c r="BM39" s="15"/>
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP39" s="15"/>
@@ -10379,7 +10346,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -10446,7 +10413,7 @@
       <c r="BM40" s="15"/>
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP40" s="15"/>
@@ -10455,7 +10422,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -10522,7 +10489,7 @@
       <c r="BM41" s="15"/>
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP41" s="15"/>
@@ -10539,14 +10506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10554,12 +10521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990CA97-C9FE-4A52-8017-8E1E2B9EB941}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -816,31 +817,6 @@
       <t>ズイジ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>契約管理→契約情報一覧→随時対応</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1192,11 +1168,314 @@
     <t>戴慧娟</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応→４ 操作鍵類の再発行・追加貸与</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応→5 保管場所使用承諾証明書発行（名義変更）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所使用承諾証明書発行（名義変更）を新規追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車種をクリックしたら、車両の所有者、契約者との関係、車両の所有者住所、車両の所有者電話番号を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケイヤクシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの希望支払方法、保管場所使用承諾証明書発行費用支払期日、新しい車検証の回収日を入力できること。次へをクリックしたら随時対応：保管場所使用承諾証明書発行（名義変更）画面を反映されること。</t>
+    <rPh sb="23" eb="25">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1発送準備：スケジュール（期日･費用）の設定・送付先確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更できる項目を変更できること、書類送付先を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ソウフサキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2発送準備：請求書・保管場所使用承諾証明書発行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書PFDを正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所使用承諾証明書のご案内、保管場所使用承諾証明書（標準）、保管場所使用承諾証明書（使用者が異なる）の書類を正しく表示されること。</t>
+    <rPh sb="53" eb="55">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送付先を選べられ、反映されること。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウフサキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書をメール送信できること。</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>3入金確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
+  </si>
+  <si>
+    <t>対応完了をクリックしたら契約者一覧を表示されること。</t>
+  </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応→６値上げ更新</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>値上げ更新を新規追加する</t>
+    <rPh sb="0" eb="2">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約者情報を表示される、次へクリックしたら随時対応: 値上げ更新画面を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1446,7 +1725,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1488,7 +1767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1521,9 +1800,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,6 +1852,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1731,17 +2044,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +2087,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1805,7 +2118,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +2182,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -1956,7 +2269,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2319,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -2054,7 +2367,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -2126,7 +2439,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2209,7 +2522,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -2293,7 +2606,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -2377,7 +2690,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -2461,7 +2774,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -2545,7 +2858,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -2629,7 +2942,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -2700,7 +3013,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -2771,7 +3084,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2855,7 +3168,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2937,7 +3250,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -3013,7 +3326,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -3089,7 +3402,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -3165,7 +3478,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -3241,7 +3554,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -3317,7 +3630,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -3393,7 +3706,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -3469,7 +3782,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -3545,7 +3858,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -3621,7 +3934,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -3697,7 +4010,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -3773,7 +4086,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -3849,7 +4162,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -3925,7 +4238,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -4001,7 +4314,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -4077,7 +4390,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -4153,7 +4466,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -4229,7 +4542,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -4305,7 +4618,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -4381,7 +4694,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -4457,7 +4770,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -4533,7 +4846,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -4609,7 +4922,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -4693,17 +5006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4736,7 +5051,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -4767,7 +5082,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -4831,7 +5146,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +5233,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +5283,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -5016,7 +5331,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -5077,7 +5392,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -5160,7 +5475,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -5244,7 +5559,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -5316,7 +5631,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -5400,7 +5715,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -5480,7 +5795,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -5558,7 +5873,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -5621,7 +5936,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -5684,7 +5999,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -5762,7 +6077,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -5840,7 +6155,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -5918,7 +6233,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -5994,7 +6309,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -6070,7 +6385,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -6146,7 +6461,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -6222,7 +6537,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -6298,7 +6613,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -6374,7 +6689,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -6450,7 +6765,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -6526,7 +6841,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -6602,7 +6917,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -6678,7 +6993,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -6754,7 +7069,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -6830,7 +7145,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -6906,7 +7221,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -6982,7 +7297,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -7058,7 +7373,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -7134,7 +7449,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -7210,7 +7525,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -7286,7 +7601,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -7362,7 +7677,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -7438,7 +7753,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -7514,7 +7829,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -7598,17 +7913,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO31" sqref="AO31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7641,7 +7958,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -7672,7 +7989,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -7705,7 +8022,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
@@ -7736,7 +8053,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -7823,7 +8140,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -7838,11 +8155,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -7873,7 +8190,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -7886,11 +8203,11 @@
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -7921,7 +8238,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -7935,7 +8252,7 @@
       <c r="T8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -7979,12 +8296,12 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -8003,7 +8320,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -8018,7 +8335,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -8062,7 +8379,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -8085,7 +8402,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -8100,7 +8417,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -8144,7 +8461,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -8167,10 +8484,10 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -8214,7 +8531,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -8237,7 +8554,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -8252,7 +8569,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -8296,7 +8613,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -8319,7 +8636,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -8334,7 +8651,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -8378,7 +8695,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -8401,7 +8718,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -8416,7 +8733,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -8460,7 +8777,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -8483,11 +8800,11 @@
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -8529,11 +8846,13 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -8551,7 +8870,13 @@
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
+      <c r="U16" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="AG16" s="16"/>
+      <c r="AH16" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -8592,11 +8917,13 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -8627,10 +8954,11 @@
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
-      <c r="AH17" s="14"/>
+      <c r="AH17" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
@@ -8670,11 +8998,13 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -8692,7 +9022,9 @@
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="15"/>
+      <c r="U18" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -8705,7 +9037,9 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="14"/>
+      <c r="AH18" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
@@ -8748,11 +9082,13 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -8770,7 +9106,9 @@
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
@@ -8783,7 +9121,9 @@
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
-      <c r="AH19" s="14"/>
+      <c r="AH19" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
@@ -8826,7 +9166,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -8843,7 +9183,9 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="14"/>
+      <c r="R20" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
       <c r="U20" s="15"/>
@@ -8859,7 +9201,9 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
-      <c r="AH20" s="14"/>
+      <c r="AH20" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
@@ -8894,7 +9238,7 @@
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-015</v>
       </c>
       <c r="BP20" s="15"/>
       <c r="BQ20" s="15"/>
@@ -8902,7 +9246,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -8919,7 +9263,9 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
       <c r="U21" s="15"/>
@@ -8935,7 +9281,9 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
-      <c r="AH21" s="14"/>
+      <c r="AH21" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="15"/>
@@ -8970,7 +9318,7 @@
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-016</v>
       </c>
       <c r="BP21" s="15"/>
       <c r="BQ21" s="15"/>
@@ -8978,7 +9326,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -8995,7 +9343,9 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
       <c r="U22" s="15"/>
@@ -9011,7 +9361,9 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
-      <c r="AH22" s="14"/>
+      <c r="AH22" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
@@ -9046,7 +9398,7 @@
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-017</v>
       </c>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="15"/>
@@ -9054,7 +9406,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -9071,10 +9423,14 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
@@ -9087,7 +9443,9 @@
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
-      <c r="AH23" s="14"/>
+      <c r="AH23" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
@@ -9122,7 +9480,7 @@
       <c r="BN23" s="16"/>
       <c r="BO23" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-018</v>
       </c>
       <c r="BP23" s="15"/>
       <c r="BQ23" s="15"/>
@@ -9130,11 +9488,13 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -9147,10 +9507,14 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="14"/>
+      <c r="R24" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -9163,7 +9527,9 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
-      <c r="AH24" s="14"/>
+      <c r="AH24" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
       <c r="AK24" s="15"/>
@@ -9198,7 +9564,7 @@
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-019</v>
       </c>
       <c r="BP24" s="15"/>
       <c r="BQ24" s="15"/>
@@ -9206,11 +9572,13 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9223,10 +9591,14 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="14"/>
+      <c r="R25" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
@@ -9239,7 +9611,9 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
-      <c r="AH25" s="14"/>
+      <c r="AH25" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
       <c r="AK25" s="15"/>
@@ -9274,7 +9648,7 @@
       <c r="BN25" s="16"/>
       <c r="BO25" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-020</v>
       </c>
       <c r="BP25" s="15"/>
       <c r="BQ25" s="15"/>
@@ -9282,11 +9656,13 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -9299,7 +9675,9 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="14"/>
+      <c r="R26" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
       <c r="U26" s="15"/>
@@ -9350,7 +9728,7 @@
       <c r="BN26" s="16"/>
       <c r="BO26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-021</v>
       </c>
       <c r="BP26" s="15"/>
       <c r="BQ26" s="15"/>
@@ -9358,11 +9736,13 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -9375,7 +9755,9 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="14"/>
+      <c r="R27" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="15"/>
@@ -9426,7 +9808,7 @@
       <c r="BN27" s="16"/>
       <c r="BO27" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-022</v>
       </c>
       <c r="BP27" s="15"/>
       <c r="BQ27" s="15"/>
@@ -9434,7 +9816,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -9451,7 +9833,9 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="15"/>
@@ -9502,7 +9886,7 @@
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-023</v>
       </c>
       <c r="BP28" s="15"/>
       <c r="BQ28" s="15"/>
@@ -9510,7 +9894,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -9586,7 +9970,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -9662,7 +10046,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -9738,7 +10122,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -9814,7 +10198,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -9890,7 +10274,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -9966,7 +10350,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -10042,7 +10426,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -10118,7 +10502,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -10194,7 +10578,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -10270,7 +10654,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -10346,7 +10730,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -10422,7 +10806,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -10506,14 +10890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10521,12 +10905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990CA97-C9FE-4A52-8017-8E1E2B9EB941}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB2E8F-9A30-4B81-AC98-C0D12D12DF49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -1468,6 +1468,162 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1スケジュール（期日･費用）の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約更新回答書の回収期日を変更できること。</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の月額賃料（税別）と現在の月額賃料（税抜）を自動反映されること。</t>
+    <rPh sb="21" eb="22">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新後の月額賃料（税別）を入力したら更新後の月額賃料（税抜）を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>契約更新のご案内PFDと契約更新回答書PDFを正しく表示されること。</t>
+    <rPh sb="6" eb="8">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カイトウショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書類送付先を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソウフサキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信できること。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>2更新後の月額賃料（税別）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3契約更新回答書確認</t>
+    <rPh sb="1" eb="3">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイトウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信された回答書の内容を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイトウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破棄</t>
+    <rPh sb="0" eb="2">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破棄をクリックしたら随時対応を破棄されます。</t>
+    <rPh sb="0" eb="2">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7916,8 +8072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO31" sqref="AO31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8871,11 +9027,11 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="1" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AG16" s="16"/>
       <c r="AH16" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
@@ -8941,24 +9097,13 @@
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
+      <c r="U17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
@@ -9022,9 +9167,7 @@
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -9037,8 +9180,8 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="14" t="s">
-        <v>110</v>
+      <c r="AH18" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -9107,7 +9250,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
       <c r="U19" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -9122,7 +9265,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -9188,7 +9331,9 @@
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
-      <c r="U20" s="15"/>
+      <c r="U20" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
@@ -9202,7 +9347,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -9282,7 +9427,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
@@ -9362,7 +9507,7 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
@@ -9428,9 +9573,7 @@
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
@@ -9444,7 +9587,7 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
@@ -9512,8 +9655,8 @@
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="1" t="s">
-        <v>99</v>
+      <c r="U24" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -9528,7 +9671,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -9596,8 +9739,8 @@
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="15" t="s">
-        <v>129</v>
+      <c r="U25" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -9612,7 +9755,7 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
@@ -9680,7 +9823,9 @@
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
@@ -9693,7 +9838,9 @@
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="14"/>
+      <c r="AH26" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
@@ -9760,7 +9907,9 @@
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -9773,7 +9922,9 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="14"/>
+      <c r="AH27" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="15"/>
       <c r="AK27" s="15"/>
@@ -9851,7 +10002,9 @@
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="14"/>
+      <c r="AH28" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
       <c r="AK28" s="15"/>
@@ -9911,7 +10064,9 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="14"/>
+      <c r="R29" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
       <c r="U29" s="15"/>
@@ -9927,7 +10082,9 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
-      <c r="AH29" s="14"/>
+      <c r="AH29" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
@@ -9962,7 +10119,7 @@
       <c r="BN29" s="16"/>
       <c r="BO29" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-024</v>
       </c>
       <c r="BP29" s="15"/>
       <c r="BQ29" s="15"/>
@@ -9987,10 +10144,14 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="14"/>
+      <c r="R30" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -10003,7 +10164,9 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="14"/>
+      <c r="AH30" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
@@ -10038,7 +10201,7 @@
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-025</v>
       </c>
       <c r="BP30" s="15"/>
       <c r="BQ30" s="15"/>
@@ -10063,7 +10226,9 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="14"/>
+      <c r="R31" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
       <c r="U31" s="15"/>
@@ -10079,7 +10244,9 @@
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
-      <c r="AH31" s="14"/>
+      <c r="AH31" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="15"/>
@@ -10114,7 +10281,7 @@
       <c r="BN31" s="16"/>
       <c r="BO31" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-026</v>
       </c>
       <c r="BP31" s="15"/>
       <c r="BQ31" s="15"/>
@@ -10139,7 +10306,9 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="14"/>
+      <c r="R32" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="15"/>
@@ -10155,7 +10324,9 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
-      <c r="AH32" s="14"/>
+      <c r="AH32" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
@@ -10190,7 +10361,7 @@
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-027</v>
       </c>
       <c r="BP32" s="15"/>
       <c r="BQ32" s="15"/>
@@ -10215,10 +10386,14 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="14"/>
+      <c r="R33" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
@@ -10231,7 +10406,9 @@
       <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
-      <c r="AH33" s="14"/>
+      <c r="AH33" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
       <c r="AK33" s="15"/>
@@ -10266,7 +10443,7 @@
       <c r="BN33" s="16"/>
       <c r="BO33" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-028</v>
       </c>
       <c r="BP33" s="15"/>
       <c r="BQ33" s="15"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB2E8F-9A30-4B81-AC98-C0D12D12DF49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31D323-A869-4543-874D-056C9E744FE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
     <sheet name="002_ホワイトボード" sheetId="4" r:id="rId2"/>
     <sheet name="003_契約管理" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="備考1" sheetId="2" r:id="rId4"/>
+    <sheet name="備考2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -621,16 +621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>駐車場の詳細をクリックする</t>
-    <rPh sb="0" eb="3">
-      <t>チュウシャジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>駐車場の詳細画面を反映されること。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -706,16 +696,6 @@
     <t>駐車場詳細</t>
     <rPh sb="0" eb="5">
       <t>チュウシャジョウショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホワイトボード→駐車場一覧→駐車場の詳細</t>
-    <rPh sb="14" eb="17">
-      <t>チュウシャジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1483,16 +1463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の月額賃料（税別）と現在の月額賃料（税抜）を自動反映されること。</t>
-    <rPh sb="21" eb="22">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ジドウハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新後の月額賃料（税別）を入力したら更新後の月額賃料（税抜）を自動反映されること。</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1625,6 +1595,502 @@
     <rPh sb="15" eb="17">
       <t>ハキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の月額賃料（税別）と現在の月額賃料（税込）を自動反映されること。</t>
+    <rPh sb="24" eb="28">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応→7任意保険・自賠責保険更新</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジバイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意保険・自賠責保険更新のプロセスを更新追加する</t>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→駐車場一覧→物件番号</t>
+    <rPh sb="14" eb="16">
+      <t>ブッケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場の画像を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場書類を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図上検索</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→地図上検索</t>
+    <rPh sb="8" eb="10">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図上検索をクリックしたら</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーカーを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所検索</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所を入力したら、オレンジ色のピンで正しく表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pマーカーをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート備考1のように反映されること。</t>
+    <rPh sb="3" eb="5">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を作れること。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場名称をクリックしたら、車室を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線を描画</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径を削除できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーカーを追加できること。</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリックをしたらマーカーを削除できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直線を描画したらシート備考2のように直径を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョッケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ履歴</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→問い合わせ履歴</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ/反響</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ/反響に入力し、保存したら問い合わせ履歴に反映されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ履歴を表示されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除できること。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい問い合わせを追加できること。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ一覧画面を表示されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→空き待ちリスト</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1878,6 +2344,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8089900" cy="4550568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="5657849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2243,7 +2819,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -5165,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5207,7 +5783,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -5404,11 +5980,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -5499,12 +6075,9 @@
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -5571,9 +6144,7 @@
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
@@ -5587,7 +6158,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -5656,7 +6227,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -5671,7 +6242,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -5720,7 +6291,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -5740,10 +6311,11 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -5811,9 +6383,7 @@
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
@@ -5827,7 +6397,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -5876,7 +6446,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -5895,7 +6465,9 @@
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="15"/>
+      <c r="U13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
@@ -5908,7 +6480,9 @@
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
-      <c r="AH13" s="14"/>
+      <c r="AH13" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
@@ -5973,7 +6547,9 @@
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -5986,7 +6562,9 @@
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
-      <c r="AH14" s="14"/>
+      <c r="AH14" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
@@ -6046,12 +6624,23 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="R15" s="14"/>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
-      <c r="AG15" s="16"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="15"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="15"/>
@@ -6084,7 +6673,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-010</v>
+        <v/>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -6096,7 +6685,9 @@
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -6110,11 +6701,17 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
+      <c r="U16" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AG16" s="16"/>
+      <c r="AH16" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -6147,7 +6744,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-011</v>
+        <v>002-001-010</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -6159,7 +6756,9 @@
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -6173,11 +6772,13 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="15"/>
+      <c r="U17" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
@@ -6190,7 +6791,9 @@
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
-      <c r="AH17" s="14"/>
+      <c r="AH17" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
@@ -6225,7 +6828,7 @@
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-012</v>
+        <v>002-001-011</v>
       </c>
       <c r="BP17" s="15"/>
       <c r="BQ17" s="15"/>
@@ -6237,7 +6840,9 @@
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -6251,7 +6856,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
@@ -6268,7 +6873,9 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="14"/>
+      <c r="AH18" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
@@ -6303,7 +6910,7 @@
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-013</v>
+        <v>002-001-012</v>
       </c>
       <c r="BP18" s="15"/>
       <c r="BQ18" s="15"/>
@@ -6315,7 +6922,9 @@
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -6329,7 +6938,7 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
@@ -6346,7 +6955,9 @@
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
-      <c r="AH19" s="14"/>
+      <c r="AH19" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
@@ -6381,7 +6992,7 @@
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-014</v>
+        <v>002-001-013</v>
       </c>
       <c r="BP19" s="15"/>
       <c r="BQ19" s="15"/>
@@ -6422,7 +7033,9 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
-      <c r="AH20" s="14"/>
+      <c r="AH20" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
@@ -6482,10 +7095,14 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
@@ -6498,7 +7115,9 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
-      <c r="AH21" s="14"/>
+      <c r="AH21" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="15"/>
@@ -6533,7 +7152,7 @@
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-014</v>
       </c>
       <c r="BP21" s="15"/>
       <c r="BQ21" s="15"/>
@@ -6558,10 +7177,14 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -6574,7 +7197,9 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
-      <c r="AH22" s="14"/>
+      <c r="AH22" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
@@ -6609,7 +7234,7 @@
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-015</v>
       </c>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="15"/>
@@ -6634,7 +7259,9 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
       <c r="U23" s="15"/>
@@ -6650,7 +7277,9 @@
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
-      <c r="AH23" s="14"/>
+      <c r="AH23" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
@@ -6685,7 +7314,7 @@
       <c r="BN23" s="16"/>
       <c r="BO23" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-016</v>
       </c>
       <c r="BP23" s="15"/>
       <c r="BQ23" s="15"/>
@@ -6710,10 +7339,14 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="14"/>
+      <c r="R24" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -6726,7 +7359,9 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
-      <c r="AH24" s="14"/>
+      <c r="AH24" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
       <c r="AK24" s="15"/>
@@ -6761,7 +7396,7 @@
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-017</v>
       </c>
       <c r="BP24" s="15"/>
       <c r="BQ24" s="15"/>
@@ -6849,7 +7484,9 @@
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -6862,10 +7499,14 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="14"/>
+      <c r="R26" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
@@ -6878,7 +7519,9 @@
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="14"/>
+      <c r="AH26" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
@@ -6913,7 +7556,7 @@
       <c r="BN26" s="16"/>
       <c r="BO26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-018</v>
       </c>
       <c r="BP26" s="15"/>
       <c r="BQ26" s="15"/>
@@ -6925,7 +7568,9 @@
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -6938,10 +7583,14 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="14"/>
+      <c r="R27" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -6954,7 +7603,9 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="14"/>
+      <c r="AH27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="15"/>
       <c r="AK27" s="15"/>
@@ -6989,7 +7640,7 @@
       <c r="BN27" s="16"/>
       <c r="BO27" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-019</v>
       </c>
       <c r="BP27" s="15"/>
       <c r="BQ27" s="15"/>
@@ -7001,7 +7652,9 @@
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -7014,10 +7667,14 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
@@ -7030,7 +7687,9 @@
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="14"/>
+      <c r="AH28" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
       <c r="AK28" s="15"/>
@@ -7065,7 +7724,7 @@
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-020</v>
       </c>
       <c r="BP28" s="15"/>
       <c r="BQ28" s="15"/>
@@ -7077,7 +7736,9 @@
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -7090,10 +7751,14 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="14"/>
+      <c r="R29" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
@@ -7106,7 +7771,9 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
-      <c r="AH29" s="14"/>
+      <c r="AH29" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
@@ -7141,7 +7808,7 @@
       <c r="BN29" s="16"/>
       <c r="BO29" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-021</v>
       </c>
       <c r="BP29" s="15"/>
       <c r="BQ29" s="15"/>
@@ -7166,7 +7833,9 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="14"/>
+      <c r="R30" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="U30" s="15"/>
@@ -7182,7 +7851,9 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="14"/>
+      <c r="AH30" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
@@ -7217,7 +7888,7 @@
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-022</v>
       </c>
       <c r="BP30" s="15"/>
       <c r="BQ30" s="15"/>
@@ -7242,7 +7913,9 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="14"/>
+      <c r="R31" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
       <c r="U31" s="15"/>
@@ -7258,7 +7931,9 @@
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
-      <c r="AH31" s="14"/>
+      <c r="AH31" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="15"/>
@@ -7293,7 +7968,7 @@
       <c r="BN31" s="16"/>
       <c r="BO31" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-023</v>
       </c>
       <c r="BP31" s="15"/>
       <c r="BQ31" s="15"/>
@@ -7318,10 +7993,14 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="14"/>
+      <c r="R32" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -7334,7 +8013,9 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
-      <c r="AH32" s="14"/>
+      <c r="AH32" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
@@ -7369,7 +8050,7 @@
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-024</v>
       </c>
       <c r="BP32" s="15"/>
       <c r="BQ32" s="15"/>
@@ -7457,7 +8138,9 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -7470,7 +8153,9 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="14"/>
+      <c r="R34" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
       <c r="U34" s="15"/>
@@ -7521,7 +8206,7 @@
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-025</v>
       </c>
       <c r="BP34" s="15"/>
       <c r="BQ34" s="15"/>
@@ -7533,7 +8218,9 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -7609,7 +8296,9 @@
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -7685,7 +8374,9 @@
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -8070,10 +8761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:BT41"/>
+  <dimension ref="B2:BT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL39" sqref="AL39"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8090,7 +8781,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -8114,7 +8805,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -8154,7 +8845,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -8178,7 +8869,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
@@ -8311,11 +9002,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -8351,7 +9042,7 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>46</v>
@@ -8359,11 +9050,11 @@
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -8408,7 +9099,7 @@
       <c r="T8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -8457,7 +9148,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -8476,7 +9167,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -8491,7 +9182,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -8558,7 +9249,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -8573,7 +9264,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -8640,10 +9331,10 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH11" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -8710,7 +9401,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -8725,7 +9416,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -8792,7 +9483,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -8807,7 +9498,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -8874,7 +9565,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -8889,7 +9580,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -8956,11 +9647,11 @@
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -9027,11 +9718,11 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG16" s="16"/>
       <c r="AH16" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
@@ -9078,7 +9769,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -9098,11 +9789,11 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG17" s="16"/>
       <c r="AH17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
@@ -9181,7 +9872,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -9230,7 +9921,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -9250,7 +9941,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
       <c r="U19" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -9265,7 +9956,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -9327,12 +10018,12 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
       <c r="U20" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -9347,7 +10038,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -9409,7 +10100,7 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
@@ -9427,7 +10118,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
@@ -9489,7 +10180,7 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
@@ -9507,7 +10198,7 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
@@ -9569,7 +10260,7 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
@@ -9587,7 +10278,7 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
@@ -9651,12 +10342,12 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
       <c r="U24" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -9671,7 +10362,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -9720,7 +10411,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -9735,12 +10426,12 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
       <c r="U25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -9755,7 +10446,7 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
@@ -9819,12 +10510,12 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
       <c r="U26" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -9839,7 +10530,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
@@ -9888,7 +10579,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -9903,12 +10594,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -9923,7 +10614,7 @@
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="15"/>
@@ -9985,7 +10676,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
@@ -10003,7 +10694,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -10065,7 +10756,7 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
@@ -10083,7 +10774,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
@@ -10145,12 +10836,12 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="U30" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -10165,7 +10856,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -10227,7 +10918,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
@@ -10245,7 +10936,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
@@ -10307,7 +10998,7 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
@@ -10325,7 +11016,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -10387,12 +11078,12 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
       <c r="U33" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -10407,7 +11098,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
       <c r="AH33" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
@@ -10455,7 +11146,9 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -10468,10 +11161,14 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="14"/>
+      <c r="R34" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
-      <c r="U34" s="15"/>
+      <c r="U34" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
@@ -10519,7 +11216,7 @@
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-029</v>
       </c>
       <c r="BP34" s="15"/>
       <c r="BQ34" s="15"/>
@@ -10531,7 +11228,9 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -10544,7 +11243,9 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="14"/>
+      <c r="R35" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
       <c r="U35" s="15"/>
@@ -10595,7 +11296,7 @@
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-030</v>
       </c>
       <c r="BP35" s="15"/>
       <c r="BQ35" s="15"/>
@@ -10607,7 +11308,9 @@
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -10620,7 +11323,9 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="14"/>
+      <c r="R36" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="15"/>
@@ -10671,7 +11376,7 @@
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-031</v>
       </c>
       <c r="BP36" s="15"/>
       <c r="BQ36" s="15"/>
@@ -10683,7 +11388,9 @@
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -10696,7 +11403,9 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="14"/>
+      <c r="R37" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
       <c r="U37" s="15"/>
@@ -10747,7 +11456,7 @@
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-032</v>
       </c>
       <c r="BP37" s="15"/>
       <c r="BQ37" s="15"/>
@@ -10772,7 +11481,9 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="14"/>
+      <c r="R38" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
@@ -10823,7 +11534,7 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-033</v>
       </c>
       <c r="BP38" s="15"/>
       <c r="BQ38" s="15"/>
@@ -10848,7 +11559,9 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="14"/>
+      <c r="R39" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
@@ -10899,7 +11612,7 @@
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-034</v>
       </c>
       <c r="BP39" s="15"/>
       <c r="BQ39" s="15"/>
@@ -10924,7 +11637,9 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="R40" s="14"/>
+      <c r="R40" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
       <c r="U40" s="15"/>
@@ -10975,7 +11690,7 @@
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-035</v>
       </c>
       <c r="BP40" s="15"/>
       <c r="BQ40" s="15"/>
@@ -11000,7 +11715,9 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
       <c r="U41" s="15"/>
@@ -11051,13 +11768,18 @@
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>003-001-036</v>
       </c>
       <c r="BP41" s="15"/>
       <c r="BQ41" s="15"/>
       <c r="BR41" s="16"/>
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
+    </row>
+    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="R42" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11071,13 +11793,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11091,5 +11814,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31D323-A869-4543-874D-056C9E744FE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0076F-2DE3-4A21-A291-0A345D66E784}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="245">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -2057,10 +2057,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィルター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問い合わせ一覧画面を表示されること。</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -2092,6 +2088,424 @@
   <si>
     <t>025</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ちリスト一覧表示</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ちリスト一覧画面を表示されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ち追加</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい空き待ちを追加できること。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ち詳細を表示されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡履歴を追加できること</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング結果を表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスを選択</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスを選択したら一斉送信できること。</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→トラブル一覧</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブル一覧表示</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブル追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいトラブルを追加できること。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加空き待ち</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての項目を入力できること。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約者を検索できること。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存でき、空き待ちリストに反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加トラブル</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場名称を検索できること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連書類一式ファイルをアップロードできること。</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連書類一式を追加できること。</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存でき、トラブル一覧に反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>037</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>トラブル一覧画面を表示されること。し</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブル詳細を変更できること。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブル詳細変更</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>状況を編集できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況を追加できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>関連書類一式を削除できること。</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>ホワイトボード→不具合．工事一覧</t>
+    <rPh sb="8" eb="11">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>トラブル削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブルを削除できること。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>050</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
   </si>
 </sst>
 </file>
@@ -5739,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:BT41"/>
+  <dimension ref="B2:BT88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG62" sqref="AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7520,7 +7934,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
@@ -7589,7 +8003,7 @@
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -7603,7 +8017,7 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="1" t="s">
+      <c r="AH27" s="14" t="s">
         <v>72</v>
       </c>
       <c r="AI27" s="15"/>
@@ -8154,11 +8568,13 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
-      <c r="U34" s="15"/>
+      <c r="U34" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
@@ -8171,7 +8587,9 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
-      <c r="AH34" s="14"/>
+      <c r="AH34" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="AI34" s="15"/>
       <c r="AJ34" s="15"/>
       <c r="AK34" s="15"/>
@@ -8233,10 +8651,14 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="14"/>
+      <c r="R35" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
-      <c r="U35" s="15"/>
+      <c r="U35" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
@@ -8249,7 +8671,9 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
-      <c r="AH35" s="14"/>
+      <c r="AH35" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="15"/>
@@ -8284,7 +8708,7 @@
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-026</v>
       </c>
       <c r="BP35" s="15"/>
       <c r="BQ35" s="15"/>
@@ -8311,10 +8735,14 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="14"/>
+      <c r="R36" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
-      <c r="U36" s="15"/>
+      <c r="U36" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
@@ -8327,7 +8755,9 @@
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
-      <c r="AH36" s="14"/>
+      <c r="AH36" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
       <c r="AK36" s="15"/>
@@ -8362,7 +8792,7 @@
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-027</v>
       </c>
       <c r="BP36" s="15"/>
       <c r="BQ36" s="15"/>
@@ -8375,7 +8805,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -8389,10 +8819,14 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="14"/>
+      <c r="R37" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="15"/>
+      <c r="U37" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
@@ -8405,7 +8839,9 @@
       <c r="AE37" s="15"/>
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
-      <c r="AH37" s="14"/>
+      <c r="AH37" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
@@ -8440,7 +8876,7 @@
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-028</v>
       </c>
       <c r="BP37" s="15"/>
       <c r="BQ37" s="15"/>
@@ -8465,7 +8901,9 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="14"/>
+      <c r="R38" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
       <c r="U38" s="15"/>
@@ -8481,7 +8919,9 @@
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
-      <c r="AH38" s="14"/>
+      <c r="AH38" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="15"/>
@@ -8516,7 +8956,7 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-029</v>
       </c>
       <c r="BP38" s="15"/>
       <c r="BQ38" s="15"/>
@@ -8541,7 +8981,9 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="14"/>
+      <c r="R39" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
       <c r="U39" s="15"/>
@@ -8557,7 +8999,9 @@
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
-      <c r="AH39" s="14"/>
+      <c r="AH39" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="15"/>
@@ -8592,7 +9036,7 @@
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-030</v>
       </c>
       <c r="BP39" s="15"/>
       <c r="BQ39" s="15"/>
@@ -8617,10 +9061,14 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="R40" s="14"/>
+      <c r="R40" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
-      <c r="U40" s="15"/>
+      <c r="U40" s="15" t="s">
+        <v>201</v>
+      </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -8633,7 +9081,9 @@
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
-      <c r="AH40" s="14"/>
+      <c r="AH40" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
       <c r="AK40" s="15"/>
@@ -8668,7 +9118,7 @@
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-031</v>
       </c>
       <c r="BP40" s="15"/>
       <c r="BQ40" s="15"/>
@@ -8693,10 +9143,14 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
-      <c r="U41" s="15"/>
+      <c r="U41" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
@@ -8709,7 +9163,9 @@
       <c r="AE41" s="15"/>
       <c r="AF41" s="15"/>
       <c r="AG41" s="15"/>
-      <c r="AH41" s="14"/>
+      <c r="AH41" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="AI41" s="15"/>
       <c r="AJ41" s="15"/>
       <c r="AK41" s="15"/>
@@ -8744,13 +9200,1032 @@
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-032</v>
       </c>
       <c r="BP41" s="15"/>
       <c r="BQ41" s="15"/>
-      <c r="BR41" s="16"/>
+      <c r="BR41" s="15"/>
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
+    </row>
+    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="R42" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="BO42" s="19" t="str">
+        <f t="shared" ref="BO42:BO55" si="1">IF(R42="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R42)</f>
+        <v>002-001-033</v>
+      </c>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="16"/>
+    </row>
+    <row r="43" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="R43" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="BO43" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-034</v>
+      </c>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="14"/>
+      <c r="BT43" s="16"/>
+    </row>
+    <row r="44" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="14"/>
+      <c r="R44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI44" s="15"/>
+      <c r="BO44" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-035</v>
+      </c>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="14"/>
+      <c r="BT44" s="16"/>
+    </row>
+    <row r="45" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="14"/>
+      <c r="R45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI45" s="15"/>
+      <c r="BO45" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-036</v>
+      </c>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="14"/>
+      <c r="BT45" s="16"/>
+    </row>
+    <row r="46" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="BO46" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="14"/>
+      <c r="BT46" s="16"/>
+    </row>
+    <row r="47" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO47" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-037</v>
+      </c>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="15"/>
+      <c r="BS47" s="14"/>
+      <c r="BT47" s="16"/>
+    </row>
+    <row r="48" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO48" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-038</v>
+      </c>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="14"/>
+      <c r="BT48" s="16"/>
+    </row>
+    <row r="49" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO49" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-039</v>
+      </c>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="16"/>
+    </row>
+    <row r="50" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="S50" s="15"/>
+      <c r="T50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO50" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-040</v>
+      </c>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="15"/>
+      <c r="BS50" s="14"/>
+      <c r="BT50" s="16"/>
+    </row>
+    <row r="51" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="R51" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="T51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO51" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-041</v>
+      </c>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="16"/>
+    </row>
+    <row r="52" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="R52" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO52" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-042</v>
+      </c>
+      <c r="BP52" s="15"/>
+      <c r="BQ52" s="15"/>
+      <c r="BR52" s="15"/>
+      <c r="BS52" s="14"/>
+      <c r="BT52" s="16"/>
+    </row>
+    <row r="53" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="R53" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="S53" s="15"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO53" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-043</v>
+      </c>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="14"/>
+      <c r="BT53" s="16"/>
+    </row>
+    <row r="54" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="R54" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="S54" s="15"/>
+      <c r="T54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BO54" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-044</v>
+      </c>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="15"/>
+      <c r="BS54" s="14"/>
+      <c r="BT54" s="16"/>
+    </row>
+    <row r="55" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="R55" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="S55" s="15"/>
+      <c r="T55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BO55" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>002-001-045</v>
+      </c>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="15"/>
+      <c r="BS55" s="14"/>
+      <c r="BT55" s="16"/>
+    </row>
+    <row r="56" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="R56" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="S56" s="15"/>
+      <c r="T56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO56" s="19" t="str">
+        <f t="shared" ref="BO56:BO71" si="2">IF(R56="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R56)</f>
+        <v>002-001-046</v>
+      </c>
+      <c r="BP56" s="15"/>
+      <c r="BQ56" s="15"/>
+      <c r="BR56" s="15"/>
+      <c r="BS56" s="14"/>
+      <c r="BT56" s="16"/>
+    </row>
+    <row r="57" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="R57" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="S57" s="15"/>
+      <c r="T57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO57" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-047</v>
+      </c>
+      <c r="BP57" s="15"/>
+      <c r="BQ57" s="15"/>
+      <c r="BR57" s="15"/>
+      <c r="BS57" s="14"/>
+      <c r="BT57" s="16"/>
+    </row>
+    <row r="58" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="R58" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO58" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-048</v>
+      </c>
+      <c r="BP58" s="15"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="15"/>
+      <c r="BS58" s="14"/>
+      <c r="BT58" s="16"/>
+    </row>
+    <row r="59" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="R59" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG59" s="16"/>
+      <c r="AH59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO59" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-049</v>
+      </c>
+      <c r="BP59" s="15"/>
+      <c r="BQ59" s="15"/>
+      <c r="BR59" s="15"/>
+      <c r="BS59" s="14"/>
+      <c r="BT59" s="16"/>
+    </row>
+    <row r="60" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="14"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="16"/>
+      <c r="AG60" s="16"/>
+      <c r="BO60" s="19"/>
+      <c r="BP60" s="15"/>
+      <c r="BQ60" s="15"/>
+      <c r="BR60" s="15"/>
+      <c r="BS60" s="14"/>
+      <c r="BT60" s="16"/>
+    </row>
+    <row r="61" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="S61" s="15"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO61" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-050</v>
+      </c>
+      <c r="BP61" s="15"/>
+      <c r="BQ61" s="15"/>
+      <c r="BR61" s="15"/>
+      <c r="BS61" s="14"/>
+      <c r="BT61" s="16"/>
+    </row>
+    <row r="62" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="S62" s="15"/>
+      <c r="T62" s="16"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="16"/>
+      <c r="BO62" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-051</v>
+      </c>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="15"/>
+      <c r="BS62" s="14"/>
+      <c r="BT62" s="16"/>
+    </row>
+    <row r="63" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="16"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="16"/>
+      <c r="BO63" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-052</v>
+      </c>
+      <c r="BP63" s="15"/>
+      <c r="BQ63" s="15"/>
+      <c r="BR63" s="15"/>
+      <c r="BS63" s="14"/>
+      <c r="BT63" s="16"/>
+    </row>
+    <row r="64" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="R64" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="S64" s="15"/>
+      <c r="T64" s="16"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="16"/>
+      <c r="BO64" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-053</v>
+      </c>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="15"/>
+      <c r="BR64" s="15"/>
+      <c r="BS64" s="14"/>
+      <c r="BT64" s="16"/>
+    </row>
+    <row r="65" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="R65" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="S65" s="15"/>
+      <c r="T65" s="16"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="16"/>
+      <c r="BO65" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-054</v>
+      </c>
+      <c r="BP65" s="15"/>
+      <c r="BQ65" s="15"/>
+      <c r="BR65" s="15"/>
+      <c r="BS65" s="14"/>
+      <c r="BT65" s="16"/>
+    </row>
+    <row r="66" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="R66" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="S66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="16"/>
+      <c r="BO66" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-055</v>
+      </c>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="15"/>
+      <c r="BS66" s="14"/>
+      <c r="BT66" s="16"/>
+    </row>
+    <row r="67" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="R67" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="S67" s="15"/>
+      <c r="T67" s="16"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="16"/>
+      <c r="BO67" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-056</v>
+      </c>
+      <c r="BP67" s="15"/>
+      <c r="BQ67" s="15"/>
+      <c r="BR67" s="15"/>
+      <c r="BS67" s="14"/>
+      <c r="BT67" s="16"/>
+    </row>
+    <row r="68" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="16"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="16"/>
+      <c r="BO68" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP68" s="15"/>
+      <c r="BQ68" s="15"/>
+      <c r="BR68" s="15"/>
+      <c r="BS68" s="14"/>
+      <c r="BT68" s="16"/>
+    </row>
+    <row r="69" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="16"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="16"/>
+      <c r="BO69" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP69" s="15"/>
+      <c r="BQ69" s="15"/>
+      <c r="BR69" s="15"/>
+      <c r="BS69" s="14"/>
+      <c r="BT69" s="16"/>
+    </row>
+    <row r="70" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="16"/>
+      <c r="BO70" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP70" s="15"/>
+      <c r="BQ70" s="15"/>
+      <c r="BR70" s="15"/>
+      <c r="BS70" s="14"/>
+      <c r="BT70" s="16"/>
+    </row>
+    <row r="71" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="16"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="16"/>
+      <c r="BO71" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP71" s="15"/>
+      <c r="BQ71" s="15"/>
+      <c r="BR71" s="15"/>
+      <c r="BS71" s="14"/>
+      <c r="BT71" s="16"/>
+    </row>
+    <row r="72" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="16"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="16"/>
+      <c r="BO72" s="14"/>
+      <c r="BP72" s="15"/>
+      <c r="BQ72" s="15"/>
+      <c r="BR72" s="15"/>
+      <c r="BS72" s="14"/>
+      <c r="BT72" s="16"/>
+    </row>
+    <row r="73" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="16"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="16"/>
+      <c r="BO73" s="14"/>
+      <c r="BP73" s="15"/>
+      <c r="BQ73" s="15"/>
+      <c r="BR73" s="16"/>
+      <c r="BS73" s="14"/>
+      <c r="BT73" s="16"/>
+    </row>
+    <row r="74" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="16"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="16"/>
+      <c r="BO74" s="14"/>
+      <c r="BP74" s="15"/>
+      <c r="BQ74" s="15"/>
+      <c r="BR74" s="16"/>
+      <c r="BS74" s="14"/>
+      <c r="BT74" s="16"/>
+    </row>
+    <row r="75" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="16"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="16"/>
+      <c r="BO75" s="14"/>
+      <c r="BP75" s="15"/>
+      <c r="BQ75" s="15"/>
+      <c r="BR75" s="16"/>
+      <c r="BS75" s="14"/>
+      <c r="BT75" s="16"/>
+    </row>
+    <row r="76" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="16"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="16"/>
+      <c r="BO76" s="14"/>
+      <c r="BP76" s="15"/>
+      <c r="BQ76" s="15"/>
+      <c r="BR76" s="16"/>
+      <c r="BS76" s="14"/>
+      <c r="BT76" s="16"/>
+    </row>
+    <row r="77" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="16"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="16"/>
+      <c r="BO77" s="14"/>
+      <c r="BP77" s="15"/>
+      <c r="BQ77" s="15"/>
+      <c r="BR77" s="16"/>
+      <c r="BS77" s="14"/>
+      <c r="BT77" s="16"/>
+    </row>
+    <row r="78" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="16"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="16"/>
+      <c r="BO78" s="14"/>
+      <c r="BP78" s="15"/>
+      <c r="BQ78" s="15"/>
+      <c r="BR78" s="16"/>
+      <c r="BS78" s="14"/>
+      <c r="BT78" s="16"/>
+    </row>
+    <row r="79" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="16"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="16"/>
+      <c r="BO79" s="14"/>
+      <c r="BP79" s="15"/>
+      <c r="BQ79" s="15"/>
+      <c r="BR79" s="16"/>
+      <c r="BS79" s="14"/>
+      <c r="BT79" s="16"/>
+    </row>
+    <row r="80" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="16"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="16"/>
+      <c r="BO80" s="14"/>
+      <c r="BP80" s="15"/>
+      <c r="BQ80" s="15"/>
+      <c r="BR80" s="16"/>
+      <c r="BS80" s="14"/>
+      <c r="BT80" s="16"/>
+    </row>
+    <row r="81" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="16"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="16"/>
+      <c r="BO81" s="14"/>
+      <c r="BP81" s="15"/>
+      <c r="BQ81" s="15"/>
+      <c r="BR81" s="16"/>
+      <c r="BS81" s="14"/>
+      <c r="BT81" s="16"/>
+    </row>
+    <row r="82" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="16"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="16"/>
+      <c r="BO82" s="14"/>
+      <c r="BP82" s="15"/>
+      <c r="BQ82" s="15"/>
+      <c r="BR82" s="16"/>
+      <c r="BS82" s="14"/>
+      <c r="BT82" s="16"/>
+    </row>
+    <row r="83" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="16"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="16"/>
+      <c r="BO83" s="14"/>
+      <c r="BP83" s="15"/>
+      <c r="BQ83" s="15"/>
+      <c r="BR83" s="16"/>
+      <c r="BS83" s="14"/>
+      <c r="BT83" s="16"/>
+    </row>
+    <row r="84" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="16"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="16"/>
+      <c r="BO84" s="14"/>
+      <c r="BP84" s="15"/>
+      <c r="BQ84" s="15"/>
+      <c r="BR84" s="16"/>
+      <c r="BS84" s="14"/>
+      <c r="BT84" s="16"/>
+    </row>
+    <row r="85" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="16"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="16"/>
+      <c r="BO85" s="14"/>
+      <c r="BP85" s="15"/>
+      <c r="BQ85" s="15"/>
+      <c r="BR85" s="16"/>
+      <c r="BS85" s="14"/>
+      <c r="BT85" s="16"/>
+    </row>
+    <row r="86" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="16"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="16"/>
+      <c r="BO86" s="14"/>
+      <c r="BP86" s="15"/>
+      <c r="BQ86" s="15"/>
+      <c r="BR86" s="16"/>
+      <c r="BS86" s="14"/>
+      <c r="BT86" s="16"/>
+    </row>
+    <row r="87" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="16"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="16"/>
+      <c r="BO87" s="14"/>
+      <c r="BP87" s="15"/>
+      <c r="BQ87" s="15"/>
+      <c r="BR87" s="16"/>
+      <c r="BS87" s="14"/>
+      <c r="BT87" s="16"/>
+    </row>
+    <row r="88" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="16"/>
+      <c r="BO88" s="14"/>
+      <c r="BP88" s="15"/>
+      <c r="BQ88" s="15"/>
+      <c r="BR88" s="16"/>
+      <c r="BS88" s="14"/>
+      <c r="BT88" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31D323-A869-4543-874D-056C9E744FE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="備考1" sheetId="2" r:id="rId4"/>
     <sheet name="備考2" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2097,18 +2096,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2116,14 +2115,14 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2131,7 +2130,7 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2331,7 +2330,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2366,7 +2365,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,10 +2374,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2421,7 +2420,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,10 +2429,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2457,7 +2456,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2499,7 +2498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2531,27 +2530,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2583,24 +2564,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2776,17 +2739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +2815,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2914,7 +2879,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -3001,7 +2966,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3016,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -3099,7 +3064,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -3171,7 +3136,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -3254,7 +3219,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -3338,7 +3303,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -3422,7 +3387,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -3506,7 +3471,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -3590,7 +3555,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -3674,7 +3639,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -3745,7 +3710,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -3816,7 +3781,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -3900,7 +3865,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -3982,7 +3947,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -4058,7 +4023,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -4134,7 +4099,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -4210,7 +4175,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -4286,7 +4251,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -4362,7 +4327,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -4438,7 +4403,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -4514,7 +4479,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -4590,7 +4555,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -4666,7 +4631,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -4742,7 +4707,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -4818,7 +4783,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -4894,7 +4859,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -4970,7 +4935,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5046,7 +5011,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -5122,7 +5087,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -5198,7 +5163,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -5274,7 +5239,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -5350,7 +5315,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -5426,7 +5391,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -5502,7 +5467,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -5578,7 +5543,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -5654,7 +5619,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -5738,19 +5703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5814,7 +5779,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -5878,7 +5843,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -5965,7 +5930,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -6015,7 +5980,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -6063,7 +6028,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -6121,7 +6086,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -6202,7 +6167,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -6286,7 +6251,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -6359,7 +6324,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -6441,7 +6406,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -6525,7 +6490,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -6607,7 +6572,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -6681,7 +6646,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -6752,7 +6717,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -6836,7 +6801,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -6918,7 +6883,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -7000,7 +6965,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -7078,7 +7043,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -7160,7 +7125,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -7242,7 +7207,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -7322,7 +7287,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -7404,7 +7369,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -7480,7 +7445,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -7564,7 +7529,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -7648,7 +7613,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -7732,7 +7697,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -7816,7 +7781,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -7896,7 +7861,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -7976,7 +7941,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -8058,7 +8023,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -8134,7 +8099,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -8214,7 +8179,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -8292,7 +8257,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -8370,7 +8335,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -8448,7 +8413,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -8524,7 +8489,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -8600,7 +8565,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -8676,7 +8641,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -8760,19 +8725,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH34" sqref="AH34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO17" sqref="BO17:BO18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -8836,7 +8801,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -8900,7 +8865,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -8987,7 +8952,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -9037,7 +9002,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -9085,7 +9050,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -9143,7 +9108,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -9226,7 +9191,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -9308,7 +9273,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -9378,7 +9343,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -9460,7 +9425,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" ht="12" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -9542,7 +9507,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -9624,7 +9589,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -9693,7 +9658,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -9764,7 +9729,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -9834,7 +9799,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -9916,7 +9881,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -10000,7 +9965,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -10082,7 +10047,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -10162,7 +10127,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -10242,7 +10207,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -10322,7 +10287,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -10406,7 +10371,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -10490,7 +10455,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -10574,7 +10539,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -10658,7 +10623,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -10738,7 +10703,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -10818,7 +10783,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -10900,7 +10865,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -10980,7 +10945,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -11060,7 +11025,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -11142,7 +11107,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -11224,7 +11189,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -11304,7 +11269,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -11384,7 +11349,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -11464,7 +11429,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -11542,7 +11507,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -11620,7 +11585,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -11698,7 +11663,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -11776,7 +11741,7 @@
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
     </row>
-    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:72">
       <c r="R42" s="14" t="s">
         <v>154</v>
       </c>
@@ -11784,19 +11749,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11805,12 +11770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0076F-2DE3-4A21-A291-0A345D66E784}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6B8B2-DAE9-48B5-B220-66FCB44D4526}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="275">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -1863,10 +1863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>014</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半径を削除できること。</t>
     <rPh sb="0" eb="2">
       <t>ハンケイ</t>
@@ -1936,10 +1932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>018</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問い合わせ一覧</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -2086,10 +2078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>025</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィルター検索</t>
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
@@ -2359,31 +2347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>037</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
     <t>トラブル一覧画面を表示されること。し</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -2417,9 +2380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>045</t>
-  </si>
-  <si>
     <t>状況を編集できること。</t>
     <rPh sb="0" eb="2">
       <t>ジョウキョウ</t>
@@ -2456,22 +2416,6 @@
     <t>048</t>
   </si>
   <si>
-    <t>ホワイトボード→不具合．工事一覧</t>
-    <rPh sb="8" eb="11">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
     <t>トラブル削除</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -2486,26 +2430,307 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>不具合．工事一覧表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加　不具合・工事</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード→不具合・工事一覧</t>
+    <rPh sb="8" eb="11">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合・工事一覧を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存でき、不具合・工事に反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>管理問い合わせ元をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合・工事一覧詳細を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場名称をクリックすると駐車場一覧を反映されること。</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合・工事一覧詳細を削除できること。</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合・工事一覧詳細を変更できること。</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当の車室をクリックすると車室詳細を反映されること。</t>
+    <rPh sb="13" eb="15">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一斉連絡を送信できること。</t>
+    <rPh sb="0" eb="2">
+      <t>イッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>032</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>033</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>038</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>045</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>049</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>050</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>051</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>052</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>053</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>054</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>056</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>058</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>059</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>064</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2577,7 +2802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2708,11 +2933,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2743,6 +2999,15 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3193,7 +3458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6155,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BT88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG62" sqref="AG62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6385,41 +6652,77 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="15"/>
-      <c r="BN6" s="16"/>
-      <c r="BO6" s="19" t="str">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="30" t="str">
         <f>IF(R6="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R6)</f>
         <v>002-001-001</v>
       </c>
@@ -6436,44 +6739,80 @@
       <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="1" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="1" t="s">
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="16"/>
-      <c r="BO7" s="19" t="str">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="30" t="str">
         <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>002-001-002</v>
       </c>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="16"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="4"/>
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
@@ -6484,13 +6823,37 @@
       <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
       <c r="AG8" s="16"/>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="15" t="s">
         <v>158</v>
       </c>
       <c r="AI8" s="15"/>
@@ -6539,80 +6902,81 @@
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="14" t="s">
+      <c r="S9" s="27"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="19" t="str">
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="29" t="str">
         <f t="shared" si="0"/>
         <v>002-001-004</v>
       </c>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="16"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="28"/>
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
@@ -6719,57 +7083,68 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="1" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="1" t="s">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
-      <c r="BL11" s="15"/>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="19" t="str">
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="30" t="str">
         <f t="shared" si="0"/>
         <v>002-001-006</v>
       </c>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-      <c r="BR11" s="16"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="4"/>
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
@@ -6874,68 +7249,68 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="1" t="s">
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="14" t="s">
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="19" t="str">
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>002-001-008</v>
       </c>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="16"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="33"/>
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
@@ -7099,70 +7474,83 @@
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="14" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="1" t="s">
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="1" t="s">
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="16"/>
-      <c r="BO16" s="19" t="str">
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="32"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>002-001-010</v>
       </c>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="16"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="33"/>
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
@@ -7431,7 +7819,9 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="14"/>
+      <c r="R20" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
       <c r="U20" s="15"/>
@@ -7448,7 +7838,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -7484,7 +7874,7 @@
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>002-001-014</v>
       </c>
       <c r="BP20" s="15"/>
       <c r="BQ20" s="15"/>
@@ -7509,68 +7899,68 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="15" t="s">
+      <c r="R21" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="14" t="s">
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="15"/>
-      <c r="BK21" s="15"/>
-      <c r="BL21" s="15"/>
-      <c r="BM21" s="15"/>
-      <c r="BN21" s="16"/>
-      <c r="BO21" s="19" t="str">
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-014</v>
-      </c>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
-      <c r="BR21" s="16"/>
+        <v>002-001-015</v>
+      </c>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="33"/>
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
@@ -7591,68 +7981,68 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="15" t="s">
+      <c r="R22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="15"/>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15"/>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="16"/>
-      <c r="BO22" s="19" t="str">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-015</v>
-      </c>
-      <c r="BP22" s="15"/>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="16"/>
+        <v>002-001-016</v>
+      </c>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="4"/>
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
@@ -7673,66 +8063,66 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
-      <c r="BD23" s="15"/>
-      <c r="BE23" s="15"/>
-      <c r="BF23" s="15"/>
-      <c r="BG23" s="15"/>
-      <c r="BH23" s="15"/>
-      <c r="BI23" s="15"/>
-      <c r="BJ23" s="15"/>
-      <c r="BK23" s="15"/>
-      <c r="BL23" s="15"/>
-      <c r="BM23" s="15"/>
-      <c r="BN23" s="16"/>
-      <c r="BO23" s="19" t="str">
+      <c r="R23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="27"/>
+      <c r="BL23" s="27"/>
+      <c r="BM23" s="27"/>
+      <c r="BN23" s="28"/>
+      <c r="BO23" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-016</v>
-      </c>
-      <c r="BP23" s="15"/>
-      <c r="BQ23" s="15"/>
-      <c r="BR23" s="16"/>
+        <v>002-001-017</v>
+      </c>
+      <c r="BP23" s="27"/>
+      <c r="BQ23" s="27"/>
+      <c r="BR23" s="28"/>
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
@@ -7754,7 +8144,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
@@ -7774,7 +8164,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -7810,7 +8200,7 @@
       <c r="BN24" s="16"/>
       <c r="BO24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-017</v>
+        <v>002-001-018</v>
       </c>
       <c r="BP24" s="15"/>
       <c r="BQ24" s="15"/>
@@ -7898,83 +8288,83 @@
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="15"/>
-      <c r="BG26" s="15"/>
-      <c r="BH26" s="15"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="15"/>
-      <c r="BL26" s="15"/>
-      <c r="BM26" s="15"/>
-      <c r="BN26" s="16"/>
-      <c r="BO26" s="19" t="str">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-018</v>
-      </c>
-      <c r="BP26" s="15"/>
-      <c r="BQ26" s="15"/>
-      <c r="BR26" s="16"/>
+        <v>002-001-019</v>
+      </c>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="4"/>
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
@@ -7983,7 +8373,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -7997,68 +8387,68 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="14" t="s">
+      <c r="R27" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="15"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
-      <c r="BI27" s="15"/>
-      <c r="BJ27" s="15"/>
-      <c r="BK27" s="15"/>
-      <c r="BL27" s="15"/>
-      <c r="BM27" s="15"/>
-      <c r="BN27" s="16"/>
-      <c r="BO27" s="19" t="str">
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
+      <c r="BC27" s="32"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="32"/>
+      <c r="BF27" s="32"/>
+      <c r="BG27" s="32"/>
+      <c r="BH27" s="32"/>
+      <c r="BI27" s="32"/>
+      <c r="BJ27" s="32"/>
+      <c r="BK27" s="32"/>
+      <c r="BL27" s="32"/>
+      <c r="BM27" s="32"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-019</v>
-      </c>
-      <c r="BP27" s="15"/>
-      <c r="BQ27" s="15"/>
-      <c r="BR27" s="16"/>
+        <v>002-001-020</v>
+      </c>
+      <c r="BP27" s="32"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="33"/>
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
@@ -8082,12 +8472,12 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -8102,7 +8492,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -8138,7 +8528,7 @@
       <c r="BN28" s="16"/>
       <c r="BO28" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-020</v>
+        <v>002-001-021</v>
       </c>
       <c r="BP28" s="15"/>
       <c r="BQ28" s="15"/>
@@ -8151,7 +8541,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -8165,68 +8555,68 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="15"/>
-      <c r="AR29" s="15"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
-      <c r="BD29" s="15"/>
-      <c r="BE29" s="15"/>
-      <c r="BF29" s="15"/>
-      <c r="BG29" s="15"/>
-      <c r="BH29" s="15"/>
-      <c r="BI29" s="15"/>
-      <c r="BJ29" s="15"/>
-      <c r="BK29" s="15"/>
-      <c r="BL29" s="15"/>
-      <c r="BM29" s="15"/>
-      <c r="BN29" s="16"/>
-      <c r="BO29" s="19" t="str">
+      <c r="R29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-021</v>
-      </c>
-      <c r="BP29" s="15"/>
-      <c r="BQ29" s="15"/>
-      <c r="BR29" s="16"/>
+        <v>002-001-022</v>
+      </c>
+      <c r="BP29" s="3"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="4"/>
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
@@ -8248,7 +8638,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
@@ -8266,7 +8656,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -8302,7 +8692,7 @@
       <c r="BN30" s="16"/>
       <c r="BO30" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-022</v>
+        <v>002-001-023</v>
       </c>
       <c r="BP30" s="15"/>
       <c r="BQ30" s="15"/>
@@ -8327,66 +8717,66 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="15"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="15"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="15"/>
-      <c r="BL31" s="15"/>
-      <c r="BM31" s="15"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="19" t="str">
+      <c r="R31" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" s="27"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="27"/>
+      <c r="BK31" s="27"/>
+      <c r="BL31" s="27"/>
+      <c r="BM31" s="27"/>
+      <c r="BN31" s="28"/>
+      <c r="BO31" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-023</v>
-      </c>
-      <c r="BP31" s="15"/>
-      <c r="BQ31" s="15"/>
-      <c r="BR31" s="16"/>
+        <v>002-001-024</v>
+      </c>
+      <c r="BP31" s="27"/>
+      <c r="BQ31" s="27"/>
+      <c r="BR31" s="28"/>
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
@@ -8408,12 +8798,12 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -8428,7 +8818,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -8464,7 +8854,7 @@
       <c r="BN32" s="16"/>
       <c r="BO32" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-024</v>
+        <v>002-001-025</v>
       </c>
       <c r="BP32" s="15"/>
       <c r="BQ32" s="15"/>
@@ -8552,83 +8942,83 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="14" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="15"/>
-      <c r="AT34" s="15"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="15"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="15"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="15"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="16"/>
-      <c r="BO34" s="19" t="str">
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="4"/>
+      <c r="BO34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-025</v>
-      </c>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="16"/>
+        <v>002-001-026</v>
+      </c>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="4"/>
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
@@ -8637,7 +9027,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -8651,68 +9041,68 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
-      <c r="AM35" s="15"/>
-      <c r="AN35" s="15"/>
-      <c r="AO35" s="15"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="15"/>
-      <c r="AR35" s="15"/>
-      <c r="AS35" s="15"/>
-      <c r="AT35" s="15"/>
-      <c r="AU35" s="15"/>
-      <c r="AV35" s="15"/>
-      <c r="AW35" s="15"/>
-      <c r="AX35" s="15"/>
-      <c r="AY35" s="15"/>
-      <c r="AZ35" s="15"/>
-      <c r="BA35" s="15"/>
-      <c r="BB35" s="15"/>
-      <c r="BC35" s="15"/>
-      <c r="BD35" s="15"/>
-      <c r="BE35" s="15"/>
-      <c r="BF35" s="15"/>
-      <c r="BG35" s="15"/>
-      <c r="BH35" s="15"/>
-      <c r="BI35" s="15"/>
-      <c r="BJ35" s="15"/>
-      <c r="BK35" s="15"/>
-      <c r="BL35" s="15"/>
-      <c r="BM35" s="15"/>
-      <c r="BN35" s="16"/>
-      <c r="BO35" s="19" t="str">
+      <c r="R35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="32"/>
+      <c r="BA35" s="32"/>
+      <c r="BB35" s="32"/>
+      <c r="BC35" s="32"/>
+      <c r="BD35" s="32"/>
+      <c r="BE35" s="32"/>
+      <c r="BF35" s="32"/>
+      <c r="BG35" s="32"/>
+      <c r="BH35" s="32"/>
+      <c r="BI35" s="32"/>
+      <c r="BJ35" s="32"/>
+      <c r="BK35" s="32"/>
+      <c r="BL35" s="32"/>
+      <c r="BM35" s="32"/>
+      <c r="BN35" s="33"/>
+      <c r="BO35" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-026</v>
-      </c>
-      <c r="BP35" s="15"/>
-      <c r="BQ35" s="15"/>
-      <c r="BR35" s="16"/>
+        <v>002-001-027</v>
+      </c>
+      <c r="BP35" s="32"/>
+      <c r="BQ35" s="32"/>
+      <c r="BR35" s="33"/>
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
@@ -8735,13 +9125,13 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="14" t="s">
-        <v>138</v>
+      <c r="R36" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -8756,7 +9146,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -8792,7 +9182,7 @@
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-027</v>
+        <v>002-001-028</v>
       </c>
       <c r="BP36" s="15"/>
       <c r="BQ36" s="15"/>
@@ -8805,7 +9195,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -8819,68 +9209,68 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="15"/>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
-      <c r="AU37" s="15"/>
-      <c r="AV37" s="15"/>
-      <c r="AW37" s="15"/>
-      <c r="AX37" s="15"/>
-      <c r="AY37" s="15"/>
-      <c r="AZ37" s="15"/>
-      <c r="BA37" s="15"/>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
-      <c r="BE37" s="15"/>
-      <c r="BF37" s="15"/>
-      <c r="BG37" s="15"/>
-      <c r="BH37" s="15"/>
-      <c r="BI37" s="15"/>
-      <c r="BJ37" s="15"/>
-      <c r="BK37" s="15"/>
-      <c r="BL37" s="15"/>
-      <c r="BM37" s="15"/>
-      <c r="BN37" s="16"/>
-      <c r="BO37" s="19" t="str">
+      <c r="R37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="4"/>
+      <c r="BO37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-028</v>
-      </c>
-      <c r="BP37" s="15"/>
-      <c r="BQ37" s="15"/>
-      <c r="BR37" s="16"/>
+        <v>002-001-029</v>
+      </c>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="4"/>
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
@@ -8902,7 +9292,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -8920,7 +9310,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -8956,7 +9346,7 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-029</v>
+        <v>002-001-030</v>
       </c>
       <c r="BP38" s="15"/>
       <c r="BQ38" s="15"/>
@@ -8982,7 +9372,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
@@ -9000,7 +9390,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -9036,7 +9426,7 @@
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-030</v>
+        <v>002-001-031</v>
       </c>
       <c r="BP39" s="15"/>
       <c r="BQ39" s="15"/>
@@ -9061,68 +9451,68 @@
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
-      <c r="R40" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="S40" s="15"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
-      <c r="AS40" s="15"/>
-      <c r="AT40" s="15"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="15"/>
-      <c r="AW40" s="15"/>
-      <c r="AX40" s="15"/>
-      <c r="AY40" s="15"/>
-      <c r="AZ40" s="15"/>
-      <c r="BA40" s="15"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="15"/>
-      <c r="BD40" s="15"/>
-      <c r="BE40" s="15"/>
-      <c r="BF40" s="15"/>
-      <c r="BG40" s="15"/>
-      <c r="BH40" s="15"/>
-      <c r="BI40" s="15"/>
-      <c r="BJ40" s="15"/>
-      <c r="BK40" s="15"/>
-      <c r="BL40" s="15"/>
-      <c r="BM40" s="15"/>
-      <c r="BN40" s="16"/>
-      <c r="BO40" s="19" t="str">
+      <c r="R40" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="S40" s="32"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
+      <c r="BC40" s="32"/>
+      <c r="BD40" s="32"/>
+      <c r="BE40" s="32"/>
+      <c r="BF40" s="32"/>
+      <c r="BG40" s="32"/>
+      <c r="BH40" s="32"/>
+      <c r="BI40" s="32"/>
+      <c r="BJ40" s="32"/>
+      <c r="BK40" s="32"/>
+      <c r="BL40" s="32"/>
+      <c r="BM40" s="32"/>
+      <c r="BN40" s="33"/>
+      <c r="BO40" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-031</v>
-      </c>
-      <c r="BP40" s="15"/>
-      <c r="BQ40" s="15"/>
-      <c r="BR40" s="16"/>
+        <v>002-001-032</v>
+      </c>
+      <c r="BP40" s="32"/>
+      <c r="BQ40" s="32"/>
+      <c r="BR40" s="33"/>
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
@@ -9143,68 +9533,68 @@
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="R41" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S41" s="15"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="15"/>
-      <c r="AW41" s="15"/>
-      <c r="AX41" s="15"/>
-      <c r="AY41" s="15"/>
-      <c r="AZ41" s="15"/>
-      <c r="BA41" s="15"/>
-      <c r="BB41" s="15"/>
-      <c r="BC41" s="15"/>
-      <c r="BD41" s="15"/>
-      <c r="BE41" s="15"/>
-      <c r="BF41" s="15"/>
-      <c r="BG41" s="15"/>
-      <c r="BH41" s="15"/>
-      <c r="BI41" s="15"/>
-      <c r="BJ41" s="15"/>
-      <c r="BK41" s="15"/>
-      <c r="BL41" s="15"/>
-      <c r="BM41" s="15"/>
-      <c r="BN41" s="16"/>
-      <c r="BO41" s="19" t="str">
+      <c r="R41" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="4"/>
+      <c r="BO41" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>002-001-032</v>
-      </c>
-      <c r="BP41" s="15"/>
-      <c r="BQ41" s="15"/>
-      <c r="BR41" s="15"/>
+        <v>002-001-033</v>
+      </c>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="4"/>
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
     </row>
@@ -9213,7 +9603,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
@@ -9231,19 +9621,47 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
       <c r="AK42" s="15"/>
       <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
       <c r="BO42" s="19" t="str">
         <f t="shared" ref="BO42:BO55" si="1">IF(R42="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R42)</f>
-        <v>002-001-033</v>
+        <v>002-001-034</v>
       </c>
       <c r="BP42" s="15"/>
       <c r="BQ42" s="15"/>
-      <c r="BR42" s="15"/>
+      <c r="BR42" s="16"/>
       <c r="BS42" s="14"/>
       <c r="BT42" s="16"/>
     </row>
@@ -9252,7 +9670,7 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="R43" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
@@ -9270,17 +9688,47 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
       <c r="BO43" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-034</v>
+        <v>002-001-035</v>
       </c>
       <c r="BP43" s="15"/>
       <c r="BQ43" s="15"/>
-      <c r="BR43" s="15"/>
+      <c r="BR43" s="16"/>
       <c r="BS43" s="14"/>
       <c r="BT43" s="16"/>
     </row>
@@ -9290,7 +9738,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="14"/>
       <c r="R44" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
@@ -9308,16 +9756,47 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
       <c r="BO44" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-035</v>
+        <v>002-001-036</v>
       </c>
       <c r="BP44" s="15"/>
       <c r="BQ44" s="15"/>
-      <c r="BR44" s="15"/>
+      <c r="BR44" s="16"/>
       <c r="BS44" s="14"/>
       <c r="BT44" s="16"/>
     </row>
@@ -9327,7 +9806,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="14"/>
       <c r="R45" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
@@ -9345,16 +9824,47 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
       <c r="BO45" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-036</v>
+        <v>002-001-037</v>
       </c>
       <c r="BP45" s="15"/>
       <c r="BQ45" s="15"/>
-      <c r="BR45" s="15"/>
+      <c r="BR45" s="16"/>
       <c r="BS45" s="14"/>
       <c r="BT45" s="16"/>
     </row>
@@ -9381,28 +9891,83 @@
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R47" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="S47" s="15"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="14" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BO47" s="19" t="str">
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-037</v>
-      </c>
-      <c r="BP47" s="15"/>
-      <c r="BQ47" s="15"/>
-      <c r="BR47" s="15"/>
+        <v>002-001-038</v>
+      </c>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="4"/>
       <c r="BS47" s="14"/>
       <c r="BT47" s="16"/>
     </row>
@@ -9411,27 +9976,82 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="S48" s="15"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BO48" s="19" t="str">
+        <v>177</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="33"/>
+      <c r="AH48" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="32"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="32"/>
+      <c r="AR48" s="32"/>
+      <c r="AS48" s="32"/>
+      <c r="AT48" s="32"/>
+      <c r="AU48" s="32"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="32"/>
+      <c r="AX48" s="32"/>
+      <c r="AY48" s="32"/>
+      <c r="AZ48" s="32"/>
+      <c r="BA48" s="32"/>
+      <c r="BB48" s="32"/>
+      <c r="BC48" s="32"/>
+      <c r="BD48" s="32"/>
+      <c r="BE48" s="32"/>
+      <c r="BF48" s="32"/>
+      <c r="BG48" s="32"/>
+      <c r="BH48" s="32"/>
+      <c r="BI48" s="32"/>
+      <c r="BJ48" s="32"/>
+      <c r="BK48" s="32"/>
+      <c r="BL48" s="32"/>
+      <c r="BM48" s="32"/>
+      <c r="BN48" s="32"/>
+      <c r="BO48" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-038</v>
-      </c>
-      <c r="BP48" s="15"/>
-      <c r="BQ48" s="15"/>
-      <c r="BR48" s="15"/>
+        <v>002-001-039</v>
+      </c>
+      <c r="BP48" s="32"/>
+      <c r="BQ48" s="32"/>
+      <c r="BR48" s="33"/>
       <c r="BS48" s="14"/>
       <c r="BT48" s="16"/>
     </row>
@@ -9442,25 +10062,80 @@
       <c r="E49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="S49" s="15"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BO49" s="19" t="str">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+      <c r="BO49" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-039</v>
-      </c>
-      <c r="BP49" s="15"/>
-      <c r="BQ49" s="15"/>
-      <c r="BR49" s="15"/>
+        <v>002-001-040</v>
+      </c>
+      <c r="BP49" s="3"/>
+      <c r="BQ49" s="3"/>
+      <c r="BR49" s="4"/>
       <c r="BS49" s="14"/>
       <c r="BT49" s="16"/>
     </row>
@@ -9469,24 +10144,80 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="14" t="s">
-        <v>203</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="14" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
-      <c r="AH50" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="AH50" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="15"/>
       <c r="BO50" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-040</v>
+        <v>002-001-041</v>
       </c>
       <c r="BP50" s="15"/>
       <c r="BQ50" s="15"/>
-      <c r="BR50" s="15"/>
+      <c r="BR50" s="16"/>
       <c r="BS50" s="14"/>
       <c r="BT50" s="16"/>
     </row>
@@ -9494,22 +10225,79 @@
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
-      <c r="R51" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO51" s="19" t="str">
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="S51" s="27"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27"/>
+      <c r="AK51" s="27"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="27"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="27"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="27"/>
+      <c r="AT51" s="27"/>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="27"/>
+      <c r="AW51" s="27"/>
+      <c r="AX51" s="27"/>
+      <c r="AY51" s="27"/>
+      <c r="AZ51" s="27"/>
+      <c r="BA51" s="27"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="27"/>
+      <c r="BD51" s="27"/>
+      <c r="BE51" s="27"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="27"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="27"/>
+      <c r="BL51" s="27"/>
+      <c r="BM51" s="27"/>
+      <c r="BN51" s="27"/>
+      <c r="BO51" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-041</v>
-      </c>
-      <c r="BP51" s="15"/>
-      <c r="BQ51" s="15"/>
-      <c r="BR51" s="15"/>
+        <v>002-001-042</v>
+      </c>
+      <c r="BP51" s="27"/>
+      <c r="BQ51" s="27"/>
+      <c r="BR51" s="28"/>
       <c r="BS51" s="14"/>
       <c r="BT51" s="16"/>
     </row>
@@ -9517,25 +10305,81 @@
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
       <c r="R52" s="14" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
-      <c r="U52" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="U52" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
-      <c r="AH52" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="AH52" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15"/>
+      <c r="BA52" s="15"/>
+      <c r="BB52" s="15"/>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="15"/>
+      <c r="BF52" s="15"/>
+      <c r="BG52" s="15"/>
+      <c r="BH52" s="15"/>
+      <c r="BI52" s="15"/>
+      <c r="BJ52" s="15"/>
+      <c r="BK52" s="15"/>
+      <c r="BL52" s="15"/>
+      <c r="BM52" s="15"/>
+      <c r="BN52" s="15"/>
       <c r="BO52" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-042</v>
+        <v>002-001-043</v>
       </c>
       <c r="BP52" s="15"/>
       <c r="BQ52" s="15"/>
-      <c r="BR52" s="15"/>
+      <c r="BR52" s="16"/>
       <c r="BS52" s="14"/>
       <c r="BT52" s="16"/>
     </row>
@@ -9543,25 +10387,81 @@
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
-      <c r="R53" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="S53" s="15"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="1" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="BO53" s="19" t="str">
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+      <c r="BO53" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-043</v>
-      </c>
-      <c r="BP53" s="15"/>
-      <c r="BQ53" s="15"/>
-      <c r="BR53" s="15"/>
+        <v>002-001-044</v>
+      </c>
+      <c r="BP53" s="3"/>
+      <c r="BQ53" s="3"/>
+      <c r="BR53" s="4"/>
       <c r="BS53" s="14"/>
       <c r="BT53" s="16"/>
     </row>
@@ -9569,22 +10469,79 @@
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
       <c r="R54" s="14" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
-      <c r="AH54" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="AH54" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="15"/>
       <c r="BO54" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-044</v>
+        <v>002-001-045</v>
       </c>
       <c r="BP54" s="15"/>
       <c r="BQ54" s="15"/>
-      <c r="BR54" s="15"/>
+      <c r="BR54" s="16"/>
       <c r="BS54" s="14"/>
       <c r="BT54" s="16"/>
     </row>
@@ -9592,22 +10549,79 @@
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
       <c r="R55" s="14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
-      <c r="AH55" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="AH55" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="15"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="15"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="15"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="15"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="15"/>
+      <c r="BL55" s="15"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="15"/>
       <c r="BO55" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>002-001-045</v>
+        <v>002-001-046</v>
       </c>
       <c r="BP55" s="15"/>
       <c r="BQ55" s="15"/>
-      <c r="BR55" s="15"/>
+      <c r="BR55" s="16"/>
       <c r="BS55" s="14"/>
       <c r="BT55" s="16"/>
     </row>
@@ -9615,22 +10629,79 @@
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="14" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
-      <c r="AH56" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="AH56" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="15"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="15"/>
+      <c r="BK56" s="15"/>
+      <c r="BL56" s="15"/>
+      <c r="BM56" s="15"/>
+      <c r="BN56" s="15"/>
       <c r="BO56" s="19" t="str">
-        <f t="shared" ref="BO56:BO71" si="2">IF(R56="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R56)</f>
-        <v>002-001-046</v>
+        <f t="shared" ref="BO56:BO74" si="2">IF(R56="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R56)</f>
+        <v>002-001-047</v>
       </c>
       <c r="BP56" s="15"/>
       <c r="BQ56" s="15"/>
-      <c r="BR56" s="15"/>
+      <c r="BR56" s="16"/>
       <c r="BS56" s="14"/>
       <c r="BT56" s="16"/>
     </row>
@@ -9638,22 +10709,79 @@
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
-      <c r="AH57" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="AH57" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="15"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="15"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="15"/>
+      <c r="AP57" s="15"/>
+      <c r="AQ57" s="15"/>
+      <c r="AR57" s="15"/>
+      <c r="AS57" s="15"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="15"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="15"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="15"/>
+      <c r="BD57" s="15"/>
+      <c r="BE57" s="15"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="15"/>
+      <c r="BH57" s="15"/>
+      <c r="BI57" s="15"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="15"/>
+      <c r="BL57" s="15"/>
+      <c r="BM57" s="15"/>
+      <c r="BN57" s="15"/>
       <c r="BO57" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-047</v>
+        <v>002-001-048</v>
       </c>
       <c r="BP57" s="15"/>
       <c r="BQ57" s="15"/>
-      <c r="BR57" s="15"/>
+      <c r="BR57" s="16"/>
       <c r="BS57" s="14"/>
       <c r="BT57" s="16"/>
     </row>
@@ -9661,22 +10789,79 @@
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
-      <c r="R58" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="S58" s="15"/>
-      <c r="T58" s="16"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO58" s="19" t="str">
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="S58" s="27"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AL58" s="27"/>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="27"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="27"/>
+      <c r="AQ58" s="27"/>
+      <c r="AR58" s="27"/>
+      <c r="AS58" s="27"/>
+      <c r="AT58" s="27"/>
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="27"/>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="27"/>
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="27"/>
+      <c r="BC58" s="27"/>
+      <c r="BD58" s="27"/>
+      <c r="BE58" s="27"/>
+      <c r="BF58" s="27"/>
+      <c r="BG58" s="27"/>
+      <c r="BH58" s="27"/>
+      <c r="BI58" s="27"/>
+      <c r="BJ58" s="27"/>
+      <c r="BK58" s="27"/>
+      <c r="BL58" s="27"/>
+      <c r="BM58" s="27"/>
+      <c r="BN58" s="27"/>
+      <c r="BO58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-048</v>
-      </c>
-      <c r="BP58" s="15"/>
-      <c r="BQ58" s="15"/>
-      <c r="BR58" s="15"/>
+        <v>002-001-049</v>
+      </c>
+      <c r="BP58" s="27"/>
+      <c r="BQ58" s="27"/>
+      <c r="BR58" s="28"/>
       <c r="BS58" s="14"/>
       <c r="BT58" s="16"/>
     </row>
@@ -9684,25 +10869,81 @@
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
-      <c r="R59" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG59" s="16"/>
-      <c r="AH59" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BO59" s="19" t="str">
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="S59" s="27"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="27"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="27"/>
+      <c r="BC59" s="27"/>
+      <c r="BD59" s="27"/>
+      <c r="BE59" s="27"/>
+      <c r="BF59" s="27"/>
+      <c r="BG59" s="27"/>
+      <c r="BH59" s="27"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="27"/>
+      <c r="BK59" s="27"/>
+      <c r="BL59" s="27"/>
+      <c r="BM59" s="27"/>
+      <c r="BN59" s="27"/>
+      <c r="BO59" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-049</v>
-      </c>
-      <c r="BP59" s="15"/>
-      <c r="BQ59" s="15"/>
-      <c r="BR59" s="15"/>
+        <v>002-001-050</v>
+      </c>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="27"/>
+      <c r="BR59" s="28"/>
       <c r="BS59" s="14"/>
       <c r="BT59" s="16"/>
     </row>
@@ -9710,17 +10951,74 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R60" s="14"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="BO60" s="19"/>
-      <c r="BP60" s="15"/>
-      <c r="BQ60" s="15"/>
-      <c r="BR60" s="15"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
+      <c r="AY60" s="3"/>
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="3"/>
+      <c r="BE60" s="3"/>
+      <c r="BF60" s="3"/>
+      <c r="BG60" s="3"/>
+      <c r="BH60" s="3"/>
+      <c r="BI60" s="3"/>
+      <c r="BJ60" s="3"/>
+      <c r="BK60" s="3"/>
+      <c r="BL60" s="3"/>
+      <c r="BM60" s="3"/>
+      <c r="BN60" s="3"/>
+      <c r="BO60" s="30"/>
+      <c r="BP60" s="3"/>
+      <c r="BQ60" s="3"/>
+      <c r="BR60" s="4"/>
       <c r="BS60" s="14"/>
       <c r="BT60" s="16"/>
     </row>
@@ -9729,27 +11027,82 @@
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="14" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
       <c r="R61" s="14" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="16"/>
       <c r="U61" s="15" t="s">
-        <v>193</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
       <c r="AG61" s="16"/>
       <c r="AH61" s="14" t="s">
         <v>72</v>
       </c>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
+      <c r="AM61" s="15"/>
+      <c r="AN61" s="15"/>
+      <c r="AO61" s="15"/>
+      <c r="AP61" s="15"/>
+      <c r="AQ61" s="15"/>
+      <c r="AR61" s="15"/>
+      <c r="AS61" s="15"/>
+      <c r="AT61" s="15"/>
+      <c r="AU61" s="15"/>
+      <c r="AV61" s="15"/>
+      <c r="AW61" s="15"/>
+      <c r="AX61" s="15"/>
+      <c r="AY61" s="15"/>
+      <c r="AZ61" s="15"/>
+      <c r="BA61" s="15"/>
+      <c r="BB61" s="15"/>
+      <c r="BC61" s="15"/>
+      <c r="BD61" s="15"/>
+      <c r="BE61" s="15"/>
+      <c r="BF61" s="15"/>
+      <c r="BG61" s="15"/>
+      <c r="BH61" s="15"/>
+      <c r="BI61" s="15"/>
+      <c r="BJ61" s="15"/>
+      <c r="BK61" s="15"/>
+      <c r="BL61" s="15"/>
+      <c r="BM61" s="15"/>
+      <c r="BN61" s="15"/>
       <c r="BO61" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-050</v>
+        <v>002-001-051</v>
       </c>
       <c r="BP61" s="15"/>
       <c r="BQ61" s="15"/>
-      <c r="BR61" s="15"/>
+      <c r="BR61" s="16"/>
       <c r="BS61" s="14"/>
       <c r="BT61" s="16"/>
     </row>
@@ -9760,20 +11113,80 @@
       <c r="E62" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R62" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="16"/>
-      <c r="AF62" s="15"/>
-      <c r="AG62" s="16"/>
-      <c r="BO62" s="19" t="str">
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="S62" s="32"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="32"/>
+      <c r="AF62" s="32"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="32"/>
+      <c r="AK62" s="32"/>
+      <c r="AL62" s="32"/>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="32"/>
+      <c r="AP62" s="32"/>
+      <c r="AQ62" s="32"/>
+      <c r="AR62" s="32"/>
+      <c r="AS62" s="32"/>
+      <c r="AT62" s="32"/>
+      <c r="AU62" s="32"/>
+      <c r="AV62" s="32"/>
+      <c r="AW62" s="32"/>
+      <c r="AX62" s="32"/>
+      <c r="AY62" s="32"/>
+      <c r="AZ62" s="32"/>
+      <c r="BA62" s="32"/>
+      <c r="BB62" s="32"/>
+      <c r="BC62" s="32"/>
+      <c r="BD62" s="32"/>
+      <c r="BE62" s="32"/>
+      <c r="BF62" s="32"/>
+      <c r="BG62" s="32"/>
+      <c r="BH62" s="32"/>
+      <c r="BI62" s="32"/>
+      <c r="BJ62" s="32"/>
+      <c r="BK62" s="32"/>
+      <c r="BL62" s="32"/>
+      <c r="BM62" s="32"/>
+      <c r="BN62" s="32"/>
+      <c r="BO62" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-051</v>
-      </c>
-      <c r="BP62" s="15"/>
-      <c r="BQ62" s="15"/>
-      <c r="BR62" s="15"/>
+        <v>002-001-052</v>
+      </c>
+      <c r="BP62" s="32"/>
+      <c r="BQ62" s="32"/>
+      <c r="BR62" s="33"/>
       <c r="BS62" s="14"/>
       <c r="BT62" s="16"/>
     </row>
@@ -9782,22 +11195,82 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="R63" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="16"/>
-      <c r="AF63" s="15"/>
-      <c r="AG63" s="16"/>
-      <c r="BO63" s="19" t="str">
+        <v>228</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+      <c r="BI63" s="3"/>
+      <c r="BJ63" s="3"/>
+      <c r="BK63" s="3"/>
+      <c r="BL63" s="3"/>
+      <c r="BM63" s="3"/>
+      <c r="BN63" s="3"/>
+      <c r="BO63" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-052</v>
-      </c>
-      <c r="BP63" s="15"/>
-      <c r="BQ63" s="15"/>
-      <c r="BR63" s="15"/>
+        <v>002-001-053</v>
+      </c>
+      <c r="BP63" s="3"/>
+      <c r="BQ63" s="3"/>
+      <c r="BR63" s="4"/>
       <c r="BS63" s="14"/>
       <c r="BT63" s="16"/>
     </row>
@@ -9805,20 +11278,79 @@
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
       <c r="R64" s="14" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="16"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
       <c r="AF64" s="15"/>
       <c r="AG64" s="16"/>
+      <c r="AH64" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
+      <c r="AK64" s="15"/>
+      <c r="AL64" s="15"/>
+      <c r="AM64" s="15"/>
+      <c r="AN64" s="15"/>
+      <c r="AO64" s="15"/>
+      <c r="AP64" s="15"/>
+      <c r="AQ64" s="15"/>
+      <c r="AR64" s="15"/>
+      <c r="AS64" s="15"/>
+      <c r="AT64" s="15"/>
+      <c r="AU64" s="15"/>
+      <c r="AV64" s="15"/>
+      <c r="AW64" s="15"/>
+      <c r="AX64" s="15"/>
+      <c r="AY64" s="15"/>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="15"/>
+      <c r="BB64" s="15"/>
+      <c r="BC64" s="15"/>
+      <c r="BD64" s="15"/>
+      <c r="BE64" s="15"/>
+      <c r="BF64" s="15"/>
+      <c r="BG64" s="15"/>
+      <c r="BH64" s="15"/>
+      <c r="BI64" s="15"/>
+      <c r="BJ64" s="15"/>
+      <c r="BK64" s="15"/>
+      <c r="BL64" s="15"/>
+      <c r="BM64" s="15"/>
+      <c r="BN64" s="15"/>
       <c r="BO64" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-053</v>
+        <v>002-001-054</v>
       </c>
       <c r="BP64" s="15"/>
       <c r="BQ64" s="15"/>
-      <c r="BR64" s="15"/>
+      <c r="BR64" s="16"/>
       <c r="BS64" s="14"/>
       <c r="BT64" s="16"/>
     </row>
@@ -9826,20 +11358,79 @@
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="14" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
+      <c r="AH65" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="15"/>
+      <c r="AL65" s="15"/>
+      <c r="AM65" s="15"/>
+      <c r="AN65" s="15"/>
+      <c r="AO65" s="15"/>
+      <c r="AP65" s="15"/>
+      <c r="AQ65" s="15"/>
+      <c r="AR65" s="15"/>
+      <c r="AS65" s="15"/>
+      <c r="AT65" s="15"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
+      <c r="AW65" s="15"/>
+      <c r="AX65" s="15"/>
+      <c r="AY65" s="15"/>
+      <c r="AZ65" s="15"/>
+      <c r="BA65" s="15"/>
+      <c r="BB65" s="15"/>
+      <c r="BC65" s="15"/>
+      <c r="BD65" s="15"/>
+      <c r="BE65" s="15"/>
+      <c r="BF65" s="15"/>
+      <c r="BG65" s="15"/>
+      <c r="BH65" s="15"/>
+      <c r="BI65" s="15"/>
+      <c r="BJ65" s="15"/>
+      <c r="BK65" s="15"/>
+      <c r="BL65" s="15"/>
+      <c r="BM65" s="15"/>
+      <c r="BN65" s="15"/>
       <c r="BO65" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-054</v>
+        <v>002-001-055</v>
       </c>
       <c r="BP65" s="15"/>
       <c r="BQ65" s="15"/>
-      <c r="BR65" s="15"/>
+      <c r="BR65" s="16"/>
       <c r="BS65" s="14"/>
       <c r="BT65" s="16"/>
     </row>
@@ -9847,20 +11438,79 @@
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="14" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
       <c r="AF66" s="15"/>
       <c r="AG66" s="16"/>
+      <c r="AH66" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI66" s="15"/>
+      <c r="AJ66" s="15"/>
+      <c r="AK66" s="15"/>
+      <c r="AL66" s="15"/>
+      <c r="AM66" s="15"/>
+      <c r="AN66" s="15"/>
+      <c r="AO66" s="15"/>
+      <c r="AP66" s="15"/>
+      <c r="AQ66" s="15"/>
+      <c r="AR66" s="15"/>
+      <c r="AS66" s="15"/>
+      <c r="AT66" s="15"/>
+      <c r="AU66" s="15"/>
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="15"/>
+      <c r="AY66" s="15"/>
+      <c r="AZ66" s="15"/>
+      <c r="BA66" s="15"/>
+      <c r="BB66" s="15"/>
+      <c r="BC66" s="15"/>
+      <c r="BD66" s="15"/>
+      <c r="BE66" s="15"/>
+      <c r="BF66" s="15"/>
+      <c r="BG66" s="15"/>
+      <c r="BH66" s="15"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="15"/>
+      <c r="BK66" s="15"/>
+      <c r="BL66" s="15"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="15"/>
       <c r="BO66" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-055</v>
+        <v>002-001-056</v>
       </c>
       <c r="BP66" s="15"/>
       <c r="BQ66" s="15"/>
-      <c r="BR66" s="15"/>
+      <c r="BR66" s="16"/>
       <c r="BS66" s="14"/>
       <c r="BT66" s="16"/>
     </row>
@@ -9868,20 +11518,79 @@
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
       <c r="R67" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="16"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
       <c r="AF67" s="15"/>
       <c r="AG67" s="16"/>
+      <c r="AH67" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+      <c r="AK67" s="15"/>
+      <c r="AL67" s="15"/>
+      <c r="AM67" s="15"/>
+      <c r="AN67" s="15"/>
+      <c r="AO67" s="15"/>
+      <c r="AP67" s="15"/>
+      <c r="AQ67" s="15"/>
+      <c r="AR67" s="15"/>
+      <c r="AS67" s="15"/>
+      <c r="AT67" s="15"/>
+      <c r="AU67" s="15"/>
+      <c r="AV67" s="15"/>
+      <c r="AW67" s="15"/>
+      <c r="AX67" s="15"/>
+      <c r="AY67" s="15"/>
+      <c r="AZ67" s="15"/>
+      <c r="BA67" s="15"/>
+      <c r="BB67" s="15"/>
+      <c r="BC67" s="15"/>
+      <c r="BD67" s="15"/>
+      <c r="BE67" s="15"/>
+      <c r="BF67" s="15"/>
+      <c r="BG67" s="15"/>
+      <c r="BH67" s="15"/>
+      <c r="BI67" s="15"/>
+      <c r="BJ67" s="15"/>
+      <c r="BK67" s="15"/>
+      <c r="BL67" s="15"/>
+      <c r="BM67" s="15"/>
+      <c r="BN67" s="15"/>
       <c r="BO67" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>002-001-056</v>
+        <v>002-001-057</v>
       </c>
       <c r="BP67" s="15"/>
       <c r="BQ67" s="15"/>
-      <c r="BR67" s="15"/>
+      <c r="BR67" s="16"/>
       <c r="BS67" s="14"/>
       <c r="BT67" s="16"/>
     </row>
@@ -9889,18 +11598,79 @@
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="16"/>
-      <c r="AF68" s="15"/>
-      <c r="AG68" s="16"/>
-      <c r="BO68" s="19" t="str">
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="S68" s="27"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
+      <c r="AF68" s="27"/>
+      <c r="AG68" s="28"/>
+      <c r="AH68" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI68" s="27"/>
+      <c r="AJ68" s="27"/>
+      <c r="AK68" s="27"/>
+      <c r="AL68" s="27"/>
+      <c r="AM68" s="27"/>
+      <c r="AN68" s="27"/>
+      <c r="AO68" s="27"/>
+      <c r="AP68" s="27"/>
+      <c r="AQ68" s="27"/>
+      <c r="AR68" s="27"/>
+      <c r="AS68" s="27"/>
+      <c r="AT68" s="27"/>
+      <c r="AU68" s="27"/>
+      <c r="AV68" s="27"/>
+      <c r="AW68" s="27"/>
+      <c r="AX68" s="27"/>
+      <c r="AY68" s="27"/>
+      <c r="AZ68" s="27"/>
+      <c r="BA68" s="27"/>
+      <c r="BB68" s="27"/>
+      <c r="BC68" s="27"/>
+      <c r="BD68" s="27"/>
+      <c r="BE68" s="27"/>
+      <c r="BF68" s="27"/>
+      <c r="BG68" s="27"/>
+      <c r="BH68" s="27"/>
+      <c r="BI68" s="27"/>
+      <c r="BJ68" s="27"/>
+      <c r="BK68" s="27"/>
+      <c r="BL68" s="27"/>
+      <c r="BM68" s="27"/>
+      <c r="BN68" s="27"/>
+      <c r="BO68" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="BP68" s="15"/>
-      <c r="BQ68" s="15"/>
-      <c r="BR68" s="15"/>
+        <v>002-001-058</v>
+      </c>
+      <c r="BP68" s="27"/>
+      <c r="BQ68" s="27"/>
+      <c r="BR68" s="28"/>
       <c r="BS68" s="14"/>
       <c r="BT68" s="16"/>
     </row>
@@ -9908,18 +11678,81 @@
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="16"/>
-      <c r="AF69" s="15"/>
-      <c r="AG69" s="16"/>
-      <c r="BO69" s="19" t="str">
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S69" s="3"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
+      <c r="AY69" s="3"/>
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+      <c r="BC69" s="3"/>
+      <c r="BD69" s="3"/>
+      <c r="BE69" s="3"/>
+      <c r="BF69" s="3"/>
+      <c r="BG69" s="3"/>
+      <c r="BH69" s="3"/>
+      <c r="BI69" s="3"/>
+      <c r="BJ69" s="3"/>
+      <c r="BK69" s="3"/>
+      <c r="BL69" s="3"/>
+      <c r="BM69" s="3"/>
+      <c r="BN69" s="3"/>
+      <c r="BO69" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="BP69" s="15"/>
-      <c r="BQ69" s="15"/>
-      <c r="BR69" s="15"/>
+        <v>002-001-059</v>
+      </c>
+      <c r="BP69" s="3"/>
+      <c r="BQ69" s="3"/>
+      <c r="BR69" s="4"/>
       <c r="BS69" s="14"/>
       <c r="BT69" s="16"/>
     </row>
@@ -9927,18 +11760,79 @@
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
-      <c r="R70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="14" t="s">
+        <v>273</v>
+      </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
+      <c r="AH70" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI70" s="15"/>
+      <c r="AJ70" s="15"/>
+      <c r="AK70" s="15"/>
+      <c r="AL70" s="15"/>
+      <c r="AM70" s="15"/>
+      <c r="AN70" s="15"/>
+      <c r="AO70" s="15"/>
+      <c r="AP70" s="15"/>
+      <c r="AQ70" s="15"/>
+      <c r="AR70" s="15"/>
+      <c r="AS70" s="15"/>
+      <c r="AT70" s="15"/>
+      <c r="AU70" s="15"/>
+      <c r="AV70" s="15"/>
+      <c r="AW70" s="15"/>
+      <c r="AX70" s="15"/>
+      <c r="AY70" s="15"/>
+      <c r="AZ70" s="15"/>
+      <c r="BA70" s="15"/>
+      <c r="BB70" s="15"/>
+      <c r="BC70" s="15"/>
+      <c r="BD70" s="15"/>
+      <c r="BE70" s="15"/>
+      <c r="BF70" s="15"/>
+      <c r="BG70" s="15"/>
+      <c r="BH70" s="15"/>
+      <c r="BI70" s="15"/>
+      <c r="BJ70" s="15"/>
+      <c r="BK70" s="15"/>
+      <c r="BL70" s="15"/>
+      <c r="BM70" s="15"/>
+      <c r="BN70" s="15"/>
       <c r="BO70" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>002-001-060</v>
       </c>
       <c r="BP70" s="15"/>
       <c r="BQ70" s="15"/>
-      <c r="BR70" s="15"/>
+      <c r="BR70" s="16"/>
       <c r="BS70" s="14"/>
       <c r="BT70" s="16"/>
     </row>
@@ -9946,18 +11840,79 @@
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
-      <c r="R71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
+      <c r="AH71" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="15"/>
+      <c r="AL71" s="15"/>
+      <c r="AM71" s="15"/>
+      <c r="AN71" s="15"/>
+      <c r="AO71" s="15"/>
+      <c r="AP71" s="15"/>
+      <c r="AQ71" s="15"/>
+      <c r="AR71" s="15"/>
+      <c r="AS71" s="15"/>
+      <c r="AT71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="AV71" s="15"/>
+      <c r="AW71" s="15"/>
+      <c r="AX71" s="15"/>
+      <c r="AY71" s="15"/>
+      <c r="AZ71" s="15"/>
+      <c r="BA71" s="15"/>
+      <c r="BB71" s="15"/>
+      <c r="BC71" s="15"/>
+      <c r="BD71" s="15"/>
+      <c r="BE71" s="15"/>
+      <c r="BF71" s="15"/>
+      <c r="BG71" s="15"/>
+      <c r="BH71" s="15"/>
+      <c r="BI71" s="15"/>
+      <c r="BJ71" s="15"/>
+      <c r="BK71" s="15"/>
+      <c r="BL71" s="15"/>
+      <c r="BM71" s="15"/>
+      <c r="BN71" s="15"/>
       <c r="BO71" s="19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>002-001-061</v>
       </c>
       <c r="BP71" s="15"/>
       <c r="BQ71" s="15"/>
-      <c r="BR71" s="15"/>
+      <c r="BR71" s="16"/>
       <c r="BS71" s="14"/>
       <c r="BT71" s="16"/>
     </row>
@@ -9965,15 +11920,79 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
-      <c r="R72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
-      <c r="BO72" s="14"/>
+      <c r="AH72" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI72" s="15"/>
+      <c r="AJ72" s="15"/>
+      <c r="AK72" s="15"/>
+      <c r="AL72" s="15"/>
+      <c r="AM72" s="15"/>
+      <c r="AN72" s="15"/>
+      <c r="AO72" s="15"/>
+      <c r="AP72" s="15"/>
+      <c r="AQ72" s="15"/>
+      <c r="AR72" s="15"/>
+      <c r="AS72" s="15"/>
+      <c r="AT72" s="15"/>
+      <c r="AU72" s="15"/>
+      <c r="AV72" s="15"/>
+      <c r="AW72" s="15"/>
+      <c r="AX72" s="15"/>
+      <c r="AY72" s="15"/>
+      <c r="AZ72" s="15"/>
+      <c r="BA72" s="15"/>
+      <c r="BB72" s="15"/>
+      <c r="BC72" s="15"/>
+      <c r="BD72" s="15"/>
+      <c r="BE72" s="15"/>
+      <c r="BF72" s="15"/>
+      <c r="BG72" s="15"/>
+      <c r="BH72" s="15"/>
+      <c r="BI72" s="15"/>
+      <c r="BJ72" s="15"/>
+      <c r="BK72" s="15"/>
+      <c r="BL72" s="15"/>
+      <c r="BM72" s="15"/>
+      <c r="BN72" s="15"/>
+      <c r="BO72" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-062</v>
+      </c>
       <c r="BP72" s="15"/>
       <c r="BQ72" s="15"/>
-      <c r="BR72" s="15"/>
+      <c r="BR72" s="16"/>
       <c r="BS72" s="14"/>
       <c r="BT72" s="16"/>
     </row>
@@ -9981,12 +12000,76 @@
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
-      <c r="R73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
-      <c r="BO73" s="14"/>
+      <c r="AH73" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="15"/>
+      <c r="AL73" s="15"/>
+      <c r="AM73" s="15"/>
+      <c r="AN73" s="15"/>
+      <c r="AO73" s="15"/>
+      <c r="AP73" s="15"/>
+      <c r="AQ73" s="15"/>
+      <c r="AR73" s="15"/>
+      <c r="AS73" s="15"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
+      <c r="AW73" s="15"/>
+      <c r="AX73" s="15"/>
+      <c r="AY73" s="15"/>
+      <c r="AZ73" s="15"/>
+      <c r="BA73" s="15"/>
+      <c r="BB73" s="15"/>
+      <c r="BC73" s="15"/>
+      <c r="BD73" s="15"/>
+      <c r="BE73" s="15"/>
+      <c r="BF73" s="15"/>
+      <c r="BG73" s="15"/>
+      <c r="BH73" s="15"/>
+      <c r="BI73" s="15"/>
+      <c r="BJ73" s="15"/>
+      <c r="BK73" s="15"/>
+      <c r="BL73" s="15"/>
+      <c r="BM73" s="15"/>
+      <c r="BN73" s="15"/>
+      <c r="BO73" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-063</v>
+      </c>
       <c r="BP73" s="15"/>
       <c r="BQ73" s="15"/>
       <c r="BR73" s="16"/>
@@ -9997,15 +12080,79 @@
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="16"/>
-      <c r="AF74" s="15"/>
-      <c r="AG74" s="16"/>
-      <c r="BO74" s="14"/>
-      <c r="BP74" s="15"/>
-      <c r="BQ74" s="15"/>
-      <c r="BR74" s="16"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="S74" s="27"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI74" s="27"/>
+      <c r="AJ74" s="27"/>
+      <c r="AK74" s="27"/>
+      <c r="AL74" s="27"/>
+      <c r="AM74" s="27"/>
+      <c r="AN74" s="27"/>
+      <c r="AO74" s="27"/>
+      <c r="AP74" s="27"/>
+      <c r="AQ74" s="27"/>
+      <c r="AR74" s="27"/>
+      <c r="AS74" s="27"/>
+      <c r="AT74" s="27"/>
+      <c r="AU74" s="27"/>
+      <c r="AV74" s="27"/>
+      <c r="AW74" s="27"/>
+      <c r="AX74" s="27"/>
+      <c r="AY74" s="27"/>
+      <c r="AZ74" s="27"/>
+      <c r="BA74" s="27"/>
+      <c r="BB74" s="27"/>
+      <c r="BC74" s="27"/>
+      <c r="BD74" s="27"/>
+      <c r="BE74" s="27"/>
+      <c r="BF74" s="27"/>
+      <c r="BG74" s="27"/>
+      <c r="BH74" s="27"/>
+      <c r="BI74" s="27"/>
+      <c r="BJ74" s="27"/>
+      <c r="BK74" s="27"/>
+      <c r="BL74" s="27"/>
+      <c r="BM74" s="27"/>
+      <c r="BN74" s="27"/>
+      <c r="BO74" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>002-001-064</v>
+      </c>
+      <c r="BP74" s="27"/>
+      <c r="BQ74" s="27"/>
+      <c r="BR74" s="28"/>
       <c r="BS74" s="14"/>
       <c r="BT74" s="16"/>
     </row>
@@ -10238,7 +12385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6B8B2-DAE9-48B5-B220-66FCB44D4526}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6CACCA-A3C9-4BDC-AA6F-81D79B8EE4CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14810" windowHeight="8000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001_物件管理" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="003_契約管理" sheetId="5" r:id="rId3"/>
     <sheet name="備考1" sheetId="2" r:id="rId4"/>
     <sheet name="備考2" sheetId="3" r:id="rId5"/>
+    <sheet name="備考3" sheetId="6" r:id="rId6"/>
+    <sheet name="備考４" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="321">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -1632,59 +1634,6 @@
     <t>037</t>
   </si>
   <si>
-    <t>契約管理→契約情報一覧→随時対応→7任意保険・自賠責保険更新</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホケン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジバイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>セキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホケン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意保険・自賠責保険更新のプロセスを更新追加する</t>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホワイトボード→駐車場一覧→物件番号</t>
     <rPh sb="14" eb="16">
       <t>ブッケン</t>
@@ -2730,6 +2679,715 @@
   </si>
   <si>
     <t>064</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【画面】</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約手続き一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【手順】</t>
+    <rPh sb="1" eb="3">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場一覧→空き車室→申込みフォームを送る/契約手続きに進む→申込ユーザー登録の契約者分類の個人を選ぶ、名前を入力したら次へをクリック→契約管理の契約手続き中一覧</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ちに登録する</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約分類を選べられること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号を入力したら住所を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウビン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての項目を入力できること。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き待ちに登録をOKにしたら、契約手続き中一覧に反映されないこと。ホワイトボードの空き待ちリストに反映されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ケイヤクテツヅ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込確認書、申込書をダウンロードできること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カクニンショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込み基本情報の駐車場情報画面を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込み基本情報入力をできること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報①申込み用フォーム送付</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報②申込み情報確認</t>
+    <rPh sb="5" eb="7">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>申込みフォームに入力した内容を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>進捗情報③審査用フォーム送付</t>
+    <rPh sb="5" eb="8">
+      <t>シンサヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>審査用フォームを申込者のメールに送信できること。</t>
+    <rPh sb="0" eb="3">
+      <t>シンサヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込用フォームメールを届けること。</t>
+    <rPh sb="11" eb="12">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込用フォームメールを送信できること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>審査用フォームメールを届けること。</t>
+    <rPh sb="11" eb="12">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>審査用基本情報のご契約様について項目をすべて入力できること。</t>
+    <rPh sb="0" eb="3">
+      <t>シンサヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次：申込み完了へをクリックしたらシート備考3のように反映されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次：審査情報入力完了へシート備考4のように反映されること。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報④審査情報確認</t>
+    <rPh sb="5" eb="7">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報、車両の主な使用者、書類・操作鍵類の送付先を変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ソウフサキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報⑤書類審査</t>
+    <rPh sb="5" eb="7">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>免許の写し、車検証の写し、自賠責保険証、任意保険証の写しをダウンロードできること。</t>
+    <rPh sb="0" eb="2">
+      <t>メンキョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シャケンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジバイセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自賠責保険の有効期限、任意保険の対物限度額、任意保険の有効期間を変更できること。</t>
+    <rPh sb="0" eb="3">
+      <t>ジバイセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイブツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報⑥勤め先審査</t>
+    <rPh sb="5" eb="6">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>審査情報に入力した勤め先の情報を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された車室に対して営業想定賃料、リーシング募集賃料、チラシ価格、サブリース賃料を一括変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チンリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3135,6 +3793,212 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10501" t="7234" r="60916" b="3979"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="0"/>
+          <a:ext cx="5353050" cy="4676775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10322" t="11182" r="60511" b="3367"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="4714875"/>
+          <a:ext cx="5419725" cy="4591050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8239" t="6397" r="60511" b="4377"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5343524" cy="4291014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10322" t="10774" r="60701" b="4713"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="4343400"/>
+          <a:ext cx="5095875" cy="4234639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3458,16 +4322,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BT41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3531,7 +4395,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +4459,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +4546,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -3732,7 +4596,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -3780,21 +4644,17 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="R8" s="14"/>
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
@@ -3807,9 +4667,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
-      <c r="AH8" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AH8" s="14"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
@@ -3844,7 +4702,7 @@
       <c r="BN8" s="16"/>
       <c r="BO8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-003</v>
+        <v/>
       </c>
       <c r="BP8" s="15"/>
       <c r="BQ8" s="15"/>
@@ -3852,7 +4710,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -3870,14 +4728,10 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="R9" s="14"/>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
@@ -3890,9 +4744,7 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
-      <c r="AH9" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="AH9" s="14"/>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
@@ -3927,7 +4779,7 @@
       <c r="BN9" s="16"/>
       <c r="BO9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-004</v>
+        <v/>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -3935,13 +4787,11 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -3954,14 +4804,10 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="R10" s="14"/>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
@@ -3974,9 +4820,7 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
-      <c r="AH10" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="AH10" s="14"/>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
@@ -4011,7 +4855,7 @@
       <c r="BN10" s="16"/>
       <c r="BO10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-005</v>
+        <v/>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -4019,12 +4863,12 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -4039,12 +4883,12 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -4059,7 +4903,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -4095,7 +4939,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-006</v>
+        <v>001-001-003</v>
       </c>
       <c r="BP11" s="15"/>
       <c r="BQ11" s="15"/>
@@ -4103,12 +4947,12 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -4123,12 +4967,12 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -4143,7 +4987,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -4179,7 +5023,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-007</v>
+        <v>001-001-004</v>
       </c>
       <c r="BP12" s="15"/>
       <c r="BQ12" s="15"/>
@@ -4187,12 +5031,12 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -4207,12 +5051,12 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -4227,7 +5071,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -4263,7 +5107,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-008</v>
+        <v>001-001-005</v>
       </c>
       <c r="BP13" s="15"/>
       <c r="BQ13" s="15"/>
@@ -4271,12 +5115,12 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -4291,12 +5135,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -4311,7 +5155,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -4347,7 +5191,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-009</v>
+        <v>001-001-006</v>
       </c>
       <c r="BP14" s="15"/>
       <c r="BQ14" s="15"/>
@@ -4355,13 +5199,11 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -4375,17 +5217,30 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="U15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="15"/>
@@ -4418,7 +5273,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-010</v>
+        <v>001-001-007</v>
       </c>
       <c r="BP15" s="15"/>
       <c r="BQ15" s="15"/>
@@ -4426,13 +5281,11 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -4446,17 +5299,30 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="U16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -4489,7 +5355,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-011</v>
+        <v>001-001-008</v>
       </c>
       <c r="BP16" s="15"/>
       <c r="BQ16" s="15"/>
@@ -4497,13 +5363,11 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -4517,12 +5381,12 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -4537,7 +5401,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -4573,7 +5437,7 @@
       <c r="BN17" s="16"/>
       <c r="BO17" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-012</v>
+        <v>001-001-009</v>
       </c>
       <c r="BP17" s="15"/>
       <c r="BQ17" s="15"/>
@@ -4581,7 +5445,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -4598,14 +5462,10 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="R18" s="14"/>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -4618,9 +5478,7 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="AH18" s="14"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
@@ -4655,7 +5513,7 @@
       <c r="BN18" s="16"/>
       <c r="BO18" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>001-001-013</v>
+        <v/>
       </c>
       <c r="BP18" s="15"/>
       <c r="BQ18" s="15"/>
@@ -4663,11 +5521,13 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -4680,25 +5540,18 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
+      <c r="U19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
@@ -4731,7 +5584,7 @@
       <c r="BN19" s="16"/>
       <c r="BO19" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>001-001-010</v>
       </c>
       <c r="BP19" s="15"/>
       <c r="BQ19" s="15"/>
@@ -4739,11 +5592,13 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -4756,25 +5611,18 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="14"/>
+      <c r="R20" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
+      <c r="U20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
@@ -4807,7 +5655,7 @@
       <c r="BN20" s="16"/>
       <c r="BO20" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>001-001-011</v>
       </c>
       <c r="BP20" s="15"/>
       <c r="BQ20" s="15"/>
@@ -4815,11 +5663,13 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -4832,10 +5682,14 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
@@ -4848,7 +5702,9 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
-      <c r="AH21" s="14"/>
+      <c r="AH21" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="15"/>
@@ -4883,7 +5739,7 @@
       <c r="BN21" s="16"/>
       <c r="BO21" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>001-001-012</v>
       </c>
       <c r="BP21" s="15"/>
       <c r="BQ21" s="15"/>
@@ -4891,11 +5747,13 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -4908,10 +5766,14 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -4924,7 +5786,9 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
-      <c r="AH22" s="14"/>
+      <c r="AH22" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
@@ -4959,7 +5823,7 @@
       <c r="BN22" s="16"/>
       <c r="BO22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>001-001-013</v>
       </c>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="15"/>
@@ -4967,7 +5831,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -5043,7 +5907,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -5119,7 +5983,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -5195,7 +6059,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -5215,22 +6079,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
+      <c r="AG26" s="16"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
@@ -5271,7 +6120,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -5291,22 +6140,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
+      <c r="AG27" s="16"/>
       <c r="AK27" s="15"/>
       <c r="AL27" s="15"/>
       <c r="AM27" s="15"/>
@@ -5347,7 +6181,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -5423,7 +6257,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -5499,7 +6333,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -5575,7 +6409,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -5651,7 +6485,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -5727,7 +6561,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -5803,7 +6637,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -5879,7 +6713,7 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -5955,7 +6789,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -6031,7 +6865,7 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -6107,7 +6941,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -6183,7 +7017,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -6259,7 +7093,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -6335,7 +7169,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -6422,16 +7256,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BT88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6495,7 +7329,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -6559,7 +7393,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -6646,7 +7480,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +7566,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -6816,7 +7650,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -6854,7 +7688,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -6898,7 +7732,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -6936,7 +7770,7 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
@@ -6980,7 +7814,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -7064,7 +7898,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -7148,7 +7982,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -7230,12 +8064,12 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7314,7 +8148,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -7396,7 +8230,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -7470,7 +8304,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -7490,12 +8324,12 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S16" s="32"/>
       <c r="T16" s="33"/>
       <c r="U16" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -7510,7 +8344,7 @@
       <c r="AF16" s="32"/>
       <c r="AG16" s="33"/>
       <c r="AH16" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI16" s="32"/>
       <c r="AJ16" s="32"/>
@@ -7554,12 +8388,12 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -7579,7 +8413,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -7594,7 +8428,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -7638,7 +8472,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -7676,7 +8510,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -7720,12 +8554,12 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -7758,7 +8592,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -7802,7 +8636,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -7820,7 +8654,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
@@ -7838,7 +8672,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -7882,7 +8716,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -7905,7 +8739,7 @@
       <c r="S21" s="32"/>
       <c r="T21" s="33"/>
       <c r="U21" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -7920,7 +8754,7 @@
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
@@ -7964,7 +8798,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -7987,7 +8821,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
       <c r="U22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -8002,7 +8836,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -8046,7 +8880,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -8082,7 +8916,7 @@
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
@@ -8126,7 +8960,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -8149,7 +8983,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
       <c r="U24" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -8164,7 +8998,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -8208,7 +9042,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -8284,7 +9118,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -8304,12 +9138,12 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="4"/>
       <c r="U26" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -8324,7 +9158,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -8368,12 +9202,12 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -8388,12 +9222,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
       <c r="U27" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -8452,7 +9286,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -8472,12 +9306,12 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -8492,7 +9326,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -8536,12 +9370,12 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -8556,12 +9390,12 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="4"/>
       <c r="U29" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -8576,7 +9410,7 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
@@ -8620,7 +9454,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -8638,7 +9472,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
@@ -8656,7 +9490,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -8700,7 +9534,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -8718,7 +9552,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="28"/>
@@ -8736,7 +9570,7 @@
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
       <c r="AH31" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AI31" s="27"/>
       <c r="AJ31" s="27"/>
@@ -8780,7 +9614,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -8798,12 +9632,12 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -8818,7 +9652,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -8862,7 +9696,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -8938,7 +9772,7 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -8958,12 +9792,12 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="4"/>
       <c r="U34" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -9022,12 +9856,12 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -9047,7 +9881,7 @@
       <c r="S35" s="32"/>
       <c r="T35" s="33"/>
       <c r="U35" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V35" s="32"/>
       <c r="W35" s="32"/>
@@ -9062,7 +9896,7 @@
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
@@ -9106,7 +9940,7 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -9131,7 +9965,7 @@
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -9146,7 +9980,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -9190,12 +10024,12 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -9210,12 +10044,12 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="4"/>
       <c r="U37" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -9230,7 +10064,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
@@ -9274,7 +10108,7 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -9292,7 +10126,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -9310,7 +10144,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -9354,7 +10188,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -9372,7 +10206,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
@@ -9390,7 +10224,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -9434,7 +10268,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -9452,12 +10286,12 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S40" s="32"/>
       <c r="T40" s="33"/>
       <c r="U40" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -9472,7 +10306,7 @@
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
@@ -9516,7 +10350,7 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -9534,12 +10368,12 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="4"/>
       <c r="U41" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -9554,7 +10388,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
@@ -9598,12 +10432,12 @@
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
     </row>
-    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
@@ -9621,7 +10455,7 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
@@ -9665,7 +10499,7 @@
       <c r="BS42" s="14"/>
       <c r="BT42" s="16"/>
     </row>
-    <row r="43" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -9688,7 +10522,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="15"/>
@@ -9732,7 +10566,7 @@
       <c r="BS43" s="14"/>
       <c r="BT43" s="16"/>
     </row>
-    <row r="44" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
@@ -9756,7 +10590,7 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
@@ -9800,7 +10634,7 @@
       <c r="BS44" s="14"/>
       <c r="BT44" s="16"/>
     </row>
-    <row r="45" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
@@ -9824,7 +10658,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI45" s="15"/>
       <c r="AJ45" s="15"/>
@@ -9868,7 +10702,7 @@
       <c r="BS45" s="14"/>
       <c r="BT45" s="16"/>
     </row>
-    <row r="46" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
@@ -9887,7 +10721,7 @@
       <c r="BS46" s="14"/>
       <c r="BT46" s="16"/>
     </row>
-    <row r="47" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
@@ -9907,12 +10741,12 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="4"/>
       <c r="U47" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -9971,12 +10805,12 @@
       <c r="BS47" s="14"/>
       <c r="BT47" s="16"/>
     </row>
-    <row r="48" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -9991,12 +10825,12 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S48" s="32"/>
       <c r="T48" s="33"/>
       <c r="U48" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V48" s="32"/>
       <c r="W48" s="32"/>
@@ -10011,7 +10845,7 @@
       <c r="AF48" s="32"/>
       <c r="AG48" s="33"/>
       <c r="AH48" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -10055,7 +10889,7 @@
       <c r="BS48" s="14"/>
       <c r="BT48" s="16"/>
     </row>
-    <row r="49" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
@@ -10075,12 +10909,12 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="4"/>
       <c r="U49" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -10095,7 +10929,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
@@ -10139,12 +10973,12 @@
       <c r="BS49" s="14"/>
       <c r="BT49" s="16"/>
     </row>
-    <row r="50" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -10159,7 +10993,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
@@ -10177,7 +11011,7 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AI50" s="15"/>
       <c r="AJ50" s="15"/>
@@ -10221,7 +11055,7 @@
       <c r="BS50" s="14"/>
       <c r="BT50" s="16"/>
     </row>
-    <row r="51" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
@@ -10239,7 +11073,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="28"/>
@@ -10257,7 +11091,7 @@
       <c r="AF51" s="27"/>
       <c r="AG51" s="28"/>
       <c r="AH51" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AI51" s="27"/>
       <c r="AJ51" s="27"/>
@@ -10301,7 +11135,7 @@
       <c r="BS51" s="14"/>
       <c r="BT51" s="16"/>
     </row>
-    <row r="52" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
@@ -10319,12 +11153,12 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="U52" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -10339,7 +11173,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
@@ -10383,7 +11217,7 @@
       <c r="BS52" s="14"/>
       <c r="BT52" s="16"/>
     </row>
-    <row r="53" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
@@ -10401,12 +11235,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="4"/>
       <c r="U53" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -10421,7 +11255,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
@@ -10465,7 +11299,7 @@
       <c r="BS53" s="14"/>
       <c r="BT53" s="16"/>
     </row>
-    <row r="54" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
@@ -10483,7 +11317,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
@@ -10501,7 +11335,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
@@ -10545,7 +11379,7 @@
       <c r="BS54" s="14"/>
       <c r="BT54" s="16"/>
     </row>
-    <row r="55" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
@@ -10563,7 +11397,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
@@ -10581,7 +11415,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AI55" s="15"/>
       <c r="AJ55" s="15"/>
@@ -10625,7 +11459,7 @@
       <c r="BS55" s="14"/>
       <c r="BT55" s="16"/>
     </row>
-    <row r="56" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
@@ -10643,7 +11477,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
@@ -10661,7 +11495,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
@@ -10705,7 +11539,7 @@
       <c r="BS56" s="14"/>
       <c r="BT56" s="16"/>
     </row>
-    <row r="57" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
@@ -10723,7 +11557,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
@@ -10741,7 +11575,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AI57" s="15"/>
       <c r="AJ57" s="15"/>
@@ -10785,7 +11619,7 @@
       <c r="BS57" s="14"/>
       <c r="BT57" s="16"/>
     </row>
-    <row r="58" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
@@ -10803,7 +11637,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="28"/>
@@ -10821,7 +11655,7 @@
       <c r="AF58" s="27"/>
       <c r="AG58" s="28"/>
       <c r="AH58" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI58" s="27"/>
       <c r="AJ58" s="27"/>
@@ -10865,7 +11699,7 @@
       <c r="BS58" s="14"/>
       <c r="BT58" s="16"/>
     </row>
-    <row r="59" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
@@ -10883,12 +11717,12 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="28"/>
       <c r="U59" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
@@ -10903,7 +11737,7 @@
       <c r="AF59" s="27"/>
       <c r="AG59" s="28"/>
       <c r="AH59" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AI59" s="27"/>
       <c r="AJ59" s="27"/>
@@ -10947,7 +11781,7 @@
       <c r="BS59" s="14"/>
       <c r="BT59" s="16"/>
     </row>
-    <row r="60" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
@@ -11022,12 +11856,12 @@
       <c r="BS60" s="14"/>
       <c r="BT60" s="16"/>
     </row>
-    <row r="61" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -11042,12 +11876,12 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="16"/>
       <c r="U61" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
@@ -11106,7 +11940,7 @@
       <c r="BS61" s="14"/>
       <c r="BT61" s="16"/>
     </row>
-    <row r="62" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
@@ -11126,12 +11960,12 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S62" s="32"/>
       <c r="T62" s="33"/>
       <c r="U62" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V62" s="32"/>
       <c r="W62" s="32"/>
@@ -11146,7 +11980,7 @@
       <c r="AF62" s="32"/>
       <c r="AG62" s="33"/>
       <c r="AH62" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AI62" s="32"/>
       <c r="AJ62" s="32"/>
@@ -11190,12 +12024,12 @@
       <c r="BS62" s="14"/>
       <c r="BT62" s="16"/>
     </row>
-    <row r="63" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -11210,12 +12044,12 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="4"/>
       <c r="U63" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -11230,7 +12064,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
@@ -11274,7 +12108,7 @@
       <c r="BS63" s="14"/>
       <c r="BT63" s="16"/>
     </row>
-    <row r="64" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
@@ -11292,7 +12126,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="16"/>
@@ -11310,7 +12144,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="16"/>
       <c r="AH64" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
@@ -11354,7 +12188,7 @@
       <c r="BS64" s="14"/>
       <c r="BT64" s="16"/>
     </row>
-    <row r="65" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
@@ -11372,7 +12206,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
@@ -11390,7 +12224,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AI65" s="15"/>
       <c r="AJ65" s="15"/>
@@ -11434,7 +12268,7 @@
       <c r="BS65" s="14"/>
       <c r="BT65" s="16"/>
     </row>
-    <row r="66" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
@@ -11452,7 +12286,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
@@ -11470,7 +12304,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="16"/>
       <c r="AH66" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
@@ -11514,7 +12348,7 @@
       <c r="BS66" s="14"/>
       <c r="BT66" s="16"/>
     </row>
-    <row r="67" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
@@ -11532,7 +12366,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="16"/>
@@ -11550,7 +12384,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="16"/>
       <c r="AH67" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AI67" s="15"/>
       <c r="AJ67" s="15"/>
@@ -11594,7 +12428,7 @@
       <c r="BS67" s="14"/>
       <c r="BT67" s="16"/>
     </row>
-    <row r="68" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
@@ -11612,7 +12446,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S68" s="27"/>
       <c r="T68" s="28"/>
@@ -11630,7 +12464,7 @@
       <c r="AF68" s="27"/>
       <c r="AG68" s="28"/>
       <c r="AH68" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI68" s="27"/>
       <c r="AJ68" s="27"/>
@@ -11674,7 +12508,7 @@
       <c r="BS68" s="14"/>
       <c r="BT68" s="16"/>
     </row>
-    <row r="69" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
@@ -11692,12 +12526,12 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="4"/>
       <c r="U69" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -11712,7 +12546,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
@@ -11756,7 +12590,7 @@
       <c r="BS69" s="14"/>
       <c r="BT69" s="16"/>
     </row>
-    <row r="70" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
@@ -11774,7 +12608,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
@@ -11792,7 +12626,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AI70" s="15"/>
       <c r="AJ70" s="15"/>
@@ -11836,7 +12670,7 @@
       <c r="BS70" s="14"/>
       <c r="BT70" s="16"/>
     </row>
-    <row r="71" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
@@ -11854,7 +12688,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
@@ -11872,7 +12706,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AI71" s="15"/>
       <c r="AJ71" s="15"/>
@@ -11916,7 +12750,7 @@
       <c r="BS71" s="14"/>
       <c r="BT71" s="16"/>
     </row>
-    <row r="72" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
@@ -11934,7 +12768,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
@@ -11952,7 +12786,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AI72" s="15"/>
       <c r="AJ72" s="15"/>
@@ -11996,7 +12830,7 @@
       <c r="BS72" s="14"/>
       <c r="BT72" s="16"/>
     </row>
-    <row r="73" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
@@ -12014,7 +12848,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
@@ -12032,7 +12866,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI73" s="15"/>
       <c r="AJ73" s="15"/>
@@ -12076,7 +12910,7 @@
       <c r="BS73" s="14"/>
       <c r="BT73" s="16"/>
     </row>
-    <row r="74" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
@@ -12094,7 +12928,7 @@
       <c r="P74" s="27"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="28"/>
@@ -12112,7 +12946,7 @@
       <c r="AF74" s="27"/>
       <c r="AG74" s="28"/>
       <c r="AH74" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AI74" s="27"/>
       <c r="AJ74" s="27"/>
@@ -12156,7 +12990,7 @@
       <c r="BS74" s="14"/>
       <c r="BT74" s="16"/>
     </row>
-    <row r="75" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
@@ -12172,7 +13006,7 @@
       <c r="BS75" s="14"/>
       <c r="BT75" s="16"/>
     </row>
-    <row r="76" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
@@ -12188,7 +13022,7 @@
       <c r="BS76" s="14"/>
       <c r="BT76" s="16"/>
     </row>
-    <row r="77" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
@@ -12204,7 +13038,7 @@
       <c r="BS77" s="14"/>
       <c r="BT77" s="16"/>
     </row>
-    <row r="78" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
@@ -12220,7 +13054,7 @@
       <c r="BS78" s="14"/>
       <c r="BT78" s="16"/>
     </row>
-    <row r="79" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
@@ -12236,7 +13070,7 @@
       <c r="BS79" s="14"/>
       <c r="BT79" s="16"/>
     </row>
-    <row r="80" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
@@ -12252,7 +13086,7 @@
       <c r="BS80" s="14"/>
       <c r="BT80" s="16"/>
     </row>
-    <row r="81" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
@@ -12268,7 +13102,7 @@
       <c r="BS81" s="14"/>
       <c r="BT81" s="16"/>
     </row>
-    <row r="82" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
@@ -12284,7 +13118,7 @@
       <c r="BS82" s="14"/>
       <c r="BT82" s="16"/>
     </row>
-    <row r="83" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
@@ -12300,7 +13134,7 @@
       <c r="BS83" s="14"/>
       <c r="BT83" s="16"/>
     </row>
-    <row r="84" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
@@ -12316,7 +13150,7 @@
       <c r="BS84" s="14"/>
       <c r="BT84" s="16"/>
     </row>
-    <row r="85" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
@@ -12332,7 +13166,7 @@
       <c r="BS85" s="14"/>
       <c r="BT85" s="16"/>
     </row>
-    <row r="86" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
@@ -12348,7 +13182,7 @@
       <c r="BS86" s="14"/>
       <c r="BT86" s="16"/>
     </row>
-    <row r="87" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
@@ -12364,7 +13198,7 @@
       <c r="BS87" s="14"/>
       <c r="BT87" s="16"/>
     </row>
-    <row r="88" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:72" x14ac:dyDescent="0.15">
       <c r="AF88" s="15"/>
       <c r="AG88" s="16"/>
       <c r="BO88" s="14"/>
@@ -12383,18 +13217,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:BT42"/>
+  <dimension ref="B2:BT130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH34" sqref="AH34"/>
+    <sheetView showGridLines="0" topLeftCell="O40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -12458,7 +13292,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -12522,7 +13356,7 @@
       <c r="AX3" s="12"/>
       <c r="AY3" s="13"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -12609,7 +13443,7 @@
       </c>
       <c r="BT5" s="18"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -12659,7 +13493,7 @@
       <c r="BS6" s="20"/>
       <c r="BT6" s="21"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
@@ -12698,7 +13532,7 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" ref="BO7:BO41" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <f t="shared" ref="BO7:BO62" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>003-001-002</v>
       </c>
       <c r="BP7" s="15"/>
@@ -12707,7 +13541,7 @@
       <c r="BS7" s="20"/>
       <c r="BT7" s="21"/>
     </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -12765,7 +13599,7 @@
       <c r="BS8" s="20"/>
       <c r="BT8" s="21"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -12848,7 +13682,7 @@
       <c r="BS9" s="20"/>
       <c r="BT9" s="21"/>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -12930,7 +13764,7 @@
       <c r="BS10" s="20"/>
       <c r="BT10" s="21"/>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -13000,7 +13834,7 @@
       <c r="BS11" s="20"/>
       <c r="BT11" s="21"/>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -13082,7 +13916,7 @@
       <c r="BS12" s="20"/>
       <c r="BT12" s="21"/>
     </row>
-    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:72" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -13164,7 +13998,7 @@
       <c r="BS13" s="20"/>
       <c r="BT13" s="21"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -13246,7 +14080,7 @@
       <c r="BS14" s="20"/>
       <c r="BT14" s="21"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -13315,7 +14149,7 @@
       <c r="BS15" s="20"/>
       <c r="BT15" s="21"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -13386,7 +14220,7 @@
       <c r="BS16" s="20"/>
       <c r="BT16" s="21"/>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -13456,7 +14290,7 @@
       <c r="BS17" s="20"/>
       <c r="BT17" s="21"/>
     </row>
-    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -13538,7 +14372,7 @@
       <c r="BS18" s="20"/>
       <c r="BT18" s="21"/>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -13622,7 +14456,7 @@
       <c r="BS19" s="20"/>
       <c r="BT19" s="21"/>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -13704,7 +14538,7 @@
       <c r="BS20" s="20"/>
       <c r="BT20" s="21"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
@@ -13784,7 +14618,7 @@
       <c r="BS21" s="20"/>
       <c r="BT21" s="21"/>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -13864,7 +14698,7 @@
       <c r="BS22" s="20"/>
       <c r="BT22" s="21"/>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
@@ -13944,7 +14778,7 @@
       <c r="BS23" s="20"/>
       <c r="BT23" s="21"/>
     </row>
-    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -14028,7 +14862,7 @@
       <c r="BS24" s="20"/>
       <c r="BT24" s="21"/>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
@@ -14112,7 +14946,7 @@
       <c r="BS25" s="20"/>
       <c r="BT25" s="21"/>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -14196,7 +15030,7 @@
       <c r="BS26" s="20"/>
       <c r="BT26" s="21"/>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
@@ -14280,7 +15114,7 @@
       <c r="BS27" s="20"/>
       <c r="BT27" s="21"/>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -14360,7 +15194,7 @@
       <c r="BS28" s="20"/>
       <c r="BT28" s="21"/>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -14440,7 +15274,7 @@
       <c r="BS29" s="20"/>
       <c r="BT29" s="21"/>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -14522,7 +15356,7 @@
       <c r="BS30" s="20"/>
       <c r="BT30" s="21"/>
     </row>
-    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -14602,7 +15436,7 @@
       <c r="BS31" s="20"/>
       <c r="BT31" s="21"/>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -14682,7 +15516,7 @@
       <c r="BS32" s="20"/>
       <c r="BT32" s="21"/>
     </row>
-    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -14764,13 +15598,11 @@
       <c r="BS33" s="20"/>
       <c r="BT33" s="21"/>
     </row>
-    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -14783,14 +15615,10 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="R34" s="14"/>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
-      <c r="U34" s="15" t="s">
-        <v>156</v>
-      </c>
+      <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
@@ -14838,7 +15666,7 @@
       <c r="BN34" s="16"/>
       <c r="BO34" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-029</v>
+        <v/>
       </c>
       <c r="BP34" s="15"/>
       <c r="BQ34" s="15"/>
@@ -14846,12 +15674,12 @@
       <c r="BS34" s="20"/>
       <c r="BT34" s="21"/>
     </row>
-    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -14866,11 +15694,13 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
-      <c r="U35" s="15"/>
+      <c r="U35" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
@@ -14883,7 +15713,9 @@
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
-      <c r="AH35" s="14"/>
+      <c r="AH35" s="14" t="s">
+        <v>279</v>
+      </c>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="15"/>
@@ -14918,7 +15750,7 @@
       <c r="BN35" s="16"/>
       <c r="BO35" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-030</v>
+        <v>003-001-029</v>
       </c>
       <c r="BP35" s="15"/>
       <c r="BQ35" s="15"/>
@@ -14926,12 +15758,12 @@
       <c r="BS35" s="20"/>
       <c r="BT35" s="21"/>
     </row>
-    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="14" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -14946,7 +15778,7 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
@@ -14963,7 +15795,9 @@
       <c r="AE36" s="15"/>
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
-      <c r="AH36" s="14"/>
+      <c r="AH36" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
       <c r="AK36" s="15"/>
@@ -14998,7 +15832,7 @@
       <c r="BN36" s="16"/>
       <c r="BO36" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-031</v>
+        <v>003-001-030</v>
       </c>
       <c r="BP36" s="15"/>
       <c r="BQ36" s="15"/>
@@ -15006,12 +15840,12 @@
       <c r="BS36" s="20"/>
       <c r="BT36" s="21"/>
     </row>
-    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -15026,7 +15860,7 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
@@ -15043,7 +15877,9 @@
       <c r="AE37" s="15"/>
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
-      <c r="AH37" s="14"/>
+      <c r="AH37" s="14" t="s">
+        <v>281</v>
+      </c>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
@@ -15078,7 +15914,7 @@
       <c r="BN37" s="16"/>
       <c r="BO37" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-032</v>
+        <v>003-001-031</v>
       </c>
       <c r="BP37" s="15"/>
       <c r="BQ37" s="15"/>
@@ -15086,11 +15922,13 @@
       <c r="BS37" s="20"/>
       <c r="BT37" s="21"/>
     </row>
-    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>276</v>
+      </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -15104,7 +15942,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -15121,7 +15959,9 @@
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
-      <c r="AH38" s="14"/>
+      <c r="AH38" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="15"/>
@@ -15156,7 +15996,7 @@
       <c r="BN38" s="16"/>
       <c r="BO38" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-033</v>
+        <v>003-001-032</v>
       </c>
       <c r="BP38" s="15"/>
       <c r="BQ38" s="15"/>
@@ -15164,7 +16004,7 @@
       <c r="BS38" s="20"/>
       <c r="BT38" s="21"/>
     </row>
-    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -15182,11 +16022,13 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
-      <c r="U39" s="15"/>
+      <c r="U39" s="15" t="s">
+        <v>277</v>
+      </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
@@ -15199,7 +16041,9 @@
       <c r="AE39" s="15"/>
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
-      <c r="AH39" s="14"/>
+      <c r="AH39" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="15"/>
@@ -15234,7 +16078,7 @@
       <c r="BN39" s="16"/>
       <c r="BO39" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-034</v>
+        <v>003-001-033</v>
       </c>
       <c r="BP39" s="15"/>
       <c r="BQ39" s="15"/>
@@ -15242,7 +16086,7 @@
       <c r="BS39" s="20"/>
       <c r="BT39" s="21"/>
     </row>
-    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -15260,11 +16104,13 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
-      <c r="U40" s="15"/>
+      <c r="U40" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -15277,7 +16123,9 @@
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
-      <c r="AH40" s="14"/>
+      <c r="AH40" s="14" t="s">
+        <v>284</v>
+      </c>
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
       <c r="AK40" s="15"/>
@@ -15312,7 +16160,7 @@
       <c r="BN40" s="16"/>
       <c r="BO40" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-035</v>
+        <v>003-001-034</v>
       </c>
       <c r="BP40" s="15"/>
       <c r="BQ40" s="15"/>
@@ -15320,11 +16168,11 @@
       <c r="BS40" s="20"/>
       <c r="BT40" s="21"/>
     </row>
-    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:72" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -15338,7 +16186,7 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
@@ -15354,8 +16202,10 @@
       <c r="AD41" s="15"/>
       <c r="AE41" s="15"/>
       <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="14"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="AI41" s="15"/>
       <c r="AJ41" s="15"/>
       <c r="AK41" s="15"/>
@@ -15390,7 +16240,7 @@
       <c r="BN41" s="16"/>
       <c r="BO41" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>003-001-036</v>
+        <v>003-001-035</v>
       </c>
       <c r="BP41" s="15"/>
       <c r="BQ41" s="15"/>
@@ -15398,10 +16248,1404 @@
       <c r="BS41" s="20"/>
       <c r="BT41" s="21"/>
     </row>
-    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="16"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-036</v>
+      </c>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="16"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="16"/>
+    </row>
+    <row r="43" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="R43" s="14" t="s">
         <v>154</v>
       </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="16"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BO43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-037</v>
+      </c>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="16"/>
+      <c r="BS43" s="14"/>
+      <c r="BT43" s="16"/>
+    </row>
+    <row r="44" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="R44" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="16"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-038</v>
+      </c>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="16"/>
+      <c r="BS44" s="14"/>
+      <c r="BT44" s="16"/>
+    </row>
+    <row r="45" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="R45" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="16"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-039</v>
+      </c>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="16"/>
+      <c r="BS45" s="14"/>
+      <c r="BT45" s="16"/>
+    </row>
+    <row r="46" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="R46" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="S46" s="15"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BO46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-040</v>
+      </c>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="16"/>
+      <c r="BS46" s="14"/>
+      <c r="BT46" s="16"/>
+    </row>
+    <row r="47" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="R47" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="16"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-041</v>
+      </c>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="16"/>
+      <c r="BS47" s="14"/>
+      <c r="BT47" s="16"/>
+    </row>
+    <row r="48" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="R48" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="16"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO48" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-042</v>
+      </c>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="16"/>
+      <c r="BS48" s="14"/>
+      <c r="BT48" s="16"/>
+    </row>
+    <row r="49" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="R49" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO49" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-043</v>
+      </c>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="16"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="16"/>
+    </row>
+    <row r="50" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="R50" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="S50" s="15"/>
+      <c r="T50" s="16"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO50" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-044</v>
+      </c>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="16"/>
+      <c r="BS50" s="14"/>
+      <c r="BT50" s="16"/>
+    </row>
+    <row r="51" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="R51" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="T51" s="16"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO51" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-045</v>
+      </c>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="16"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="16"/>
+    </row>
+    <row r="52" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="R52" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="16"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BO52" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-046</v>
+      </c>
+      <c r="BP52" s="15"/>
+      <c r="BQ52" s="15"/>
+      <c r="BR52" s="16"/>
+      <c r="BS52" s="14"/>
+      <c r="BT52" s="16"/>
+    </row>
+    <row r="53" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="R53" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="S53" s="15"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BO53" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-047</v>
+      </c>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="16"/>
+      <c r="BS53" s="14"/>
+      <c r="BT53" s="16"/>
+    </row>
+    <row r="54" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="R54" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="S54" s="15"/>
+      <c r="T54" s="16"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO54" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-048</v>
+      </c>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="16"/>
+      <c r="BS54" s="14"/>
+      <c r="BT54" s="16"/>
+    </row>
+    <row r="55" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="R55" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="S55" s="15"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO55" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-049</v>
+      </c>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="16"/>
+      <c r="BS55" s="14"/>
+      <c r="BT55" s="16"/>
+    </row>
+    <row r="56" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="R56" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="S56" s="15"/>
+      <c r="T56" s="16"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO56" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-050</v>
+      </c>
+      <c r="BP56" s="15"/>
+      <c r="BQ56" s="15"/>
+      <c r="BR56" s="16"/>
+      <c r="BS56" s="14"/>
+      <c r="BT56" s="16"/>
+    </row>
+    <row r="57" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="R57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="S57" s="15"/>
+      <c r="T57" s="16"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BO57" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-051</v>
+      </c>
+      <c r="BP57" s="15"/>
+      <c r="BQ57" s="15"/>
+      <c r="BR57" s="16"/>
+      <c r="BS57" s="14"/>
+      <c r="BT57" s="16"/>
+    </row>
+    <row r="58" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="R58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BO58" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-052</v>
+      </c>
+      <c r="BP58" s="15"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="16"/>
+      <c r="BS58" s="14"/>
+      <c r="BT58" s="16"/>
+    </row>
+    <row r="59" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="R59" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="16"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="16"/>
+      <c r="BO59" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-053</v>
+      </c>
+      <c r="BP59" s="15"/>
+      <c r="BQ59" s="15"/>
+      <c r="BR59" s="16"/>
+      <c r="BS59" s="14"/>
+      <c r="BT59" s="16"/>
+    </row>
+    <row r="60" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="R60" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="S60" s="15"/>
+      <c r="T60" s="16"/>
+      <c r="AF60" s="15"/>
+      <c r="AG60" s="16"/>
+      <c r="BO60" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-054</v>
+      </c>
+      <c r="BP60" s="15"/>
+      <c r="BQ60" s="15"/>
+      <c r="BR60" s="16"/>
+      <c r="BS60" s="14"/>
+      <c r="BT60" s="16"/>
+    </row>
+    <row r="61" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="R61" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="S61" s="15"/>
+      <c r="T61" s="16"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="16"/>
+      <c r="BO61" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-055</v>
+      </c>
+      <c r="BP61" s="15"/>
+      <c r="BQ61" s="15"/>
+      <c r="BR61" s="16"/>
+      <c r="BS61" s="14"/>
+      <c r="BT61" s="16"/>
+    </row>
+    <row r="62" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="R62" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="S62" s="15"/>
+      <c r="T62" s="16"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="16"/>
+      <c r="BO62" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-056</v>
+      </c>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="16"/>
+      <c r="BS62" s="14"/>
+      <c r="BT62" s="16"/>
+    </row>
+    <row r="63" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="16"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="16"/>
+      <c r="BO63" s="14"/>
+      <c r="BP63" s="15"/>
+      <c r="BQ63" s="15"/>
+      <c r="BR63" s="16"/>
+      <c r="BS63" s="14"/>
+      <c r="BT63" s="16"/>
+    </row>
+    <row r="64" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="16"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="16"/>
+      <c r="BO64" s="14"/>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="15"/>
+      <c r="BR64" s="16"/>
+      <c r="BS64" s="14"/>
+      <c r="BT64" s="16"/>
+    </row>
+    <row r="65" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="16"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="16"/>
+      <c r="BO65" s="14"/>
+      <c r="BP65" s="15"/>
+      <c r="BQ65" s="15"/>
+      <c r="BR65" s="16"/>
+      <c r="BS65" s="14"/>
+      <c r="BT65" s="16"/>
+    </row>
+    <row r="66" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="16"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="16"/>
+      <c r="BO66" s="14"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="16"/>
+      <c r="BS66" s="14"/>
+      <c r="BT66" s="16"/>
+    </row>
+    <row r="67" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="16"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="16"/>
+      <c r="BO67" s="14"/>
+      <c r="BP67" s="15"/>
+      <c r="BQ67" s="15"/>
+      <c r="BR67" s="16"/>
+      <c r="BS67" s="14"/>
+      <c r="BT67" s="16"/>
+    </row>
+    <row r="68" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="16"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="16"/>
+      <c r="BO68" s="14"/>
+      <c r="BP68" s="15"/>
+      <c r="BQ68" s="15"/>
+      <c r="BR68" s="16"/>
+      <c r="BS68" s="14"/>
+      <c r="BT68" s="16"/>
+    </row>
+    <row r="69" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="16"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="16"/>
+      <c r="BO69" s="14"/>
+      <c r="BP69" s="15"/>
+      <c r="BQ69" s="15"/>
+      <c r="BR69" s="16"/>
+      <c r="BS69" s="14"/>
+      <c r="BT69" s="16"/>
+    </row>
+    <row r="70" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="16"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="16"/>
+      <c r="BO70" s="14"/>
+      <c r="BP70" s="15"/>
+      <c r="BQ70" s="15"/>
+      <c r="BR70" s="16"/>
+      <c r="BS70" s="14"/>
+      <c r="BT70" s="16"/>
+    </row>
+    <row r="71" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="16"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="16"/>
+      <c r="BO71" s="14"/>
+      <c r="BP71" s="15"/>
+      <c r="BQ71" s="15"/>
+      <c r="BR71" s="16"/>
+      <c r="BS71" s="14"/>
+      <c r="BT71" s="16"/>
+    </row>
+    <row r="72" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="16"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="16"/>
+      <c r="BO72" s="14"/>
+      <c r="BP72" s="15"/>
+      <c r="BQ72" s="15"/>
+      <c r="BR72" s="16"/>
+      <c r="BS72" s="14"/>
+      <c r="BT72" s="16"/>
+    </row>
+    <row r="73" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="16"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="16"/>
+      <c r="BO73" s="14"/>
+      <c r="BP73" s="15"/>
+      <c r="BQ73" s="15"/>
+      <c r="BR73" s="16"/>
+      <c r="BS73" s="14"/>
+      <c r="BT73" s="16"/>
+    </row>
+    <row r="74" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="16"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="16"/>
+      <c r="BO74" s="14"/>
+      <c r="BP74" s="15"/>
+      <c r="BQ74" s="15"/>
+      <c r="BR74" s="16"/>
+      <c r="BS74" s="14"/>
+      <c r="BT74" s="16"/>
+    </row>
+    <row r="75" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="16"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="16"/>
+      <c r="BO75" s="14"/>
+      <c r="BP75" s="15"/>
+      <c r="BQ75" s="15"/>
+      <c r="BR75" s="16"/>
+      <c r="BS75" s="14"/>
+      <c r="BT75" s="16"/>
+    </row>
+    <row r="76" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="16"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="16"/>
+      <c r="BO76" s="14"/>
+      <c r="BP76" s="15"/>
+      <c r="BQ76" s="15"/>
+      <c r="BR76" s="16"/>
+      <c r="BS76" s="14"/>
+      <c r="BT76" s="16"/>
+    </row>
+    <row r="77" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="16"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="16"/>
+      <c r="BO77" s="14"/>
+      <c r="BP77" s="15"/>
+      <c r="BQ77" s="15"/>
+      <c r="BR77" s="16"/>
+      <c r="BS77" s="14"/>
+      <c r="BT77" s="16"/>
+    </row>
+    <row r="78" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="16"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="16"/>
+      <c r="BO78" s="14"/>
+      <c r="BP78" s="15"/>
+      <c r="BQ78" s="15"/>
+      <c r="BR78" s="16"/>
+      <c r="BS78" s="14"/>
+      <c r="BT78" s="16"/>
+    </row>
+    <row r="79" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="16"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="16"/>
+      <c r="BO79" s="14"/>
+      <c r="BP79" s="15"/>
+      <c r="BQ79" s="15"/>
+      <c r="BR79" s="16"/>
+      <c r="BS79" s="14"/>
+      <c r="BT79" s="16"/>
+    </row>
+    <row r="80" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="16"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="16"/>
+      <c r="BO80" s="14"/>
+      <c r="BP80" s="15"/>
+      <c r="BQ80" s="15"/>
+      <c r="BR80" s="16"/>
+      <c r="BS80" s="14"/>
+      <c r="BT80" s="16"/>
+    </row>
+    <row r="81" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="16"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="16"/>
+      <c r="BO81" s="14"/>
+      <c r="BP81" s="15"/>
+      <c r="BQ81" s="15"/>
+      <c r="BR81" s="16"/>
+      <c r="BS81" s="14"/>
+      <c r="BT81" s="16"/>
+    </row>
+    <row r="82" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="16"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="16"/>
+      <c r="BO82" s="14"/>
+      <c r="BP82" s="15"/>
+      <c r="BQ82" s="15"/>
+      <c r="BR82" s="16"/>
+      <c r="BS82" s="14"/>
+      <c r="BT82" s="16"/>
+    </row>
+    <row r="83" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="16"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="16"/>
+      <c r="BO83" s="14"/>
+      <c r="BP83" s="15"/>
+      <c r="BQ83" s="15"/>
+      <c r="BR83" s="16"/>
+      <c r="BS83" s="14"/>
+      <c r="BT83" s="16"/>
+    </row>
+    <row r="84" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="16"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="16"/>
+      <c r="BO84" s="14"/>
+      <c r="BP84" s="15"/>
+      <c r="BQ84" s="15"/>
+      <c r="BR84" s="16"/>
+      <c r="BS84" s="14"/>
+      <c r="BT84" s="16"/>
+    </row>
+    <row r="85" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="16"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="16"/>
+      <c r="BO85" s="14"/>
+      <c r="BP85" s="15"/>
+      <c r="BQ85" s="15"/>
+      <c r="BR85" s="16"/>
+      <c r="BS85" s="14"/>
+      <c r="BT85" s="16"/>
+    </row>
+    <row r="86" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="16"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="16"/>
+      <c r="BO86" s="14"/>
+      <c r="BP86" s="15"/>
+      <c r="BQ86" s="15"/>
+      <c r="BR86" s="16"/>
+      <c r="BS86" s="14"/>
+      <c r="BT86" s="16"/>
+    </row>
+    <row r="87" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="16"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="16"/>
+      <c r="BO87" s="14"/>
+      <c r="BP87" s="15"/>
+      <c r="BQ87" s="15"/>
+      <c r="BR87" s="16"/>
+      <c r="BS87" s="14"/>
+      <c r="BT87" s="16"/>
+    </row>
+    <row r="88" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="16"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="16"/>
+      <c r="BO88" s="14"/>
+      <c r="BP88" s="15"/>
+      <c r="BQ88" s="15"/>
+      <c r="BR88" s="16"/>
+      <c r="BS88" s="14"/>
+      <c r="BT88" s="16"/>
+    </row>
+    <row r="89" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="16"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="16"/>
+      <c r="BO89" s="14"/>
+      <c r="BP89" s="15"/>
+      <c r="BQ89" s="15"/>
+      <c r="BR89" s="16"/>
+      <c r="BS89" s="14"/>
+      <c r="BT89" s="16"/>
+    </row>
+    <row r="90" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="16"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="16"/>
+      <c r="BO90" s="14"/>
+      <c r="BP90" s="15"/>
+      <c r="BQ90" s="15"/>
+      <c r="BR90" s="16"/>
+      <c r="BS90" s="14"/>
+      <c r="BT90" s="16"/>
+    </row>
+    <row r="91" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="16"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="16"/>
+      <c r="BO91" s="14"/>
+      <c r="BP91" s="15"/>
+      <c r="BQ91" s="15"/>
+      <c r="BR91" s="16"/>
+      <c r="BS91" s="14"/>
+      <c r="BT91" s="16"/>
+    </row>
+    <row r="92" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="16"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="16"/>
+      <c r="BO92" s="14"/>
+      <c r="BP92" s="15"/>
+      <c r="BQ92" s="15"/>
+      <c r="BR92" s="16"/>
+      <c r="BS92" s="14"/>
+      <c r="BT92" s="16"/>
+    </row>
+    <row r="93" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="16"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="16"/>
+      <c r="BO93" s="14"/>
+      <c r="BP93" s="15"/>
+      <c r="BQ93" s="15"/>
+      <c r="BR93" s="16"/>
+      <c r="BS93" s="14"/>
+      <c r="BT93" s="16"/>
+    </row>
+    <row r="94" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="16"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="16"/>
+      <c r="BO94" s="14"/>
+      <c r="BP94" s="15"/>
+      <c r="BQ94" s="15"/>
+      <c r="BR94" s="16"/>
+      <c r="BS94" s="14"/>
+      <c r="BT94" s="16"/>
+    </row>
+    <row r="95" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="16"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="16"/>
+      <c r="BO95" s="14"/>
+      <c r="BP95" s="15"/>
+      <c r="BQ95" s="15"/>
+      <c r="BR95" s="16"/>
+      <c r="BS95" s="14"/>
+      <c r="BT95" s="16"/>
+    </row>
+    <row r="96" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="16"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="16"/>
+      <c r="BO96" s="14"/>
+      <c r="BP96" s="15"/>
+      <c r="BQ96" s="15"/>
+      <c r="BR96" s="16"/>
+      <c r="BS96" s="14"/>
+      <c r="BT96" s="16"/>
+    </row>
+    <row r="97" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="16"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="16"/>
+      <c r="BO97" s="14"/>
+      <c r="BP97" s="15"/>
+      <c r="BQ97" s="15"/>
+      <c r="BR97" s="16"/>
+      <c r="BS97" s="14"/>
+      <c r="BT97" s="16"/>
+    </row>
+    <row r="98" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="16"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="16"/>
+      <c r="BO98" s="14"/>
+      <c r="BP98" s="15"/>
+      <c r="BQ98" s="15"/>
+      <c r="BR98" s="16"/>
+      <c r="BS98" s="14"/>
+      <c r="BT98" s="16"/>
+    </row>
+    <row r="99" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="16"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="16"/>
+      <c r="BO99" s="14"/>
+      <c r="BP99" s="15"/>
+      <c r="BQ99" s="15"/>
+      <c r="BR99" s="16"/>
+      <c r="BS99" s="14"/>
+      <c r="BT99" s="16"/>
+    </row>
+    <row r="100" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="16"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="16"/>
+      <c r="BO100" s="14"/>
+      <c r="BP100" s="15"/>
+      <c r="BQ100" s="15"/>
+      <c r="BR100" s="16"/>
+      <c r="BS100" s="14"/>
+      <c r="BT100" s="16"/>
+    </row>
+    <row r="101" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="16"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="16"/>
+      <c r="BO101" s="14"/>
+      <c r="BP101" s="15"/>
+      <c r="BQ101" s="15"/>
+      <c r="BR101" s="16"/>
+      <c r="BS101" s="14"/>
+      <c r="BT101" s="16"/>
+    </row>
+    <row r="102" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="15"/>
+      <c r="T102" s="16"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="16"/>
+      <c r="BO102" s="14"/>
+      <c r="BP102" s="15"/>
+      <c r="BQ102" s="15"/>
+      <c r="BR102" s="16"/>
+      <c r="BS102" s="14"/>
+      <c r="BT102" s="16"/>
+    </row>
+    <row r="103" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R103" s="14"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="16"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="16"/>
+      <c r="BO103" s="14"/>
+      <c r="BP103" s="15"/>
+      <c r="BQ103" s="15"/>
+      <c r="BR103" s="16"/>
+      <c r="BS103" s="14"/>
+      <c r="BT103" s="16"/>
+    </row>
+    <row r="104" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R104" s="14"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="16"/>
+      <c r="BO104" s="14"/>
+      <c r="BP104" s="15"/>
+      <c r="BQ104" s="15"/>
+      <c r="BR104" s="16"/>
+      <c r="BS104" s="14"/>
+      <c r="BT104" s="16"/>
+    </row>
+    <row r="105" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R105" s="14"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="16"/>
+      <c r="BO105" s="14"/>
+      <c r="BP105" s="15"/>
+      <c r="BQ105" s="15"/>
+      <c r="BR105" s="16"/>
+      <c r="BS105" s="14"/>
+      <c r="BT105" s="16"/>
+    </row>
+    <row r="106" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R106" s="14"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="16"/>
+      <c r="BO106" s="14"/>
+      <c r="BP106" s="15"/>
+      <c r="BQ106" s="15"/>
+      <c r="BR106" s="16"/>
+      <c r="BS106" s="14"/>
+      <c r="BT106" s="16"/>
+    </row>
+    <row r="107" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R107" s="14"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="16"/>
+      <c r="BO107" s="14"/>
+      <c r="BP107" s="15"/>
+      <c r="BQ107" s="15"/>
+      <c r="BR107" s="16"/>
+      <c r="BS107" s="14"/>
+      <c r="BT107" s="16"/>
+    </row>
+    <row r="108" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R108" s="14"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="16"/>
+      <c r="BO108" s="14"/>
+      <c r="BP108" s="15"/>
+      <c r="BQ108" s="15"/>
+      <c r="BR108" s="16"/>
+      <c r="BS108" s="14"/>
+      <c r="BT108" s="16"/>
+    </row>
+    <row r="109" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R109" s="14"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="16"/>
+      <c r="BO109" s="14"/>
+      <c r="BP109" s="15"/>
+      <c r="BQ109" s="15"/>
+      <c r="BR109" s="16"/>
+      <c r="BS109" s="14"/>
+      <c r="BT109" s="16"/>
+    </row>
+    <row r="110" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R110" s="14"/>
+      <c r="S110" s="15"/>
+      <c r="T110" s="16"/>
+      <c r="BO110" s="14"/>
+      <c r="BP110" s="15"/>
+      <c r="BQ110" s="15"/>
+      <c r="BR110" s="16"/>
+      <c r="BS110" s="14"/>
+      <c r="BT110" s="16"/>
+    </row>
+    <row r="111" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R111" s="14"/>
+      <c r="S111" s="15"/>
+      <c r="T111" s="16"/>
+      <c r="BO111" s="14"/>
+      <c r="BP111" s="15"/>
+      <c r="BQ111" s="15"/>
+      <c r="BR111" s="16"/>
+    </row>
+    <row r="112" spans="2:72" x14ac:dyDescent="0.15">
+      <c r="R112" s="14"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="16"/>
+      <c r="BO112" s="14"/>
+      <c r="BP112" s="15"/>
+      <c r="BQ112" s="15"/>
+      <c r="BR112" s="16"/>
+    </row>
+    <row r="113" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R113" s="14"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="16"/>
+      <c r="BO113" s="14"/>
+      <c r="BP113" s="15"/>
+      <c r="BQ113" s="15"/>
+      <c r="BR113" s="16"/>
+    </row>
+    <row r="114" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R114" s="14"/>
+      <c r="S114" s="15"/>
+      <c r="T114" s="16"/>
+      <c r="BO114" s="14"/>
+      <c r="BP114" s="15"/>
+      <c r="BQ114" s="15"/>
+      <c r="BR114" s="16"/>
+    </row>
+    <row r="115" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R115" s="14"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="16"/>
+      <c r="BO115" s="14"/>
+      <c r="BP115" s="15"/>
+      <c r="BQ115" s="15"/>
+      <c r="BR115" s="16"/>
+    </row>
+    <row r="116" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R116" s="14"/>
+      <c r="S116" s="15"/>
+      <c r="T116" s="16"/>
+      <c r="BO116" s="14"/>
+      <c r="BP116" s="15"/>
+      <c r="BQ116" s="15"/>
+      <c r="BR116" s="16"/>
+    </row>
+    <row r="117" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R117" s="14"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="16"/>
+      <c r="BO117" s="14"/>
+      <c r="BP117" s="15"/>
+      <c r="BQ117" s="15"/>
+      <c r="BR117" s="16"/>
+    </row>
+    <row r="118" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R118" s="14"/>
+      <c r="S118" s="15"/>
+      <c r="T118" s="16"/>
+      <c r="BO118" s="14"/>
+      <c r="BP118" s="15"/>
+      <c r="BQ118" s="15"/>
+      <c r="BR118" s="16"/>
+    </row>
+    <row r="119" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R119" s="14"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="16"/>
+      <c r="BO119" s="14"/>
+      <c r="BP119" s="15"/>
+      <c r="BQ119" s="15"/>
+      <c r="BR119" s="16"/>
+    </row>
+    <row r="120" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R120" s="14"/>
+      <c r="S120" s="15"/>
+      <c r="T120" s="16"/>
+      <c r="BO120" s="14"/>
+      <c r="BP120" s="15"/>
+      <c r="BQ120" s="15"/>
+      <c r="BR120" s="16"/>
+    </row>
+    <row r="121" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R121" s="14"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="16"/>
+      <c r="BO121" s="14"/>
+      <c r="BP121" s="15"/>
+      <c r="BQ121" s="15"/>
+      <c r="BR121" s="16"/>
+    </row>
+    <row r="122" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R122" s="14"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="16"/>
+      <c r="BO122" s="14"/>
+      <c r="BP122" s="15"/>
+      <c r="BQ122" s="15"/>
+      <c r="BR122" s="16"/>
+    </row>
+    <row r="123" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R123" s="14"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="16"/>
+      <c r="BO123" s="14"/>
+      <c r="BP123" s="15"/>
+      <c r="BQ123" s="15"/>
+      <c r="BR123" s="16"/>
+    </row>
+    <row r="124" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="R124" s="14"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="16"/>
+      <c r="BO124" s="14"/>
+      <c r="BP124" s="15"/>
+      <c r="BQ124" s="15"/>
+      <c r="BR124" s="16"/>
+    </row>
+    <row r="125" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="BO125" s="14"/>
+      <c r="BP125" s="15"/>
+      <c r="BQ125" s="15"/>
+      <c r="BR125" s="16"/>
+    </row>
+    <row r="126" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="BO126" s="14"/>
+      <c r="BP126" s="15"/>
+      <c r="BQ126" s="15"/>
+      <c r="BR126" s="16"/>
+    </row>
+    <row r="127" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="BO127" s="14"/>
+      <c r="BP127" s="15"/>
+      <c r="BQ127" s="15"/>
+      <c r="BR127" s="16"/>
+    </row>
+    <row r="128" spans="18:70" x14ac:dyDescent="0.15">
+      <c r="BO128" s="14"/>
+      <c r="BP128" s="15"/>
+      <c r="BQ128" s="15"/>
+      <c r="BR128" s="16"/>
+    </row>
+    <row r="129" spans="67:70" x14ac:dyDescent="0.15">
+      <c r="BO129" s="14"/>
+      <c r="BP129" s="15"/>
+      <c r="BQ129" s="15"/>
+      <c r="BR129" s="16"/>
+    </row>
+    <row r="130" spans="67:70" x14ac:dyDescent="0.15">
+      <c r="BO130" s="14"/>
+      <c r="BP130" s="15"/>
+      <c r="BQ130" s="15"/>
+      <c r="BR130" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15418,7 +17662,7 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15432,7 +17676,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B02E3-B509-43AA-B160-E957D3A61F46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175EFBEF-459B-42AC-9B9D-5884AFE85618}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="327">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -1372,9 +1372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
-  </si>
-  <si>
     <t>対応完了をクリックしたら契約者一覧を表示されること。</t>
   </si>
   <si>
@@ -3387,6 +3384,68 @@
     <rPh sb="44" eb="46">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報⑦車両サイズ審査</t>
+    <rPh sb="5" eb="6">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録車両情報に入力した内容を反映されること、判定結果を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>057</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>058</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>⑨⑩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑪⑫⑬⑭</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報⑧スケジュール（期日･費用）の設定</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3702,7 +3761,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3714,7 +3773,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3757,7 +3816,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3769,7 +3828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3812,7 +3871,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3883,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3861,7 +3920,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +3932,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3915,7 +3974,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3927,7 +3986,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3964,7 +4023,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3976,7 +4035,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5584,7 +5643,7 @@
       </c>
       <c r="AG20" s="16"/>
       <c r="AH20" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
@@ -7219,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView showGridLines="0" topLeftCell="N28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -7651,7 +7710,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -7733,7 +7792,7 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
@@ -8032,7 +8091,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8287,12 +8346,12 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S16" s="32"/>
       <c r="T16" s="33"/>
       <c r="U16" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -8307,7 +8366,7 @@
       <c r="AF16" s="32"/>
       <c r="AG16" s="33"/>
       <c r="AH16" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI16" s="32"/>
       <c r="AJ16" s="32"/>
@@ -8356,7 +8415,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -8376,7 +8435,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -8391,7 +8450,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -8473,7 +8532,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -8522,7 +8581,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -8555,7 +8614,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -8617,7 +8676,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
@@ -8635,7 +8694,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -8702,7 +8761,7 @@
       <c r="S21" s="32"/>
       <c r="T21" s="33"/>
       <c r="U21" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -8717,7 +8776,7 @@
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
@@ -8784,7 +8843,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
       <c r="U22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -8799,7 +8858,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -8879,7 +8938,7 @@
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
@@ -8946,7 +9005,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
       <c r="U24" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -8961,7 +9020,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -9101,12 +9160,12 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="4"/>
       <c r="U26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -9121,7 +9180,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -9170,7 +9229,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -9185,12 +9244,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
       <c r="U27" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -9269,12 +9328,12 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -9289,7 +9348,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -9338,7 +9397,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -9353,12 +9412,12 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="4"/>
       <c r="U29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -9373,7 +9432,7 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
@@ -9435,7 +9494,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
@@ -9453,7 +9512,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -9515,7 +9574,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="28"/>
@@ -9533,7 +9592,7 @@
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
       <c r="AH31" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI31" s="27"/>
       <c r="AJ31" s="27"/>
@@ -9595,12 +9654,12 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -9615,7 +9674,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -9755,12 +9814,12 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="4"/>
       <c r="U34" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -9824,7 +9883,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -9839,12 +9898,12 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S35" s="32"/>
       <c r="T35" s="33"/>
       <c r="U35" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V35" s="32"/>
       <c r="W35" s="32"/>
@@ -9859,7 +9918,7 @@
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
@@ -9923,12 +9982,12 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -9943,7 +10002,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -9992,7 +10051,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -10007,12 +10066,12 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="4"/>
       <c r="U37" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -10027,7 +10086,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
@@ -10089,7 +10148,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -10107,7 +10166,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -10169,7 +10228,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
@@ -10187,7 +10246,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -10249,12 +10308,12 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S40" s="32"/>
       <c r="T40" s="33"/>
       <c r="U40" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -10269,7 +10328,7 @@
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
@@ -10331,12 +10390,12 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="4"/>
       <c r="U41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -10351,7 +10410,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
@@ -10400,7 +10459,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
@@ -10418,7 +10477,7 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
@@ -10467,7 +10526,7 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="R43" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
@@ -10485,7 +10544,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="15"/>
@@ -10535,7 +10594,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="14"/>
       <c r="R44" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
@@ -10553,7 +10612,7 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
@@ -10603,7 +10662,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="14"/>
       <c r="R45" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
@@ -10621,7 +10680,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI45" s="15"/>
       <c r="AJ45" s="15"/>
@@ -10704,12 +10763,12 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="4"/>
       <c r="U47" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -10773,7 +10832,7 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -10788,12 +10847,12 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S48" s="32"/>
       <c r="T48" s="33"/>
       <c r="U48" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V48" s="32"/>
       <c r="W48" s="32"/>
@@ -10808,7 +10867,7 @@
       <c r="AF48" s="32"/>
       <c r="AG48" s="33"/>
       <c r="AH48" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -10872,12 +10931,12 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="4"/>
       <c r="U49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -10892,7 +10951,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
@@ -10941,7 +11000,7 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -10956,7 +11015,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
@@ -10974,7 +11033,7 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI50" s="15"/>
       <c r="AJ50" s="15"/>
@@ -11036,7 +11095,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="28"/>
@@ -11054,7 +11113,7 @@
       <c r="AF51" s="27"/>
       <c r="AG51" s="28"/>
       <c r="AH51" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI51" s="27"/>
       <c r="AJ51" s="27"/>
@@ -11116,12 +11175,12 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="U52" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -11136,7 +11195,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
@@ -11198,12 +11257,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="4"/>
       <c r="U53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -11218,7 +11277,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
@@ -11280,7 +11339,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
@@ -11298,7 +11357,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
@@ -11360,7 +11419,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
@@ -11378,7 +11437,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI55" s="15"/>
       <c r="AJ55" s="15"/>
@@ -11440,7 +11499,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
@@ -11458,7 +11517,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
@@ -11520,7 +11579,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
@@ -11538,7 +11597,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI57" s="15"/>
       <c r="AJ57" s="15"/>
@@ -11600,7 +11659,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="28"/>
@@ -11618,7 +11677,7 @@
       <c r="AF58" s="27"/>
       <c r="AG58" s="28"/>
       <c r="AH58" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI58" s="27"/>
       <c r="AJ58" s="27"/>
@@ -11680,12 +11739,12 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="28"/>
       <c r="U59" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
@@ -11700,7 +11759,7 @@
       <c r="AF59" s="27"/>
       <c r="AG59" s="28"/>
       <c r="AH59" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI59" s="27"/>
       <c r="AJ59" s="27"/>
@@ -11824,7 +11883,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -11839,12 +11898,12 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="16"/>
       <c r="U61" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
@@ -11923,12 +11982,12 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S62" s="32"/>
       <c r="T62" s="33"/>
       <c r="U62" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V62" s="32"/>
       <c r="W62" s="32"/>
@@ -11943,7 +12002,7 @@
       <c r="AF62" s="32"/>
       <c r="AG62" s="33"/>
       <c r="AH62" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI62" s="32"/>
       <c r="AJ62" s="32"/>
@@ -11992,7 +12051,7 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -12007,12 +12066,12 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="4"/>
       <c r="U63" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -12027,7 +12086,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
@@ -12089,7 +12148,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="16"/>
@@ -12107,7 +12166,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="16"/>
       <c r="AH64" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
@@ -12169,7 +12228,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
@@ -12187,7 +12246,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI65" s="15"/>
       <c r="AJ65" s="15"/>
@@ -12249,7 +12308,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
@@ -12267,7 +12326,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="16"/>
       <c r="AH66" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
@@ -12329,7 +12388,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="16"/>
@@ -12347,7 +12406,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="16"/>
       <c r="AH67" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI67" s="15"/>
       <c r="AJ67" s="15"/>
@@ -12409,7 +12468,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S68" s="27"/>
       <c r="T68" s="28"/>
@@ -12427,7 +12486,7 @@
       <c r="AF68" s="27"/>
       <c r="AG68" s="28"/>
       <c r="AH68" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI68" s="27"/>
       <c r="AJ68" s="27"/>
@@ -12489,12 +12548,12 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="4"/>
       <c r="U69" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -12509,7 +12568,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
@@ -12571,7 +12630,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
@@ -12589,7 +12648,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI70" s="15"/>
       <c r="AJ70" s="15"/>
@@ -12651,7 +12710,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
@@ -12669,7 +12728,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI71" s="15"/>
       <c r="AJ71" s="15"/>
@@ -12731,7 +12790,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
@@ -12749,7 +12808,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI72" s="15"/>
       <c r="AJ72" s="15"/>
@@ -12811,7 +12870,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
@@ -12829,7 +12888,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI73" s="15"/>
       <c r="AJ73" s="15"/>
@@ -12891,7 +12950,7 @@
       <c r="P74" s="27"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="28"/>
@@ -12909,7 +12968,7 @@
       <c r="AF74" s="27"/>
       <c r="AG74" s="28"/>
       <c r="AH74" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI74" s="27"/>
       <c r="AJ74" s="27"/>
@@ -13182,8 +13241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -13495,7 +13554,7 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" ref="BO7:BO62" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <f t="shared" ref="BO7:BO64" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>003-001-002</v>
       </c>
       <c r="BP7" s="15"/>
@@ -14137,11 +14196,11 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG16" s="16"/>
       <c r="AH16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
@@ -14781,7 +14840,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -14865,7 +14924,7 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
@@ -14934,7 +14993,7 @@
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
       <c r="U26" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -14949,7 +15008,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
@@ -14998,7 +15057,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -15013,12 +15072,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -15033,7 +15092,7 @@
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="15"/>
@@ -15095,7 +15154,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
@@ -15113,7 +15172,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -15175,7 +15234,7 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
@@ -15193,7 +15252,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
@@ -15255,12 +15314,12 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="U30" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -15275,7 +15334,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -15337,7 +15396,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
@@ -15355,7 +15414,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
@@ -15417,7 +15476,7 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
@@ -15435,7 +15494,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -15497,12 +15556,12 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
       <c r="U33" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -15517,7 +15576,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
       <c r="AH33" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
@@ -15642,7 +15701,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -15657,12 +15716,12 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
       <c r="U35" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -15677,7 +15736,7 @@
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
       <c r="AH35" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="15"/>
@@ -15726,7 +15785,7 @@
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -15741,7 +15800,7 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
@@ -15759,7 +15818,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -15808,7 +15867,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -15823,7 +15882,7 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
@@ -15841,7 +15900,7 @@
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
       <c r="AH37" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
@@ -15890,7 +15949,7 @@
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -15905,7 +15964,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -15923,7 +15982,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -15985,12 +16044,12 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
       <c r="U39" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
@@ -16005,7 +16064,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -16067,12 +16126,12 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
       <c r="U40" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -16087,7 +16146,7 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
@@ -16149,7 +16208,7 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
@@ -16167,7 +16226,7 @@
       <c r="AF41" s="15"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AI41" s="15"/>
       <c r="AJ41" s="15"/>
@@ -16216,14 +16275,14 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
       <c r="AF42" s="15"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BO42" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16240,14 +16299,14 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="R43" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BO43" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16264,14 +16323,14 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="R44" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
       <c r="AF44" s="15"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BO44" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16288,14 +16347,14 @@
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="R45" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
       <c r="AF45" s="15"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BO45" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16312,17 +16371,17 @@
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="R46" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S46" s="15"/>
       <c r="T46" s="16"/>
       <c r="U46" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF46" s="15"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BO46" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16339,14 +16398,14 @@
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="R47" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
       <c r="AF47" s="15"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BO47" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16363,14 +16422,14 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="R48" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S48" s="15"/>
       <c r="T48" s="16"/>
       <c r="AF48" s="15"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BO48" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16387,17 +16446,17 @@
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
       <c r="R49" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S49" s="15"/>
       <c r="T49" s="16"/>
       <c r="U49" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF49" s="15"/>
       <c r="AG49" s="16"/>
       <c r="AH49" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BO49" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16414,14 +16473,14 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="R50" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
       <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BO50" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16438,14 +16497,14 @@
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
       <c r="R51" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="16"/>
       <c r="AF51" s="15"/>
       <c r="AG51" s="16"/>
       <c r="AH51" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BO51" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16462,14 +16521,14 @@
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
       <c r="R52" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BO52" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16486,17 +16545,17 @@
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
       <c r="R53" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
       <c r="U53" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF53" s="15"/>
       <c r="AG53" s="16"/>
       <c r="AH53" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BO53" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16513,14 +16572,14 @@
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="R54" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
       <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BO54" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16537,17 +16596,17 @@
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
       <c r="R55" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
       <c r="U55" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BO55" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16564,14 +16623,14 @@
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="R56" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
       <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BO56" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16588,14 +16647,14 @@
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
       <c r="R57" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
       <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BO57" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16612,25 +16671,67 @@
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
       <c r="R58" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S58" s="15"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="T58" s="15"/>
+      <c r="U58" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="15"/>
       <c r="AF58" s="15"/>
-      <c r="AG58" s="16"/>
-      <c r="AH58" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BO58" s="19" t="str">
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AL58" s="27"/>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="27"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="27"/>
+      <c r="AQ58" s="27"/>
+      <c r="AR58" s="27"/>
+      <c r="AS58" s="27"/>
+      <c r="AT58" s="27"/>
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="27"/>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="27"/>
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="27"/>
+      <c r="BC58" s="27"/>
+      <c r="BD58" s="27"/>
+      <c r="BE58" s="27"/>
+      <c r="BF58" s="27"/>
+      <c r="BG58" s="27"/>
+      <c r="BH58" s="27"/>
+      <c r="BI58" s="27"/>
+      <c r="BJ58" s="27"/>
+      <c r="BK58" s="27"/>
+      <c r="BL58" s="27"/>
+      <c r="BM58" s="27"/>
+      <c r="BN58" s="27"/>
+      <c r="BO58" s="29" t="str">
         <f t="shared" si="0"/>
         <v>003-001-052</v>
       </c>
-      <c r="BP58" s="15"/>
-      <c r="BQ58" s="15"/>
-      <c r="BR58" s="16"/>
+      <c r="BP58" s="27"/>
+      <c r="BQ58" s="27"/>
+      <c r="BR58" s="28"/>
       <c r="BS58" s="14"/>
       <c r="BT58" s="16"/>
     </row>
@@ -16639,12 +16740,15 @@
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="R59" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="16"/>
       <c r="AF59" s="15"/>
       <c r="AG59" s="16"/>
+      <c r="AH59" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="BO59" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003-001-053</v>
@@ -16659,20 +16763,66 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
-      <c r="R60" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="S60" s="15"/>
-      <c r="T60" s="16"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="16"/>
-      <c r="BO60" s="19" t="str">
+      <c r="R60" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="S60" s="27"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI60" s="27"/>
+      <c r="AJ60" s="27"/>
+      <c r="AK60" s="27"/>
+      <c r="AL60" s="27"/>
+      <c r="AM60" s="27"/>
+      <c r="AN60" s="27"/>
+      <c r="AO60" s="27"/>
+      <c r="AP60" s="27"/>
+      <c r="AQ60" s="27"/>
+      <c r="AR60" s="27"/>
+      <c r="AS60" s="27"/>
+      <c r="AT60" s="27"/>
+      <c r="AU60" s="27"/>
+      <c r="AV60" s="27"/>
+      <c r="AW60" s="27"/>
+      <c r="AX60" s="27"/>
+      <c r="AY60" s="27"/>
+      <c r="AZ60" s="27"/>
+      <c r="BA60" s="27"/>
+      <c r="BB60" s="27"/>
+      <c r="BC60" s="27"/>
+      <c r="BD60" s="27"/>
+      <c r="BE60" s="27"/>
+      <c r="BF60" s="27"/>
+      <c r="BG60" s="27"/>
+      <c r="BH60" s="27"/>
+      <c r="BI60" s="27"/>
+      <c r="BJ60" s="27"/>
+      <c r="BK60" s="27"/>
+      <c r="BL60" s="27"/>
+      <c r="BM60" s="27"/>
+      <c r="BN60" s="27"/>
+      <c r="BO60" s="29" t="str">
         <f t="shared" si="0"/>
         <v>003-001-054</v>
       </c>
-      <c r="BP60" s="15"/>
-      <c r="BQ60" s="15"/>
-      <c r="BR60" s="16"/>
+      <c r="BP60" s="27"/>
+      <c r="BQ60" s="27"/>
+      <c r="BR60" s="28"/>
       <c r="BS60" s="14"/>
       <c r="BT60" s="16"/>
     </row>
@@ -16680,13 +16830,22 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
+      <c r="K61" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="R61" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S61" s="15"/>
-      <c r="T61" s="16"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="AF61" s="15"/>
       <c r="AG61" s="16"/>
+      <c r="AH61" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="BO61" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003-001-055</v>
@@ -16702,12 +16861,15 @@
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="R62" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="16"/>
       <c r="AF62" s="15"/>
       <c r="AG62" s="16"/>
+      <c r="AH62" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="BO62" s="19" t="str">
         <f t="shared" si="0"/>
         <v>003-001-056</v>
@@ -16722,12 +16884,20 @@
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
-      <c r="R63" s="14"/>
+      <c r="R63" s="14" t="s">
+        <v>323</v>
+      </c>
       <c r="S63" s="15"/>
       <c r="T63" s="16"/>
       <c r="AF63" s="15"/>
-      <c r="AG63" s="16"/>
-      <c r="BO63" s="14"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO63" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-057</v>
+      </c>
       <c r="BP63" s="15"/>
       <c r="BQ63" s="15"/>
       <c r="BR63" s="16"/>
@@ -16738,15 +16908,66 @@
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="16"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="16"/>
-      <c r="BO64" s="14"/>
-      <c r="BP64" s="15"/>
-      <c r="BQ64" s="15"/>
-      <c r="BR64" s="16"/>
+      <c r="R64" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="3"/>
+      <c r="AX64" s="3"/>
+      <c r="AY64" s="3"/>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3"/>
+      <c r="BI64" s="3"/>
+      <c r="BJ64" s="3"/>
+      <c r="BK64" s="3"/>
+      <c r="BL64" s="3"/>
+      <c r="BM64" s="3"/>
+      <c r="BN64" s="3"/>
+      <c r="BO64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-058</v>
+      </c>
+      <c r="BP64" s="3"/>
+      <c r="BQ64" s="3"/>
+      <c r="BR64" s="4"/>
       <c r="BS64" s="14"/>
       <c r="BT64" s="16"/>
     </row>
@@ -16759,6 +16980,9 @@
       <c r="T65" s="16"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
+      <c r="AH65" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="BO65" s="14"/>
       <c r="BP65" s="15"/>
       <c r="BQ65" s="15"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -14,13 +14,16 @@
     <sheet name="備考2" sheetId="3" r:id="rId5"/>
     <sheet name="備考3" sheetId="6" r:id="rId6"/>
     <sheet name="備考４" sheetId="7" r:id="rId7"/>
+    <sheet name="備考5" sheetId="8" r:id="rId8"/>
+    <sheet name="備考6" sheetId="9" r:id="rId9"/>
+    <sheet name="備考7" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="465">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -799,16 +802,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作鍵類の再発行・追加貸与を新規追加する</t>
-    <rPh sb="14" eb="16">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3319,9 +3312,6 @@
     <t>052</t>
   </si>
   <si>
-    <t>053</t>
-  </si>
-  <si>
     <t>054</t>
   </si>
   <si>
@@ -3428,8 +3418,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>進捗情報⑧スケジュール（期日･費用）の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>062</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>063</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>064</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>065</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>066</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>067</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>⑨⑩</t>
+      <t>駐車場使用契約書_AP標準、スケジュール表、クレジットカード支払いのご案内、</t>
     </r>
     <r>
       <rPr>
@@ -3440,12 +3474,1006 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>⑪⑫⑬⑭</t>
+      <t>ｸﾚｼﾞｯﾄｶｰﾄﾞ</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗情報⑧スケジュール（期日･費用）の設定</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>申込書(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ﾕｰｻﾞｰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記入用)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ｸﾚｼﾞｯﾄｶｰﾄﾞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>申込書(書き方見本)の書類を正しく表示されること。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約金計算書、請求書を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約フォームメールを送信できること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約フォームメールを届けること。</t>
+    <rPh sb="11" eb="12">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送付状、契約金計算書、駐車場使用契約書の画面を表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約フォームに入力した内容を反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報⑩契約情報確認 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>069</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＡＰ捺印後の契約書を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約書送付メールを送信できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>071</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>072</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵類･操作説明書･配置図･保管場所使用承諾証明書送付メールを届けること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>073</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>074</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>075</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>076</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報⑭書類回収 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>進捗情報⑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">契約書送付 </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>免許証、正式な車検証の回収、自賠責保険証の回収、任意保険証の回収、書類提出依頼書の書類を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約完了をクリックしたら、契約手続き中一覧に反映されないこと。契約者一覧に反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>進捗情報⑬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鍵類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>･</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作説明書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>･</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置図</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>･</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保管場所使用承諾証明書送付</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報⑨契約フォーム送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>059</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更可能の項目を変更できること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウショルイソウフサキジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>進捗情報⑫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入金確認</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>053</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>077</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>083</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">契約管理→契約情報一覧→随時対応→1 支払方法変更 </t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>操作鍵類の再発行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加貸与を新規追加する</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法変更を新規追加する</t>
+    <rPh sb="0" eb="13">
+      <t>シンキツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（クレジットカード支払）</t>
+  </si>
+  <si>
+    <t>（銀行振込）</t>
+  </si>
+  <si>
+    <r>
+      <t>クレジットカード支払いのご案内、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ｸﾚｼﾞｯﾄｶｰﾄﾞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>申込書(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ﾕｰｻﾞｰ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>記入用)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ｸﾚｼﾞｯﾄｶｰﾄﾞ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>申込書(書き方見本)の書類を正しく表示されること。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットカード支払申込フォームメールを送信できること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジットカード支払申込フォームメールを届けること。</t>
+    <rPh sb="11" eb="12">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約フォームメールを入力できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジット情報を入力できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法変更確認書を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>087</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GMO会員番号、クレジットカード番号を反映されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>079</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の支払方法を表示される。支払方法を選択でき、支払方法の変更適用該当月、完了予定日を入力できること。</t>
+    <rPh sb="23" eb="25">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョクツギズイジタイオウガメンハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（口座振替）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賃料振込口座、支払方法の変更適用該当月を反映されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破棄をクリックしたら、随時対応一覧に反映されないこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へクリックしたら随時対応: 支払方法変更画面を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>078</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>091</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>092</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>093</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>094</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>095</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>096</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約管理→契約情報一覧→随時対応→2 車室変更</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室変更を新規追加する</t>
+    <rPh sb="0" eb="11">
+      <t>シンキツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>097</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へクリックしたら随時対応: 車室変更画面を表示されること。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネアコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手数料区分、変更前車室の解約日、変更後車室の契約開始日、変更後車室の月額賃料(税別)、保管場所使用承諾証明書、ユーザーの希望支払方法、完了予定日を入力できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可以选择変更後車室番号，与当前车室番号相同的车室不能选择</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報①車室変更情報確認 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報③車室変更フォーム送信 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報④車室変更契約書送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報⑤入金確認 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報⑥鍵類･操作説明書･配置図･保管場所使用承諾証明書送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報⑦操作鍵類回収</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室変更追加の内容を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駐車場使用契約書_AP標準、請求書、車室変更送付状を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室変更フォームメールを送信できること。</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室変更フォームメールを届けること。</t>
+    <rPh sb="11" eb="12">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約内容確認、請求書、契約書の画面を表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次：情報入力完了へ シートは備考6のように反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次：契約完了へシートは備考5のように反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次：車室変更完了へ シートは備考7のように反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報①口座振替申込書の送付先確認 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報①賃料振込口座確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報①クレジットカード支払申込フォーム送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>進捗情報②スケジュール（期日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>･</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">費用）の設定 </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報②クレジットカード情報登録 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報②口座振替申込書送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報②支払方法変更確認書送付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報③支払方法変更確認書送付 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗情報③口座振替申込書回収 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗情報④支払方法変更確認書送付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー署名の内容を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＡＰ捺印後の契約書を正しく表示されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>089</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法変更確認書送付メールを送信できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車室変更契約書送付メールを送信できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>099</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の支払い方法と同じ支払い方法を選択しの場合、提示をポップアップする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>対応完了をクリックしたら、随時対応一覧に反映されないこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>契約詳細画面で変更後の支払い方法を反映されました。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>対応完了をクリックしたら、随時対応一覧に反映されないこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>契約詳細画面で车車情报を反映されました。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3453,7 +4481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3489,6 +4517,35 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3684,7 +4741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3724,6 +4781,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4057,6 +5119,110 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527033</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8756633" cy="8353425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9505950" cy="7553325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -4345,7 +5511,7 @@
   <dimension ref="B2:BT41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ24" sqref="AQ24"/>
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -4386,7 +5552,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -5643,7 +6809,7 @@
       </c>
       <c r="AG20" s="16"/>
       <c r="AH20" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
@@ -7274,12 +8440,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BT88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -7320,7 +8500,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -7710,7 +8890,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -7792,7 +8972,7 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI9" s="27"/>
       <c r="AJ9" s="27"/>
@@ -8091,7 +9271,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8346,12 +9526,12 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S16" s="32"/>
       <c r="T16" s="33"/>
       <c r="U16" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -8366,7 +9546,7 @@
       <c r="AF16" s="32"/>
       <c r="AG16" s="33"/>
       <c r="AH16" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI16" s="32"/>
       <c r="AJ16" s="32"/>
@@ -8415,7 +9595,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -8435,7 +9615,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
@@ -8450,7 +9630,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
@@ -8532,7 +9712,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -8581,7 +9761,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -8614,7 +9794,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -8676,7 +9856,7 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
@@ -8694,7 +9874,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -8756,12 +9936,12 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S21" s="32"/>
       <c r="T21" s="33"/>
       <c r="U21" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -8776,7 +9956,7 @@
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
@@ -8838,12 +10018,12 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
       <c r="U22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -8858,7 +10038,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -8920,7 +10100,7 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S23" s="27"/>
       <c r="T23" s="28"/>
@@ -8938,7 +10118,7 @@
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
       <c r="AH23" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI23" s="27"/>
       <c r="AJ23" s="27"/>
@@ -9000,12 +10180,12 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
       <c r="U24" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -9020,7 +10200,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -9160,12 +10340,12 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="4"/>
       <c r="U26" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -9180,7 +10360,7 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
@@ -9229,7 +10409,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -9244,12 +10424,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
       <c r="U27" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -9328,12 +10508,12 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
       <c r="U28" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -9348,7 +10528,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -9397,7 +10577,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -9412,12 +10592,12 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="4"/>
       <c r="U29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -9432,7 +10612,7 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
@@ -9494,7 +10674,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
@@ -9512,7 +10692,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -9574,7 +10754,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S31" s="27"/>
       <c r="T31" s="28"/>
@@ -9592,7 +10772,7 @@
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
       <c r="AH31" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI31" s="27"/>
       <c r="AJ31" s="27"/>
@@ -9654,12 +10834,12 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -9674,7 +10854,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -9814,12 +10994,12 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="4"/>
       <c r="U34" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -9883,7 +11063,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -9898,12 +11078,12 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S35" s="32"/>
       <c r="T35" s="33"/>
       <c r="U35" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V35" s="32"/>
       <c r="W35" s="32"/>
@@ -9918,7 +11098,7 @@
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
@@ -9982,12 +11162,12 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
       <c r="U36" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -10002,7 +11182,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -10051,7 +11231,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -10066,12 +11246,12 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="4"/>
       <c r="U37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -10086,7 +11266,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
@@ -10148,7 +11328,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -10166,7 +11346,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -10228,7 +11408,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
@@ -10246,7 +11426,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -10308,12 +11488,12 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S40" s="32"/>
       <c r="T40" s="33"/>
       <c r="U40" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
@@ -10328,7 +11508,7 @@
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI40" s="32"/>
       <c r="AJ40" s="32"/>
@@ -10390,12 +11570,12 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="4"/>
       <c r="U41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -10410,7 +11590,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
@@ -10459,7 +11639,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
@@ -10477,7 +11657,7 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
@@ -10526,7 +11706,7 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="R43" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
@@ -10544,7 +11724,7 @@
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
       <c r="AH43" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI43" s="15"/>
       <c r="AJ43" s="15"/>
@@ -10594,7 +11774,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="14"/>
       <c r="R44" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
@@ -10612,7 +11792,7 @@
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
       <c r="AH44" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
@@ -10662,7 +11842,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="14"/>
       <c r="R45" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
@@ -10680,7 +11860,7 @@
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI45" s="15"/>
       <c r="AJ45" s="15"/>
@@ -10763,12 +11943,12 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="4"/>
       <c r="U47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -10832,7 +12012,7 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -10847,12 +12027,12 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S48" s="32"/>
       <c r="T48" s="33"/>
       <c r="U48" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V48" s="32"/>
       <c r="W48" s="32"/>
@@ -10867,7 +12047,7 @@
       <c r="AF48" s="32"/>
       <c r="AG48" s="33"/>
       <c r="AH48" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32"/>
@@ -10931,12 +12111,12 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="4"/>
       <c r="U49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -10951,7 +12131,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
@@ -11000,7 +12180,7 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -11015,7 +12195,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
@@ -11033,7 +12213,7 @@
       <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
       <c r="AH50" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI50" s="15"/>
       <c r="AJ50" s="15"/>
@@ -11095,7 +12275,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="28"/>
@@ -11113,7 +12293,7 @@
       <c r="AF51" s="27"/>
       <c r="AG51" s="28"/>
       <c r="AH51" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI51" s="27"/>
       <c r="AJ51" s="27"/>
@@ -11175,12 +12355,12 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="U52" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -11195,7 +12375,7 @@
       <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
@@ -11257,12 +12437,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="4"/>
       <c r="U53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -11277,7 +12457,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
@@ -11339,7 +12519,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
@@ -11357,7 +12537,7 @@
       <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
@@ -11419,7 +12599,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
@@ -11437,7 +12617,7 @@
       <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI55" s="15"/>
       <c r="AJ55" s="15"/>
@@ -11499,7 +12679,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
@@ -11517,7 +12697,7 @@
       <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
@@ -11579,7 +12759,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
@@ -11597,7 +12777,7 @@
       <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI57" s="15"/>
       <c r="AJ57" s="15"/>
@@ -11659,7 +12839,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="28"/>
@@ -11677,7 +12857,7 @@
       <c r="AF58" s="27"/>
       <c r="AG58" s="28"/>
       <c r="AH58" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI58" s="27"/>
       <c r="AJ58" s="27"/>
@@ -11739,12 +12919,12 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S59" s="27"/>
       <c r="T59" s="28"/>
       <c r="U59" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V59" s="27"/>
       <c r="W59" s="27"/>
@@ -11759,7 +12939,7 @@
       <c r="AF59" s="27"/>
       <c r="AG59" s="28"/>
       <c r="AH59" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI59" s="27"/>
       <c r="AJ59" s="27"/>
@@ -11883,7 +13063,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -11898,12 +13078,12 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="16"/>
       <c r="U61" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
@@ -11982,12 +13162,12 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S62" s="32"/>
       <c r="T62" s="33"/>
       <c r="U62" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V62" s="32"/>
       <c r="W62" s="32"/>
@@ -12002,7 +13182,7 @@
       <c r="AF62" s="32"/>
       <c r="AG62" s="33"/>
       <c r="AH62" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI62" s="32"/>
       <c r="AJ62" s="32"/>
@@ -12051,7 +13231,7 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -12066,12 +13246,12 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="4"/>
       <c r="U63" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -12086,7 +13266,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="4"/>
       <c r="AH63" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
@@ -12148,7 +13328,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="16"/>
@@ -12166,7 +13346,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="16"/>
       <c r="AH64" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
@@ -12228,7 +13408,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
       <c r="R65" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
@@ -12246,7 +13426,7 @@
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI65" s="15"/>
       <c r="AJ65" s="15"/>
@@ -12308,7 +13488,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
@@ -12326,7 +13506,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="16"/>
       <c r="AH66" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
@@ -12388,7 +13568,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="16"/>
@@ -12406,7 +13586,7 @@
       <c r="AF67" s="15"/>
       <c r="AG67" s="16"/>
       <c r="AH67" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI67" s="15"/>
       <c r="AJ67" s="15"/>
@@ -12468,7 +13648,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S68" s="27"/>
       <c r="T68" s="28"/>
@@ -12486,7 +13666,7 @@
       <c r="AF68" s="27"/>
       <c r="AG68" s="28"/>
       <c r="AH68" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI68" s="27"/>
       <c r="AJ68" s="27"/>
@@ -12548,12 +13728,12 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S69" s="3"/>
       <c r="T69" s="4"/>
       <c r="U69" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -12568,7 +13748,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="4"/>
       <c r="AH69" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
@@ -12630,7 +13810,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
@@ -12648,7 +13828,7 @@
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI70" s="15"/>
       <c r="AJ70" s="15"/>
@@ -12710,7 +13890,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
@@ -12728,7 +13908,7 @@
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI71" s="15"/>
       <c r="AJ71" s="15"/>
@@ -12790,7 +13970,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
@@ -12808,7 +13988,7 @@
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI72" s="15"/>
       <c r="AJ72" s="15"/>
@@ -12870,7 +14050,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
@@ -12888,7 +14068,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI73" s="15"/>
       <c r="AJ73" s="15"/>
@@ -12950,7 +14130,7 @@
       <c r="P74" s="27"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="28"/>
@@ -12968,7 +14148,7 @@
       <c r="AF74" s="27"/>
       <c r="AG74" s="28"/>
       <c r="AH74" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI74" s="27"/>
       <c r="AJ74" s="27"/>
@@ -13239,15 +14419,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BT130"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:BU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ128" sqref="AQ128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16" width="2.625" style="1"/>
+    <col min="17" max="17" width="2.625" style="1" customWidth="1"/>
+    <col min="18" max="32" width="2.625" style="1"/>
+    <col min="33" max="33" width="3.125" style="1" customWidth="1"/>
+    <col min="34" max="65" width="2.625" style="1"/>
+    <col min="66" max="66" width="8.125" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:72">
@@ -13283,7 +14470,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -13347,7 +14534,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
@@ -13480,11 +14667,11 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
@@ -13528,11 +14715,11 @@
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
       <c r="U7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
@@ -13554,7 +14741,7 @@
       <c r="BM7" s="15"/>
       <c r="BN7" s="16"/>
       <c r="BO7" s="19" t="str">
-        <f t="shared" ref="BO7:BO64" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
+        <f t="shared" ref="BO7:BO86" si="0">IF(R7="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R7)</f>
         <v>003-001-002</v>
       </c>
       <c r="BP7" s="15"/>
@@ -13577,7 +14764,7 @@
       <c r="T8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
@@ -13626,7 +14813,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -13645,7 +14832,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -13660,7 +14847,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -13727,7 +14914,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -13742,7 +14929,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
@@ -13809,10 +14996,10 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH11" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="AH11" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
@@ -13879,7 +15066,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -13894,7 +15081,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
@@ -13961,7 +15148,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -13976,7 +15163,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
@@ -14043,7 +15230,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -14058,7 +15245,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
@@ -14125,11 +15312,11 @@
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
@@ -14196,11 +15383,11 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG16" s="16"/>
       <c r="AH16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
@@ -14266,12 +15453,12 @@
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="1" t="s">
-        <v>104</v>
+      <c r="U17" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="AG17" s="16"/>
       <c r="AH17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
@@ -14336,7 +15523,7 @@
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="15"/>
+      <c r="U18" s="37"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -14350,7 +15537,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -14399,7 +15586,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -14418,8 +15605,8 @@
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="15" t="s">
-        <v>107</v>
+      <c r="U19" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -14434,7 +15621,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI19" s="15"/>
       <c r="AJ19" s="15"/>
@@ -14496,12 +15683,12 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
-      <c r="U20" s="15" t="s">
-        <v>109</v>
+      <c r="U20" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -14516,7 +15703,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -14578,11 +15765,11 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="37"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
@@ -14596,7 +15783,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
@@ -14658,11 +15845,11 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="37"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -14676,7 +15863,7 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
@@ -14738,11 +15925,11 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="15"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
@@ -14756,7 +15943,7 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
@@ -14820,12 +16007,12 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="15" t="s">
-        <v>121</v>
+      <c r="U24" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -14840,7 +16027,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -14904,12 +16091,12 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="1" t="s">
-        <v>97</v>
+      <c r="U25" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -14924,7 +16111,7 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="15"/>
@@ -14988,12 +16175,12 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="16"/>
       <c r="U26" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -15008,7 +16195,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
@@ -15057,7 +16244,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -15072,12 +16259,12 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="16"/>
       <c r="U27" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -15092,7 +16279,7 @@
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="15"/>
@@ -15154,7 +16341,7 @@
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="16"/>
@@ -15172,7 +16359,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
@@ -15234,7 +16421,7 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
@@ -15252,7 +16439,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
@@ -15314,12 +16501,12 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="U30" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -15334,7 +16521,7 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
@@ -15396,7 +16583,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="16"/>
@@ -15414,7 +16601,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
@@ -15476,7 +16663,7 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
@@ -15494,7 +16681,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
@@ -15556,12 +16743,12 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
       <c r="U33" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -15576,7 +16763,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
       <c r="AH33" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI33" s="15"/>
       <c r="AJ33" s="15"/>
@@ -15701,7 +16888,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -15716,12 +16903,12 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
       <c r="U35" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -15736,7 +16923,7 @@
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
       <c r="AH35" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="15"/>
@@ -15785,7 +16972,7 @@
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -15800,7 +16987,7 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
@@ -15818,7 +17005,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
       <c r="AH36" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
@@ -15867,7 +17054,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -15882,7 +17069,7 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
@@ -15900,7 +17087,7 @@
       <c r="AF37" s="15"/>
       <c r="AG37" s="15"/>
       <c r="AH37" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI37" s="15"/>
       <c r="AJ37" s="15"/>
@@ -15949,7 +17136,7 @@
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -15964,7 +17151,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
@@ -15982,7 +17169,7 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="15"/>
       <c r="AH38" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
@@ -16044,12 +17231,12 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
       <c r="U39" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
@@ -16064,7 +17251,7 @@
       <c r="AF39" s="15"/>
       <c r="AG39" s="15"/>
       <c r="AH39" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -16126,12 +17313,12 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
       <c r="U40" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -16146,7 +17333,7 @@
       <c r="AF40" s="15"/>
       <c r="AG40" s="15"/>
       <c r="AH40" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
@@ -16208,7 +17395,7 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
@@ -16226,7 +17413,7 @@
       <c r="AF41" s="15"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI41" s="15"/>
       <c r="AJ41" s="15"/>
@@ -16275,14 +17462,14 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="R42" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
       <c r="AF42" s="15"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BO42" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16299,14 +17486,14 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="R43" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BO43" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16323,14 +17510,14 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="R44" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
       <c r="AF44" s="15"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BO44" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16347,14 +17534,14 @@
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="R45" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
       <c r="AF45" s="15"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BO45" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16371,17 +17558,17 @@
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="R46" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S46" s="15"/>
       <c r="T46" s="16"/>
       <c r="U46" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF46" s="15"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BO46" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16398,14 +17585,14 @@
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="R47" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
       <c r="AF47" s="15"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BO47" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16422,14 +17609,14 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="R48" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S48" s="15"/>
       <c r="T48" s="16"/>
       <c r="AF48" s="15"/>
       <c r="AG48" s="16"/>
       <c r="AH48" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BO48" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16446,17 +17633,17 @@
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
       <c r="R49" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S49" s="15"/>
       <c r="T49" s="16"/>
       <c r="U49" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF49" s="15"/>
       <c r="AG49" s="16"/>
-      <c r="AH49" s="1" t="s">
-        <v>302</v>
+      <c r="AH49" s="35" t="s">
+        <v>301</v>
       </c>
       <c r="BO49" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16473,14 +17660,14 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="R50" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
       <c r="AF50" s="15"/>
       <c r="AG50" s="16"/>
-      <c r="AH50" s="1" t="s">
-        <v>305</v>
+      <c r="AH50" s="35" t="s">
+        <v>304</v>
       </c>
       <c r="BO50" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16497,14 +17684,14 @@
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
       <c r="R51" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="16"/>
       <c r="AF51" s="15"/>
       <c r="AG51" s="16"/>
-      <c r="AH51" s="1" t="s">
-        <v>306</v>
+      <c r="AH51" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="BO51" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16521,14 +17708,14 @@
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
       <c r="R52" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
       <c r="AF52" s="15"/>
       <c r="AG52" s="16"/>
-      <c r="AH52" s="1" t="s">
-        <v>308</v>
+      <c r="AH52" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="BO52" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16545,17 +17732,17 @@
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
       <c r="R53" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
       <c r="U53" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF53" s="15"/>
       <c r="AG53" s="16"/>
       <c r="AH53" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BO53" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16572,14 +17759,14 @@
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="R54" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
       <c r="AF54" s="15"/>
       <c r="AG54" s="16"/>
       <c r="AH54" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BO54" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16596,17 +17783,17 @@
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
       <c r="R55" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
       <c r="U55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF55" s="15"/>
       <c r="AG55" s="16"/>
       <c r="AH55" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BO55" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16623,14 +17810,14 @@
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="R56" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
       <c r="AF56" s="15"/>
       <c r="AG56" s="16"/>
       <c r="AH56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BO56" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16647,14 +17834,14 @@
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
       <c r="R57" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="16"/>
       <c r="AF57" s="15"/>
       <c r="AG57" s="16"/>
       <c r="AH57" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BO57" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16671,12 +17858,12 @@
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
       <c r="R58" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
       <c r="U58" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
@@ -16691,7 +17878,7 @@
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
       <c r="AH58" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AI58" s="27"/>
       <c r="AJ58" s="27"/>
@@ -16740,14 +17927,14 @@
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="R59" s="14" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="16"/>
       <c r="AF59" s="15"/>
       <c r="AG59" s="16"/>
       <c r="AH59" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BO59" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16764,7 +17951,7 @@
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
       <c r="R60" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S60" s="27"/>
       <c r="T60" s="28"/>
@@ -16782,7 +17969,7 @@
       <c r="AF60" s="27"/>
       <c r="AG60" s="28"/>
       <c r="AH60" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI60" s="27"/>
       <c r="AJ60" s="27"/>
@@ -16830,21 +18017,18 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
-      <c r="K61" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="R61" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
       <c r="U61" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF61" s="15"/>
       <c r="AG61" s="16"/>
       <c r="AH61" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="BO61" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16861,14 +18045,14 @@
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="R62" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="16"/>
       <c r="AF62" s="15"/>
       <c r="AG62" s="16"/>
       <c r="AH62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BO62" s="19" t="str">
         <f t="shared" si="0"/>
@@ -16885,14 +18069,14 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="R63" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="16"/>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
       <c r="AH63" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BO63" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16909,12 +18093,12 @@
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
       <c r="R64" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="4"/>
       <c r="U64" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -16928,7 +18112,9 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="4"/>
-      <c r="AH64" s="3"/>
+      <c r="AH64" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
@@ -16975,15 +18161,20 @@
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
-      <c r="R65" s="14"/>
+      <c r="R65" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="BO65" s="14"/>
+        <v>360</v>
+      </c>
+      <c r="BO65" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-059</v>
+      </c>
       <c r="BP65" s="15"/>
       <c r="BQ65" s="15"/>
       <c r="BR65" s="16"/>
@@ -16994,12 +18185,20 @@
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
-      <c r="R66" s="14"/>
+      <c r="R66" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
       <c r="AF66" s="15"/>
       <c r="AG66" s="16"/>
-      <c r="BO66" s="14"/>
+      <c r="AH66" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO66" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-060</v>
+      </c>
       <c r="BP66" s="15"/>
       <c r="BQ66" s="15"/>
       <c r="BR66" s="16"/>
@@ -17010,15 +18209,68 @@
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="16"/>
-      <c r="AF67" s="15"/>
-      <c r="AG67" s="16"/>
-      <c r="BO67" s="14"/>
-      <c r="BP67" s="15"/>
-      <c r="BQ67" s="15"/>
-      <c r="BR67" s="16"/>
+      <c r="R67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+      <c r="AQ67" s="3"/>
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="3"/>
+      <c r="AX67" s="3"/>
+      <c r="AY67" s="3"/>
+      <c r="AZ67" s="3"/>
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
+      <c r="BC67" s="3"/>
+      <c r="BD67" s="3"/>
+      <c r="BE67" s="3"/>
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+      <c r="BI67" s="3"/>
+      <c r="BJ67" s="3"/>
+      <c r="BK67" s="3"/>
+      <c r="BL67" s="3"/>
+      <c r="BM67" s="3"/>
+      <c r="BN67" s="3"/>
+      <c r="BO67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-061</v>
+      </c>
+      <c r="BP67" s="3"/>
+      <c r="BQ67" s="3"/>
+      <c r="BR67" s="4"/>
       <c r="BS67" s="14"/>
       <c r="BT67" s="16"/>
     </row>
@@ -17026,12 +18278,20 @@
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
-      <c r="R68" s="14"/>
+      <c r="R68" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="S68" s="15"/>
       <c r="T68" s="16"/>
       <c r="AF68" s="15"/>
-      <c r="AG68" s="16"/>
-      <c r="BO68" s="14"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="BO68" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-062</v>
+      </c>
       <c r="BP68" s="15"/>
       <c r="BQ68" s="15"/>
       <c r="BR68" s="16"/>
@@ -17042,12 +18302,20 @@
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
-      <c r="R69" s="14"/>
+      <c r="R69" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="S69" s="15"/>
       <c r="T69" s="16"/>
       <c r="AF69" s="15"/>
       <c r="AG69" s="16"/>
-      <c r="BO69" s="14"/>
+      <c r="AH69" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="BO69" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-063</v>
+      </c>
       <c r="BP69" s="15"/>
       <c r="BQ69" s="15"/>
       <c r="BR69" s="16"/>
@@ -17058,12 +18326,20 @@
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
-      <c r="R70" s="14"/>
+      <c r="R70" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
-      <c r="BO70" s="14"/>
+      <c r="AH70" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BO70" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-064</v>
+      </c>
       <c r="BP70" s="15"/>
       <c r="BQ70" s="15"/>
       <c r="BR70" s="16"/>
@@ -17074,12 +18350,20 @@
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
-      <c r="R71" s="14"/>
+      <c r="R71" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
-      <c r="BO71" s="14"/>
+      <c r="AH71" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BO71" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-065</v>
+      </c>
       <c r="BP71" s="15"/>
       <c r="BQ71" s="15"/>
       <c r="BR71" s="16"/>
@@ -17090,12 +18374,20 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
-      <c r="R72" s="14"/>
+      <c r="R72" s="14" t="s">
+        <v>331</v>
+      </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
-      <c r="BO72" s="14"/>
+      <c r="AH72" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO72" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-066</v>
+      </c>
       <c r="BP72" s="15"/>
       <c r="BQ72" s="15"/>
       <c r="BR72" s="16"/>
@@ -17106,12 +18398,20 @@
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
-      <c r="R73" s="14"/>
+      <c r="R73" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
-      <c r="BO73" s="14"/>
+      <c r="AH73" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BO73" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-067</v>
+      </c>
       <c r="BP73" s="15"/>
       <c r="BQ73" s="15"/>
       <c r="BR73" s="16"/>
@@ -17122,15 +18422,68 @@
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="16"/>
-      <c r="AF74" s="15"/>
-      <c r="AG74" s="16"/>
-      <c r="BO74" s="14"/>
-      <c r="BP74" s="15"/>
-      <c r="BQ74" s="15"/>
-      <c r="BR74" s="16"/>
+      <c r="R74" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+      <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3"/>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
+      <c r="BJ74" s="3"/>
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+      <c r="BO74" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-068</v>
+      </c>
+      <c r="BP74" s="3"/>
+      <c r="BQ74" s="3"/>
+      <c r="BR74" s="4"/>
       <c r="BS74" s="14"/>
       <c r="BT74" s="16"/>
     </row>
@@ -17138,15 +18491,68 @@
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="16"/>
-      <c r="AF75" s="15"/>
-      <c r="AG75" s="16"/>
-      <c r="BO75" s="14"/>
-      <c r="BP75" s="15"/>
-      <c r="BQ75" s="15"/>
-      <c r="BR75" s="16"/>
+      <c r="R75" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="S75" s="3"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="3"/>
+      <c r="AQ75" s="3"/>
+      <c r="AR75" s="3"/>
+      <c r="AS75" s="3"/>
+      <c r="AT75" s="3"/>
+      <c r="AU75" s="3"/>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="3"/>
+      <c r="AX75" s="3"/>
+      <c r="AY75" s="3"/>
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+      <c r="BD75" s="3"/>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+      <c r="BI75" s="3"/>
+      <c r="BJ75" s="3"/>
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+      <c r="BO75" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-069</v>
+      </c>
+      <c r="BP75" s="3"/>
+      <c r="BQ75" s="3"/>
+      <c r="BR75" s="4"/>
       <c r="BS75" s="14"/>
       <c r="BT75" s="16"/>
     </row>
@@ -17154,12 +18560,20 @@
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
-      <c r="R76" s="14"/>
+      <c r="R76" s="14" t="s">
+        <v>344</v>
+      </c>
       <c r="S76" s="15"/>
       <c r="T76" s="16"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="16"/>
-      <c r="BO76" s="14"/>
+      <c r="AH76" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BO76" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-070</v>
+      </c>
       <c r="BP76" s="15"/>
       <c r="BQ76" s="15"/>
       <c r="BR76" s="16"/>
@@ -17170,15 +18584,68 @@
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="16"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="16"/>
-      <c r="BO77" s="14"/>
-      <c r="BP77" s="15"/>
-      <c r="BQ77" s="15"/>
-      <c r="BR77" s="16"/>
+      <c r="R77" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="S77" s="3"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
+      <c r="AW77" s="3"/>
+      <c r="AX77" s="3"/>
+      <c r="AY77" s="3"/>
+      <c r="AZ77" s="3"/>
+      <c r="BA77" s="3"/>
+      <c r="BB77" s="3"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="3"/>
+      <c r="BE77" s="3"/>
+      <c r="BF77" s="3"/>
+      <c r="BG77" s="3"/>
+      <c r="BH77" s="3"/>
+      <c r="BI77" s="3"/>
+      <c r="BJ77" s="3"/>
+      <c r="BK77" s="3"/>
+      <c r="BL77" s="3"/>
+      <c r="BM77" s="3"/>
+      <c r="BN77" s="3"/>
+      <c r="BO77" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-071</v>
+      </c>
+      <c r="BP77" s="3"/>
+      <c r="BQ77" s="3"/>
+      <c r="BR77" s="4"/>
       <c r="BS77" s="14"/>
       <c r="BT77" s="16"/>
     </row>
@@ -17186,15 +18653,68 @@
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="16"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="16"/>
-      <c r="BO78" s="14"/>
-      <c r="BP78" s="15"/>
-      <c r="BQ78" s="15"/>
-      <c r="BR78" s="16"/>
+      <c r="R78" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3"/>
+      <c r="AY78" s="3"/>
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="3"/>
+      <c r="BD78" s="3"/>
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3"/>
+      <c r="BH78" s="3"/>
+      <c r="BI78" s="3"/>
+      <c r="BJ78" s="3"/>
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
+      <c r="BO78" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-072</v>
+      </c>
+      <c r="BP78" s="3"/>
+      <c r="BQ78" s="3"/>
+      <c r="BR78" s="4"/>
       <c r="BS78" s="14"/>
       <c r="BT78" s="16"/>
     </row>
@@ -17202,12 +18722,20 @@
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
-      <c r="R79" s="14"/>
+      <c r="R79" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="S79" s="15"/>
       <c r="T79" s="16"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="16"/>
-      <c r="BO79" s="14"/>
+      <c r="AH79" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO79" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-073</v>
+      </c>
       <c r="BP79" s="15"/>
       <c r="BQ79" s="15"/>
       <c r="BR79" s="16"/>
@@ -17218,12 +18746,20 @@
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
-      <c r="R80" s="14"/>
+      <c r="R80" s="14" t="s">
+        <v>349</v>
+      </c>
       <c r="S80" s="15"/>
       <c r="T80" s="16"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="16"/>
-      <c r="BO80" s="14"/>
+      <c r="AH80" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO80" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-074</v>
+      </c>
       <c r="BP80" s="15"/>
       <c r="BQ80" s="15"/>
       <c r="BR80" s="16"/>
@@ -17234,15 +18770,68 @@
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="16"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="16"/>
-      <c r="BO81" s="14"/>
-      <c r="BP81" s="15"/>
-      <c r="BQ81" s="15"/>
-      <c r="BR81" s="16"/>
+      <c r="R81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S81" s="3"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
+      <c r="AV81" s="3"/>
+      <c r="AW81" s="3"/>
+      <c r="AX81" s="3"/>
+      <c r="AY81" s="3"/>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+      <c r="BI81" s="3"/>
+      <c r="BJ81" s="3"/>
+      <c r="BK81" s="3"/>
+      <c r="BL81" s="3"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
+      <c r="BO81" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-075</v>
+      </c>
+      <c r="BP81" s="3"/>
+      <c r="BQ81" s="3"/>
+      <c r="BR81" s="4"/>
       <c r="BS81" s="14"/>
       <c r="BT81" s="16"/>
     </row>
@@ -17250,15 +18839,68 @@
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="16"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="16"/>
-      <c r="BO82" s="14"/>
-      <c r="BP82" s="15"/>
-      <c r="BQ82" s="15"/>
-      <c r="BR82" s="16"/>
+      <c r="R82" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="S82" s="32"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI82" s="32"/>
+      <c r="AJ82" s="32"/>
+      <c r="AK82" s="32"/>
+      <c r="AL82" s="32"/>
+      <c r="AM82" s="32"/>
+      <c r="AN82" s="32"/>
+      <c r="AO82" s="32"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="32"/>
+      <c r="AR82" s="32"/>
+      <c r="AS82" s="32"/>
+      <c r="AT82" s="32"/>
+      <c r="AU82" s="32"/>
+      <c r="AV82" s="32"/>
+      <c r="AW82" s="32"/>
+      <c r="AX82" s="32"/>
+      <c r="AY82" s="32"/>
+      <c r="AZ82" s="32"/>
+      <c r="BA82" s="32"/>
+      <c r="BB82" s="32"/>
+      <c r="BC82" s="32"/>
+      <c r="BD82" s="32"/>
+      <c r="BE82" s="32"/>
+      <c r="BF82" s="32"/>
+      <c r="BG82" s="32"/>
+      <c r="BH82" s="32"/>
+      <c r="BI82" s="32"/>
+      <c r="BJ82" s="32"/>
+      <c r="BK82" s="32"/>
+      <c r="BL82" s="32"/>
+      <c r="BM82" s="32"/>
+      <c r="BN82" s="32"/>
+      <c r="BO82" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-076</v>
+      </c>
+      <c r="BP82" s="32"/>
+      <c r="BQ82" s="32"/>
+      <c r="BR82" s="33"/>
       <c r="BS82" s="14"/>
       <c r="BT82" s="16"/>
     </row>
@@ -17271,7 +18913,10 @@
       <c r="T83" s="16"/>
       <c r="AF83" s="15"/>
       <c r="AG83" s="16"/>
-      <c r="BO83" s="14"/>
+      <c r="BO83" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="BP83" s="15"/>
       <c r="BQ83" s="15"/>
       <c r="BR83" s="16"/>
@@ -17279,18 +18924,86 @@
       <c r="BT83" s="16"/>
     </row>
     <row r="84" spans="2:72">
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="16"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="16"/>
-      <c r="BO84" s="14"/>
-      <c r="BP84" s="15"/>
-      <c r="BQ84" s="15"/>
-      <c r="BR84" s="16"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="3"/>
+      <c r="AX84" s="3"/>
+      <c r="AY84" s="3"/>
+      <c r="AZ84" s="3"/>
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
+      <c r="BC84" s="3"/>
+      <c r="BD84" s="3"/>
+      <c r="BE84" s="3"/>
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+      <c r="BI84" s="3"/>
+      <c r="BJ84" s="3"/>
+      <c r="BK84" s="3"/>
+      <c r="BL84" s="3"/>
+      <c r="BM84" s="3"/>
+      <c r="BN84" s="3"/>
+      <c r="BO84" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-077</v>
+      </c>
+      <c r="BP84" s="3"/>
+      <c r="BQ84" s="3"/>
+      <c r="BR84" s="4"/>
       <c r="BS84" s="14"/>
       <c r="BT84" s="16"/>
     </row>
@@ -17298,12 +19011,23 @@
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
-      <c r="R85" s="14"/>
+      <c r="E85" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R85" s="14" t="s">
+        <v>392</v>
+      </c>
       <c r="S85" s="15"/>
       <c r="T85" s="16"/>
       <c r="AF85" s="15"/>
-      <c r="AG85" s="16"/>
-      <c r="BO85" s="14"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="BO85" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-078</v>
+      </c>
       <c r="BP85" s="15"/>
       <c r="BQ85" s="15"/>
       <c r="BR85" s="16"/>
@@ -17314,12 +19038,23 @@
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
-      <c r="R86" s="14"/>
+      <c r="E86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R86" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="S86" s="15"/>
       <c r="T86" s="16"/>
       <c r="AF86" s="15"/>
-      <c r="AG86" s="16"/>
-      <c r="BO86" s="14"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="BO86" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>003-001-079</v>
+      </c>
       <c r="BP86" s="15"/>
       <c r="BQ86" s="15"/>
       <c r="BR86" s="16"/>
@@ -17330,15 +19065,66 @@
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="16"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="16"/>
-      <c r="BO87" s="14"/>
-      <c r="BP87" s="15"/>
-      <c r="BQ87" s="15"/>
-      <c r="BR87" s="16"/>
+      <c r="E87" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="S87" s="3"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="3"/>
+      <c r="AQ87" s="3"/>
+      <c r="AR87" s="3"/>
+      <c r="AS87" s="3"/>
+      <c r="AT87" s="3"/>
+      <c r="AU87" s="3"/>
+      <c r="AV87" s="3"/>
+      <c r="AW87" s="3"/>
+      <c r="AX87" s="3"/>
+      <c r="AY87" s="3"/>
+      <c r="AZ87" s="3"/>
+      <c r="BA87" s="3"/>
+      <c r="BB87" s="3"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="3"/>
+      <c r="BE87" s="3"/>
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3"/>
+      <c r="BH87" s="3"/>
+      <c r="BI87" s="3"/>
+      <c r="BJ87" s="3"/>
+      <c r="BK87" s="3"/>
+      <c r="BL87" s="3"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
+      <c r="BO87" s="2"/>
+      <c r="BP87" s="3"/>
+      <c r="BQ87" s="3"/>
+      <c r="BR87" s="4"/>
       <c r="BS87" s="14"/>
       <c r="BT87" s="16"/>
     </row>
@@ -17346,12 +19132,23 @@
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
       <c r="D88" s="16"/>
-      <c r="R88" s="14"/>
+      <c r="R88" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="S88" s="15"/>
       <c r="T88" s="16"/>
+      <c r="U88" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="AF88" s="15"/>
-      <c r="AG88" s="16"/>
-      <c r="BO88" s="14"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BO88" s="14" t="str">
+        <f t="shared" ref="BO88:BO97" si="1">IF(R88="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R88)</f>
+        <v>003-001-080</v>
+      </c>
       <c r="BP88" s="15"/>
       <c r="BQ88" s="15"/>
       <c r="BR88" s="16"/>
@@ -17362,12 +19159,20 @@
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
-      <c r="R89" s="14"/>
+      <c r="R89" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="S89" s="15"/>
       <c r="T89" s="16"/>
       <c r="AF89" s="15"/>
       <c r="AG89" s="16"/>
-      <c r="BO89" s="14"/>
+      <c r="AH89" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO89" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-081</v>
+      </c>
       <c r="BP89" s="15"/>
       <c r="BQ89" s="15"/>
       <c r="BR89" s="16"/>
@@ -17378,12 +19183,20 @@
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
-      <c r="R90" s="14"/>
+      <c r="R90" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="S90" s="15"/>
       <c r="T90" s="16"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="16"/>
-      <c r="BO90" s="14"/>
+      <c r="AH90" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="BO90" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-082</v>
+      </c>
       <c r="BP90" s="15"/>
       <c r="BQ90" s="15"/>
       <c r="BR90" s="16"/>
@@ -17394,12 +19207,20 @@
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
       <c r="D91" s="16"/>
-      <c r="R91" s="14"/>
+      <c r="R91" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="S91" s="15"/>
       <c r="T91" s="16"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="16"/>
-      <c r="BO91" s="14"/>
+      <c r="AH91" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BO91" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-083</v>
+      </c>
       <c r="BP91" s="15"/>
       <c r="BQ91" s="15"/>
       <c r="BR91" s="16"/>
@@ -17410,12 +19231,20 @@
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="16"/>
-      <c r="R92" s="14"/>
+      <c r="R92" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="S92" s="15"/>
       <c r="T92" s="16"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="16"/>
-      <c r="BO92" s="14"/>
+      <c r="AH92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BO92" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-084</v>
+      </c>
       <c r="BP92" s="15"/>
       <c r="BQ92" s="15"/>
       <c r="BR92" s="16"/>
@@ -17426,12 +19255,20 @@
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="16"/>
-      <c r="R93" s="14"/>
+      <c r="R93" s="14" t="s">
+        <v>369</v>
+      </c>
       <c r="S93" s="15"/>
       <c r="T93" s="16"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="16"/>
-      <c r="BO93" s="14"/>
+      <c r="AH93" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="BO93" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-085</v>
+      </c>
       <c r="BP93" s="15"/>
       <c r="BQ93" s="15"/>
       <c r="BR93" s="16"/>
@@ -17442,15 +19279,68 @@
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="16"/>
-      <c r="R94" s="14"/>
+      <c r="R94" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="S94" s="15"/>
-      <c r="T94" s="16"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
       <c r="AF94" s="15"/>
-      <c r="AG94" s="16"/>
-      <c r="BO94" s="14"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="15"/>
+      <c r="AN94" s="15"/>
+      <c r="AO94" s="15"/>
+      <c r="AP94" s="15"/>
+      <c r="AQ94" s="15"/>
+      <c r="AR94" s="15"/>
+      <c r="AS94" s="15"/>
+      <c r="AT94" s="15"/>
+      <c r="AU94" s="15"/>
+      <c r="AV94" s="15"/>
+      <c r="AW94" s="15"/>
+      <c r="AX94" s="15"/>
+      <c r="AY94" s="15"/>
+      <c r="AZ94" s="15"/>
+      <c r="BA94" s="15"/>
+      <c r="BB94" s="15"/>
+      <c r="BC94" s="15"/>
+      <c r="BD94" s="15"/>
+      <c r="BE94" s="15"/>
+      <c r="BF94" s="15"/>
+      <c r="BG94" s="15"/>
+      <c r="BH94" s="15"/>
+      <c r="BI94" s="15"/>
+      <c r="BJ94" s="15"/>
+      <c r="BK94" s="15"/>
+      <c r="BL94" s="15"/>
+      <c r="BM94" s="15"/>
+      <c r="BN94" s="15"/>
+      <c r="BO94" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-086</v>
+      </c>
       <c r="BP94" s="15"/>
       <c r="BQ94" s="15"/>
-      <c r="BR94" s="16"/>
+      <c r="BR94" s="15"/>
       <c r="BS94" s="14"/>
       <c r="BT94" s="16"/>
     </row>
@@ -17458,12 +19348,23 @@
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="16"/>
-      <c r="R95" s="14"/>
+      <c r="R95" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="S95" s="15"/>
       <c r="T95" s="16"/>
+      <c r="U95" s="15" t="s">
+        <v>429</v>
+      </c>
       <c r="AF95" s="15"/>
       <c r="AG95" s="16"/>
-      <c r="BO95" s="14"/>
+      <c r="AH95" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO95" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-087</v>
+      </c>
       <c r="BP95" s="15"/>
       <c r="BQ95" s="15"/>
       <c r="BR95" s="16"/>
@@ -17474,12 +19375,21 @@
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="16"/>
-      <c r="R96" s="14"/>
+      <c r="R96" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="S96" s="15"/>
       <c r="T96" s="16"/>
+      <c r="U96" s="15"/>
       <c r="AF96" s="15"/>
       <c r="AG96" s="16"/>
-      <c r="BO96" s="14"/>
+      <c r="AH96" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO96" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-088</v>
+      </c>
       <c r="BP96" s="15"/>
       <c r="BQ96" s="15"/>
       <c r="BR96" s="16"/>
@@ -17490,12 +19400,20 @@
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
-      <c r="R97" s="14"/>
+      <c r="R97" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="S97" s="15"/>
       <c r="T97" s="16"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="16"/>
-      <c r="BO97" s="14"/>
+      <c r="AH97" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO97" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>003-001-089</v>
+      </c>
       <c r="BP97" s="15"/>
       <c r="BQ97" s="15"/>
       <c r="BR97" s="16"/>
@@ -17506,15 +19424,64 @@
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="16"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="16"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="16"/>
-      <c r="BO98" s="14"/>
-      <c r="BP98" s="15"/>
-      <c r="BQ98" s="15"/>
-      <c r="BR98" s="16"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+      <c r="AG98" s="4"/>
+      <c r="AH98" s="3"/>
+      <c r="AI98" s="3"/>
+      <c r="AJ98" s="3"/>
+      <c r="AK98" s="3"/>
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+      <c r="AQ98" s="3"/>
+      <c r="AR98" s="3"/>
+      <c r="AS98" s="3"/>
+      <c r="AT98" s="3"/>
+      <c r="AU98" s="3"/>
+      <c r="AV98" s="3"/>
+      <c r="AW98" s="3"/>
+      <c r="AX98" s="3"/>
+      <c r="AY98" s="3"/>
+      <c r="AZ98" s="3"/>
+      <c r="BA98" s="3"/>
+      <c r="BB98" s="3"/>
+      <c r="BC98" s="3"/>
+      <c r="BD98" s="3"/>
+      <c r="BE98" s="3"/>
+      <c r="BF98" s="3"/>
+      <c r="BG98" s="3"/>
+      <c r="BH98" s="3"/>
+      <c r="BI98" s="3"/>
+      <c r="BJ98" s="3"/>
+      <c r="BK98" s="3"/>
+      <c r="BL98" s="3"/>
+      <c r="BM98" s="3"/>
+      <c r="BN98" s="3"/>
+      <c r="BO98" s="14" t="str">
+        <f t="shared" ref="BO98:BO136" si="2">IF(R98="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R98)</f>
+        <v/>
+      </c>
+      <c r="BP98" s="3"/>
+      <c r="BQ98" s="3"/>
+      <c r="BR98" s="4"/>
       <c r="BS98" s="14"/>
       <c r="BT98" s="16"/>
     </row>
@@ -17522,12 +19489,23 @@
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
       <c r="D99" s="16"/>
-      <c r="R99" s="14"/>
+      <c r="R99" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="S99" s="15"/>
       <c r="T99" s="16"/>
+      <c r="U99" s="15" t="s">
+        <v>423</v>
+      </c>
       <c r="AF99" s="15"/>
       <c r="AG99" s="16"/>
-      <c r="BO99" s="14"/>
+      <c r="AH99" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="BO99" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-090</v>
+      </c>
       <c r="BP99" s="15"/>
       <c r="BQ99" s="15"/>
       <c r="BR99" s="16"/>
@@ -17538,12 +19516,23 @@
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
       <c r="D100" s="16"/>
-      <c r="R100" s="14"/>
+      <c r="R100" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="S100" s="15"/>
       <c r="T100" s="16"/>
+      <c r="U100" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="AF100" s="15"/>
       <c r="AG100" s="16"/>
-      <c r="BO100" s="14"/>
+      <c r="AH100" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO100" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-091</v>
+      </c>
       <c r="BP100" s="15"/>
       <c r="BQ100" s="15"/>
       <c r="BR100" s="16"/>
@@ -17554,12 +19543,21 @@
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
-      <c r="R101" s="14"/>
+      <c r="R101" s="14" t="s">
+        <v>395</v>
+      </c>
       <c r="S101" s="15"/>
       <c r="T101" s="16"/>
+      <c r="U101" s="15"/>
       <c r="AF101" s="15"/>
       <c r="AG101" s="16"/>
-      <c r="BO101" s="14"/>
+      <c r="AH101" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO101" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-092</v>
+      </c>
       <c r="BP101" s="15"/>
       <c r="BQ101" s="15"/>
       <c r="BR101" s="16"/>
@@ -17570,12 +19568,21 @@
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
-      <c r="R102" s="14"/>
+      <c r="R102" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="S102" s="15"/>
       <c r="T102" s="16"/>
+      <c r="U102" s="15"/>
       <c r="AF102" s="15"/>
       <c r="AG102" s="16"/>
-      <c r="BO102" s="14"/>
+      <c r="AH102" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO102" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-093</v>
+      </c>
       <c r="BP102" s="15"/>
       <c r="BQ102" s="15"/>
       <c r="BR102" s="16"/>
@@ -17583,23 +19590,91 @@
       <c r="BT102" s="16"/>
     </row>
     <row r="103" spans="2:72">
-      <c r="R103" s="14"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="16"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="16"/>
-      <c r="BO103" s="14"/>
-      <c r="BP103" s="15"/>
-      <c r="BQ103" s="15"/>
-      <c r="BR103" s="16"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+      <c r="AG103" s="4"/>
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="3"/>
+      <c r="AJ103" s="3"/>
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="3"/>
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="3"/>
+      <c r="AQ103" s="3"/>
+      <c r="AR103" s="3"/>
+      <c r="AS103" s="3"/>
+      <c r="AT103" s="3"/>
+      <c r="AU103" s="3"/>
+      <c r="AV103" s="3"/>
+      <c r="AW103" s="3"/>
+      <c r="AX103" s="3"/>
+      <c r="AY103" s="3"/>
+      <c r="AZ103" s="3"/>
+      <c r="BA103" s="3"/>
+      <c r="BB103" s="3"/>
+      <c r="BC103" s="3"/>
+      <c r="BD103" s="3"/>
+      <c r="BE103" s="3"/>
+      <c r="BF103" s="3"/>
+      <c r="BG103" s="3"/>
+      <c r="BH103" s="3"/>
+      <c r="BI103" s="3"/>
+      <c r="BJ103" s="3"/>
+      <c r="BK103" s="3"/>
+      <c r="BL103" s="3"/>
+      <c r="BM103" s="3"/>
+      <c r="BN103" s="3"/>
+      <c r="BO103" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BP103" s="3"/>
+      <c r="BQ103" s="3"/>
+      <c r="BR103" s="4"/>
       <c r="BS103" s="14"/>
       <c r="BT103" s="16"/>
     </row>
     <row r="104" spans="2:72">
-      <c r="R104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="R104" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="S104" s="15"/>
       <c r="T104" s="16"/>
-      <c r="BO104" s="14"/>
+      <c r="U104" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="16"/>
+      <c r="AH104" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO104" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-094</v>
+      </c>
       <c r="BP104" s="15"/>
       <c r="BQ104" s="15"/>
       <c r="BR104" s="16"/>
@@ -17607,10 +19682,23 @@
       <c r="BT104" s="16"/>
     </row>
     <row r="105" spans="2:72">
-      <c r="R105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="R105" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="S105" s="15"/>
       <c r="T105" s="16"/>
-      <c r="BO105" s="14"/>
+      <c r="U105" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="16"/>
+      <c r="BO105" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-095</v>
+      </c>
       <c r="BP105" s="15"/>
       <c r="BQ105" s="15"/>
       <c r="BR105" s="16"/>
@@ -17618,10 +19706,22 @@
       <c r="BT105" s="16"/>
     </row>
     <row r="106" spans="2:72">
-      <c r="R106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="R106" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="S106" s="15"/>
       <c r="T106" s="16"/>
-      <c r="BO106" s="14"/>
+      <c r="U106" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="16"/>
+      <c r="BO106" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-096</v>
+      </c>
       <c r="BP106" s="15"/>
       <c r="BQ106" s="15"/>
       <c r="BR106" s="16"/>
@@ -17629,10 +19729,23 @@
       <c r="BT106" s="16"/>
     </row>
     <row r="107" spans="2:72">
-      <c r="R107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="R107" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="S107" s="15"/>
       <c r="T107" s="16"/>
-      <c r="BO107" s="14"/>
+      <c r="U107" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="AH107" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO107" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-097</v>
+      </c>
       <c r="BP107" s="15"/>
       <c r="BQ107" s="15"/>
       <c r="BR107" s="16"/>
@@ -17640,9 +19753,15 @@
       <c r="BT107" s="16"/>
     </row>
     <row r="108" spans="2:72">
+      <c r="B108" s="14"/>
+      <c r="E108" s="14"/>
       <c r="R108" s="14"/>
       <c r="S108" s="15"/>
       <c r="T108" s="16"/>
+      <c r="U108" s="15"/>
+      <c r="AH108" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="BO108" s="14"/>
       <c r="BP108" s="15"/>
       <c r="BQ108" s="15"/>
@@ -17651,10 +19770,19 @@
       <c r="BT108" s="16"/>
     </row>
     <row r="109" spans="2:72">
+      <c r="B109" s="14"/>
+      <c r="E109" s="14"/>
       <c r="R109" s="14"/>
       <c r="S109" s="15"/>
       <c r="T109" s="16"/>
-      <c r="BO109" s="14"/>
+      <c r="U109" s="15"/>
+      <c r="AH109" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO109" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="BP109" s="15"/>
       <c r="BQ109" s="15"/>
       <c r="BR109" s="16"/>
@@ -17662,177 +19790,991 @@
       <c r="BT109" s="16"/>
     </row>
     <row r="110" spans="2:72">
-      <c r="R110" s="14"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="16"/>
-      <c r="BO110" s="14"/>
-      <c r="BP110" s="15"/>
-      <c r="BQ110" s="15"/>
-      <c r="BR110" s="16"/>
+      <c r="B110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="R110" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S110" s="3"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="3"/>
+      <c r="AG110" s="3"/>
+      <c r="AH110" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI110" s="3"/>
+      <c r="AJ110" s="3"/>
+      <c r="AK110" s="3"/>
+      <c r="AL110" s="3"/>
+      <c r="AM110" s="3"/>
+      <c r="AN110" s="3"/>
+      <c r="AO110" s="3"/>
+      <c r="AP110" s="3"/>
+      <c r="AQ110" s="3"/>
+      <c r="AR110" s="3"/>
+      <c r="AS110" s="3"/>
+      <c r="AT110" s="3"/>
+      <c r="AU110" s="3"/>
+      <c r="AV110" s="3"/>
+      <c r="AW110" s="3"/>
+      <c r="AX110" s="3"/>
+      <c r="AY110" s="3"/>
+      <c r="AZ110" s="3"/>
+      <c r="BA110" s="3"/>
+      <c r="BB110" s="3"/>
+      <c r="BC110" s="3"/>
+      <c r="BD110" s="3"/>
+      <c r="BE110" s="3"/>
+      <c r="BF110" s="3"/>
+      <c r="BG110" s="3"/>
+      <c r="BH110" s="3"/>
+      <c r="BI110" s="3"/>
+      <c r="BJ110" s="3"/>
+      <c r="BK110" s="3"/>
+      <c r="BL110" s="3"/>
+      <c r="BM110" s="3"/>
+      <c r="BN110" s="3"/>
+      <c r="BO110" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-098</v>
+      </c>
+      <c r="BP110" s="3"/>
+      <c r="BQ110" s="3"/>
+      <c r="BR110" s="4"/>
       <c r="BS110" s="14"/>
       <c r="BT110" s="16"/>
     </row>
     <row r="111" spans="2:72">
-      <c r="R111" s="14"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="16"/>
-      <c r="BO111" s="14"/>
-      <c r="BP111" s="15"/>
-      <c r="BQ111" s="15"/>
-      <c r="BR111" s="16"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="28"/>
+      <c r="R111" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="S111" s="32"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
+      <c r="AE111" s="32"/>
+      <c r="AF111" s="32"/>
+      <c r="AG111" s="32"/>
+      <c r="AH111" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI111" s="32"/>
+      <c r="AJ111" s="32"/>
+      <c r="AK111" s="32"/>
+      <c r="AL111" s="32"/>
+      <c r="AM111" s="32"/>
+      <c r="AN111" s="32"/>
+      <c r="AO111" s="32"/>
+      <c r="AP111" s="32"/>
+      <c r="AQ111" s="32"/>
+      <c r="AR111" s="32"/>
+      <c r="AS111" s="32"/>
+      <c r="AT111" s="32"/>
+      <c r="AU111" s="32"/>
+      <c r="AV111" s="32"/>
+      <c r="AW111" s="32"/>
+      <c r="AX111" s="32"/>
+      <c r="AY111" s="32"/>
+      <c r="AZ111" s="32"/>
+      <c r="BA111" s="32"/>
+      <c r="BB111" s="32"/>
+      <c r="BC111" s="32"/>
+      <c r="BD111" s="32"/>
+      <c r="BE111" s="32"/>
+      <c r="BF111" s="32"/>
+      <c r="BG111" s="32"/>
+      <c r="BH111" s="32"/>
+      <c r="BI111" s="32"/>
+      <c r="BJ111" s="32"/>
+      <c r="BK111" s="32"/>
+      <c r="BL111" s="32"/>
+      <c r="BM111" s="32"/>
+      <c r="BN111" s="32"/>
+      <c r="BO111" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-099</v>
+      </c>
+      <c r="BP111" s="32"/>
+      <c r="BQ111" s="32"/>
+      <c r="BR111" s="33"/>
+      <c r="BS111" s="14"/>
+      <c r="BT111" s="16"/>
     </row>
     <row r="112" spans="2:72">
-      <c r="R112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="E112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R112" s="14" t="s">
+        <v>412</v>
+      </c>
       <c r="S112" s="15"/>
       <c r="T112" s="16"/>
-      <c r="BO112" s="14"/>
+      <c r="U112" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH112" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO112" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-100</v>
+      </c>
       <c r="BP112" s="15"/>
       <c r="BQ112" s="15"/>
       <c r="BR112" s="16"/>
-    </row>
-    <row r="113" spans="18:70">
-      <c r="R113" s="14"/>
+      <c r="BS112" s="14"/>
+      <c r="BT112" s="16"/>
+    </row>
+    <row r="113" spans="2:73">
+      <c r="B113" s="14"/>
+      <c r="E113" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R113" s="14" t="s">
+        <v>414</v>
+      </c>
       <c r="S113" s="15"/>
       <c r="T113" s="16"/>
-      <c r="BO113" s="14"/>
+      <c r="AH113" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO113" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-101</v>
+      </c>
       <c r="BP113" s="15"/>
       <c r="BQ113" s="15"/>
       <c r="BR113" s="16"/>
-    </row>
-    <row r="114" spans="18:70">
-      <c r="R114" s="14"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="16"/>
-      <c r="BO114" s="14"/>
-      <c r="BP114" s="15"/>
-      <c r="BQ114" s="15"/>
-      <c r="BR114" s="16"/>
-    </row>
-    <row r="115" spans="18:70">
-      <c r="R115" s="14"/>
+      <c r="BS113" s="14"/>
+      <c r="BT113" s="16"/>
+    </row>
+    <row r="114" spans="2:73">
+      <c r="B114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R114" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="S114" s="27"/>
+      <c r="T114" s="28"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="27"/>
+      <c r="AH114" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI114" s="27"/>
+      <c r="AJ114" s="27"/>
+      <c r="AK114" s="27"/>
+      <c r="AL114" s="27"/>
+      <c r="AM114" s="27"/>
+      <c r="AN114" s="27"/>
+      <c r="AO114" s="27"/>
+      <c r="AP114" s="27"/>
+      <c r="AQ114" s="27"/>
+      <c r="AR114" s="27"/>
+      <c r="AS114" s="27"/>
+      <c r="AT114" s="27"/>
+      <c r="AU114" s="27"/>
+      <c r="AV114" s="27"/>
+      <c r="AW114" s="27"/>
+      <c r="AX114" s="27"/>
+      <c r="AY114" s="27"/>
+      <c r="AZ114" s="27"/>
+      <c r="BA114" s="27"/>
+      <c r="BB114" s="27"/>
+      <c r="BC114" s="27"/>
+      <c r="BD114" s="27"/>
+      <c r="BE114" s="27"/>
+      <c r="BF114" s="27"/>
+      <c r="BG114" s="27"/>
+      <c r="BH114" s="27"/>
+      <c r="BI114" s="27"/>
+      <c r="BJ114" s="27"/>
+      <c r="BK114" s="27"/>
+      <c r="BL114" s="27"/>
+      <c r="BM114" s="27"/>
+      <c r="BN114" s="27"/>
+      <c r="BO114" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-102</v>
+      </c>
+      <c r="BP114" s="27"/>
+      <c r="BQ114" s="27"/>
+      <c r="BR114" s="28"/>
+      <c r="BS114" s="14"/>
+      <c r="BT114" s="16"/>
+    </row>
+    <row r="115" spans="2:73">
+      <c r="B115" s="14"/>
+      <c r="E115" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="R115" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="S115" s="15"/>
       <c r="T115" s="16"/>
-      <c r="BO115" s="14"/>
+      <c r="U115" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="V115" s="15"/>
+      <c r="AH115" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="BO115" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-103</v>
+      </c>
       <c r="BP115" s="15"/>
       <c r="BQ115" s="15"/>
       <c r="BR115" s="16"/>
-    </row>
-    <row r="116" spans="18:70">
-      <c r="R116" s="14"/>
+      <c r="BS115" s="14"/>
+      <c r="BT115" s="16"/>
+    </row>
+    <row r="116" spans="2:73">
+      <c r="B116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="R116" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="S116" s="15"/>
       <c r="T116" s="16"/>
-      <c r="BO116" s="14"/>
+      <c r="U116" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="V116" s="15"/>
+      <c r="AH116" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BO116" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-104</v>
+      </c>
       <c r="BP116" s="15"/>
       <c r="BQ116" s="15"/>
       <c r="BR116" s="16"/>
-    </row>
-    <row r="117" spans="18:70">
-      <c r="R117" s="14"/>
+      <c r="BS116" s="14"/>
+      <c r="BT116" s="16"/>
+    </row>
+    <row r="117" spans="2:73">
+      <c r="B117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="R117" s="14" t="s">
+        <v>442</v>
+      </c>
       <c r="S117" s="15"/>
       <c r="T117" s="16"/>
-      <c r="BO117" s="14"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="15"/>
+      <c r="AH117" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="BO117" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-105</v>
+      </c>
       <c r="BP117" s="15"/>
       <c r="BQ117" s="15"/>
       <c r="BR117" s="16"/>
-    </row>
-    <row r="118" spans="18:70">
-      <c r="R118" s="14"/>
+      <c r="BS117" s="15"/>
+      <c r="BT117" s="15"/>
+      <c r="BU117" s="14"/>
+    </row>
+    <row r="118" spans="2:73">
+      <c r="B118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="R118" s="14" t="s">
+        <v>443</v>
+      </c>
       <c r="S118" s="15"/>
       <c r="T118" s="16"/>
-      <c r="BO118" s="14"/>
+      <c r="U118" s="15"/>
+      <c r="V118" s="15"/>
+      <c r="AH118" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO118" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-106</v>
+      </c>
       <c r="BP118" s="15"/>
       <c r="BQ118" s="15"/>
       <c r="BR118" s="16"/>
-    </row>
-    <row r="119" spans="18:70">
-      <c r="R119" s="14"/>
+      <c r="BS118" s="15"/>
+      <c r="BT118" s="15"/>
+      <c r="BU118" s="14"/>
+    </row>
+    <row r="119" spans="2:73">
+      <c r="B119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="R119" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="S119" s="15"/>
       <c r="T119" s="16"/>
-      <c r="BO119" s="14"/>
+      <c r="U119" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="V119" s="15"/>
+      <c r="AH119" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="BO119" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-107</v>
+      </c>
       <c r="BP119" s="15"/>
       <c r="BQ119" s="15"/>
       <c r="BR119" s="16"/>
-    </row>
-    <row r="120" spans="18:70">
-      <c r="R120" s="14"/>
+      <c r="BU119" s="14"/>
+    </row>
+    <row r="120" spans="2:73">
+      <c r="B120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="R120" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="S120" s="15"/>
       <c r="T120" s="16"/>
-      <c r="BO120" s="14"/>
+      <c r="U120" s="15"/>
+      <c r="V120" s="15"/>
+      <c r="AH120" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO120" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-108</v>
+      </c>
       <c r="BP120" s="15"/>
       <c r="BQ120" s="15"/>
       <c r="BR120" s="16"/>
-    </row>
-    <row r="121" spans="18:70">
-      <c r="R121" s="14"/>
+      <c r="BU120" s="14"/>
+    </row>
+    <row r="121" spans="2:73">
+      <c r="B121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="R121" s="14" t="s">
+        <v>446</v>
+      </c>
       <c r="S121" s="15"/>
       <c r="T121" s="16"/>
-      <c r="BO121" s="14"/>
+      <c r="U121" s="15"/>
+      <c r="V121" s="15"/>
+      <c r="AH121" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO121" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-109</v>
+      </c>
       <c r="BP121" s="15"/>
       <c r="BQ121" s="15"/>
       <c r="BR121" s="16"/>
-    </row>
-    <row r="122" spans="18:70">
-      <c r="R122" s="14"/>
+      <c r="BU121" s="14"/>
+    </row>
+    <row r="122" spans="2:73">
+      <c r="B122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="R122" s="14" t="s">
+        <v>447</v>
+      </c>
       <c r="S122" s="15"/>
       <c r="T122" s="16"/>
-      <c r="BO122" s="14"/>
+      <c r="U122" s="15"/>
+      <c r="V122" s="15"/>
+      <c r="AH122" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO122" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-110</v>
+      </c>
       <c r="BP122" s="15"/>
       <c r="BQ122" s="15"/>
       <c r="BR122" s="16"/>
-    </row>
-    <row r="123" spans="18:70">
-      <c r="R123" s="14"/>
+      <c r="BU122" s="14"/>
+    </row>
+    <row r="123" spans="2:73">
+      <c r="B123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="R123" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="S123" s="15"/>
       <c r="T123" s="16"/>
-      <c r="BO123" s="14"/>
+      <c r="U123" s="15"/>
+      <c r="V123" s="15"/>
+      <c r="AH123" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="BO123" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-111</v>
+      </c>
       <c r="BP123" s="15"/>
       <c r="BQ123" s="15"/>
       <c r="BR123" s="16"/>
-    </row>
-    <row r="124" spans="18:70">
-      <c r="R124" s="14"/>
+      <c r="BU123" s="14"/>
+    </row>
+    <row r="124" spans="2:73">
+      <c r="B124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="R124" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="S124" s="15"/>
       <c r="T124" s="16"/>
-      <c r="BO124" s="14"/>
+      <c r="U124" s="15"/>
+      <c r="V124" s="15"/>
+      <c r="AH124" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO124" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-112</v>
+      </c>
       <c r="BP124" s="15"/>
       <c r="BQ124" s="15"/>
       <c r="BR124" s="16"/>
-    </row>
-    <row r="125" spans="18:70">
-      <c r="BO125" s="14"/>
+      <c r="BU124" s="14"/>
+    </row>
+    <row r="125" spans="2:73">
+      <c r="B125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="R125" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="S125" s="15"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="15"/>
+      <c r="V125" s="15"/>
+      <c r="AH125" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO125" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-113</v>
+      </c>
       <c r="BP125" s="15"/>
       <c r="BQ125" s="15"/>
       <c r="BR125" s="16"/>
-    </row>
-    <row r="126" spans="18:70">
-      <c r="BO126" s="14"/>
+      <c r="BU125" s="14"/>
+    </row>
+    <row r="126" spans="2:73">
+      <c r="B126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="R126" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="S126" s="15"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="V126" s="15"/>
+      <c r="AH126" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="BO126" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-114</v>
+      </c>
       <c r="BP126" s="15"/>
       <c r="BQ126" s="15"/>
       <c r="BR126" s="16"/>
-    </row>
-    <row r="127" spans="18:70">
-      <c r="BO127" s="14"/>
+      <c r="BU126" s="14"/>
+    </row>
+    <row r="127" spans="2:73">
+      <c r="B127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="R127" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="S127" s="15"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="AH127" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="BO127" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-115</v>
+      </c>
       <c r="BP127" s="15"/>
       <c r="BQ127" s="15"/>
       <c r="BR127" s="16"/>
-    </row>
-    <row r="128" spans="18:70">
-      <c r="BO128" s="14"/>
+      <c r="BU127" s="14"/>
+    </row>
+    <row r="128" spans="2:73">
+      <c r="B128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="R128" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="S128" s="15"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="15"/>
+      <c r="AH128" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO128" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-116</v>
+      </c>
       <c r="BP128" s="15"/>
       <c r="BQ128" s="15"/>
       <c r="BR128" s="16"/>
-    </row>
-    <row r="129" spans="67:70">
-      <c r="BO129" s="14"/>
+      <c r="BU128" s="14"/>
+    </row>
+    <row r="129" spans="2:73">
+      <c r="B129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="R129" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="S129" s="15"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="AH129" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="BO129" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-117</v>
+      </c>
       <c r="BP129" s="15"/>
       <c r="BQ129" s="15"/>
       <c r="BR129" s="16"/>
-    </row>
-    <row r="130" spans="67:70">
-      <c r="BO130" s="14"/>
+      <c r="BU129" s="14"/>
+    </row>
+    <row r="130" spans="2:73">
+      <c r="B130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="R130" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="S130" s="15"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="V130" s="15"/>
+      <c r="AH130" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BO130" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-118</v>
+      </c>
       <c r="BP130" s="15"/>
       <c r="BQ130" s="15"/>
       <c r="BR130" s="16"/>
+      <c r="BU130" s="14"/>
+    </row>
+    <row r="131" spans="2:73">
+      <c r="B131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="R131" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="S131" s="15"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="V131" s="15"/>
+      <c r="AH131" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO131" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-119</v>
+      </c>
+      <c r="BP131" s="15"/>
+      <c r="BQ131" s="15"/>
+      <c r="BR131" s="16"/>
+      <c r="BU131" s="14"/>
+    </row>
+    <row r="132" spans="2:73">
+      <c r="B132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="R132" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="S132" s="15"/>
+      <c r="T132" s="16"/>
+      <c r="U132" s="15"/>
+      <c r="V132" s="15"/>
+      <c r="AH132" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO132" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-120</v>
+      </c>
+      <c r="BP132" s="15"/>
+      <c r="BQ132" s="15"/>
+      <c r="BR132" s="16"/>
+      <c r="BU132" s="14"/>
+    </row>
+    <row r="133" spans="2:73">
+      <c r="B133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="R133" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="S133" s="15"/>
+      <c r="T133" s="16"/>
+      <c r="U133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="AH133" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO133" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-121</v>
+      </c>
+      <c r="BP133" s="15"/>
+      <c r="BQ133" s="15"/>
+      <c r="BR133" s="16"/>
+      <c r="BU133" s="14"/>
+    </row>
+    <row r="134" spans="2:73">
+      <c r="B134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="R134" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="S134" s="15"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="V134" s="15"/>
+      <c r="AH134" s="14"/>
+      <c r="BO134" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-122</v>
+      </c>
+      <c r="BP134" s="15"/>
+      <c r="BQ134" s="15"/>
+      <c r="BR134" s="16"/>
+      <c r="BU134" s="14"/>
+    </row>
+    <row r="135" spans="2:73">
+      <c r="B135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="R135" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="S135" s="3"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+      <c r="AC135" s="3"/>
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+      <c r="AF135" s="3"/>
+      <c r="AG135" s="3"/>
+      <c r="AH135" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI135" s="3"/>
+      <c r="AJ135" s="3"/>
+      <c r="AK135" s="3"/>
+      <c r="AL135" s="3"/>
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3"/>
+      <c r="AP135" s="3"/>
+      <c r="AQ135" s="3"/>
+      <c r="AR135" s="3"/>
+      <c r="AS135" s="3"/>
+      <c r="AT135" s="3"/>
+      <c r="AU135" s="3"/>
+      <c r="AV135" s="3"/>
+      <c r="AW135" s="3"/>
+      <c r="AX135" s="3"/>
+      <c r="AY135" s="3"/>
+      <c r="AZ135" s="3"/>
+      <c r="BA135" s="3"/>
+      <c r="BB135" s="3"/>
+      <c r="BC135" s="3"/>
+      <c r="BD135" s="3"/>
+      <c r="BE135" s="3"/>
+      <c r="BF135" s="3"/>
+      <c r="BG135" s="3"/>
+      <c r="BH135" s="3"/>
+      <c r="BI135" s="3"/>
+      <c r="BJ135" s="3"/>
+      <c r="BK135" s="3"/>
+      <c r="BL135" s="3"/>
+      <c r="BM135" s="3"/>
+      <c r="BN135" s="3"/>
+      <c r="BO135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-123</v>
+      </c>
+      <c r="BP135" s="3"/>
+      <c r="BQ135" s="3"/>
+      <c r="BR135" s="4"/>
+      <c r="BU135" s="14"/>
+    </row>
+    <row r="136" spans="2:73">
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+      <c r="Q136" s="28"/>
+      <c r="R136" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="S136" s="32"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V136" s="32"/>
+      <c r="W136" s="32"/>
+      <c r="X136" s="32"/>
+      <c r="Y136" s="32"/>
+      <c r="Z136" s="32"/>
+      <c r="AA136" s="32"/>
+      <c r="AB136" s="32"/>
+      <c r="AC136" s="32"/>
+      <c r="AD136" s="32"/>
+      <c r="AE136" s="32"/>
+      <c r="AF136" s="32"/>
+      <c r="AG136" s="32"/>
+      <c r="AH136" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI136" s="32"/>
+      <c r="AJ136" s="32"/>
+      <c r="AK136" s="32"/>
+      <c r="AL136" s="32"/>
+      <c r="AM136" s="32"/>
+      <c r="AN136" s="32"/>
+      <c r="AO136" s="32"/>
+      <c r="AP136" s="32"/>
+      <c r="AQ136" s="32"/>
+      <c r="AR136" s="32"/>
+      <c r="AS136" s="32"/>
+      <c r="AT136" s="32"/>
+      <c r="AU136" s="32"/>
+      <c r="AV136" s="32"/>
+      <c r="AW136" s="32"/>
+      <c r="AX136" s="32"/>
+      <c r="AY136" s="32"/>
+      <c r="AZ136" s="32"/>
+      <c r="BA136" s="32"/>
+      <c r="BB136" s="32"/>
+      <c r="BC136" s="32"/>
+      <c r="BD136" s="32"/>
+      <c r="BE136" s="32"/>
+      <c r="BF136" s="32"/>
+      <c r="BG136" s="32"/>
+      <c r="BH136" s="32"/>
+      <c r="BI136" s="32"/>
+      <c r="BJ136" s="32"/>
+      <c r="BK136" s="32"/>
+      <c r="BL136" s="32"/>
+      <c r="BM136" s="32"/>
+      <c r="BN136" s="32"/>
+      <c r="BO136" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-124</v>
+      </c>
+      <c r="BP136" s="32"/>
+      <c r="BQ136" s="32"/>
+      <c r="BR136" s="33"/>
+      <c r="BU136" s="14"/>
+    </row>
+    <row r="137" spans="2:73">
+      <c r="B137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="16"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="AH137" s="14"/>
+      <c r="BO137" s="14"/>
+      <c r="BP137" s="15"/>
+      <c r="BQ137" s="15"/>
+      <c r="BR137" s="16"/>
+      <c r="BU137" s="14"/>
+    </row>
+    <row r="138" spans="2:73">
+      <c r="E138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="16"/>
+      <c r="AH138" s="14"/>
+      <c r="BO138" s="14"/>
+      <c r="BP138" s="15"/>
+      <c r="BQ138" s="15"/>
+      <c r="BR138" s="16"/>
+    </row>
+    <row r="139" spans="2:73">
+      <c r="R139" s="14"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="16"/>
+      <c r="AH139" s="14"/>
+      <c r="BO139" s="14"/>
+      <c r="BP139" s="15"/>
+      <c r="BQ139" s="15"/>
+      <c r="BR139" s="16"/>
+    </row>
+    <row r="140" spans="2:73">
+      <c r="R140" s="14"/>
+      <c r="S140" s="15"/>
+      <c r="T140" s="16"/>
+      <c r="AH140" s="14"/>
+      <c r="BO140" s="14"/>
+      <c r="BP140" s="15"/>
+      <c r="BQ140" s="15"/>
+      <c r="BR140" s="16"/>
+    </row>
+    <row r="141" spans="2:73">
+      <c r="R141" s="14"/>
+      <c r="S141" s="15"/>
+      <c r="T141" s="16"/>
+      <c r="AH141" s="14"/>
+      <c r="BO141" s="14"/>
+      <c r="BP141" s="15"/>
+      <c r="BQ141" s="15"/>
+      <c r="BR141" s="16"/>
+    </row>
+    <row r="142" spans="2:73">
+      <c r="R142" s="14"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="16"/>
+      <c r="AH142" s="14"/>
+      <c r="BO142" s="14"/>
+      <c r="BP142" s="15"/>
+      <c r="BQ142" s="15"/>
+      <c r="BR142" s="16"/>
+    </row>
+    <row r="143" spans="2:73">
+      <c r="R143" s="14"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="16"/>
+      <c r="AH143" s="14"/>
+      <c r="BO143" s="14"/>
+      <c r="BP143" s="15"/>
+      <c r="BQ143" s="15"/>
+      <c r="BR143" s="16"/>
+    </row>
+    <row r="144" spans="2:73">
+      <c r="BO144" s="14"/>
+      <c r="BP144" s="15"/>
+      <c r="BQ144" s="15"/>
+      <c r="BR144" s="16"/>
+    </row>
+    <row r="145" spans="67:70">
+      <c r="BO145" s="14"/>
+      <c r="BP145" s="15"/>
+      <c r="BQ145" s="15"/>
+      <c r="BR145" s="16"/>
+    </row>
+    <row r="146" spans="67:70">
+      <c r="BO146" s="14"/>
+      <c r="BP146" s="15"/>
+      <c r="BQ146" s="15"/>
+      <c r="BR146" s="16"/>
+    </row>
+    <row r="147" spans="67:70">
+      <c r="BO147" s="14"/>
+      <c r="BP147" s="15"/>
+      <c r="BQ147" s="15"/>
+      <c r="BR147" s="16"/>
+    </row>
+    <row r="148" spans="67:70">
+      <c r="BO148" s="14"/>
+      <c r="BP148" s="15"/>
+      <c r="BQ148" s="15"/>
+      <c r="BR148" s="16"/>
+    </row>
+    <row r="149" spans="67:70">
+      <c r="BO149" s="14"/>
+      <c r="BP149" s="15"/>
+      <c r="BQ149" s="15"/>
+      <c r="BR149" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17861,7 +20803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -17901,4 +20843,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="467">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -4205,15 +4205,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>車室変更追加の内容を反映されること。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4341,103 +4333,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>098</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>099</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>122</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>124</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4474,6 +4370,118 @@
       </rPr>
       <t>契約詳細画面で车車情报を反映されました。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>099</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>126</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4823,7 +4831,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4835,7 +4843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4878,7 +4886,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4890,7 +4898,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4933,7 +4941,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4945,7 +4953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4982,7 +4990,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4994,7 +5002,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5036,7 +5044,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +5056,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5085,7 +5093,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5105,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14422,8 +14430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ128" sqref="AQ128"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -18406,7 +18414,7 @@
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BO73" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19022,7 +19030,7 @@
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
       <c r="AH85" s="38" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="BO85" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19138,7 +19146,7 @@
       <c r="S88" s="15"/>
       <c r="T88" s="16"/>
       <c r="U88" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
@@ -19263,7 +19271,7 @@
       <c r="AF93" s="15"/>
       <c r="AG93" s="16"/>
       <c r="AH93" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BO93" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19285,7 +19293,7 @@
       <c r="S94" s="15"/>
       <c r="T94" s="15"/>
       <c r="U94" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V94" s="15"/>
       <c r="W94" s="15"/>
@@ -19354,7 +19362,7 @@
       <c r="S95" s="15"/>
       <c r="T95" s="16"/>
       <c r="U95" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AF95" s="15"/>
       <c r="AG95" s="16"/>
@@ -19401,14 +19409,14 @@
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
       <c r="R97" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="16"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="16"/>
       <c r="AH97" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BO97" s="26" t="str">
         <f t="shared" si="1"/>
@@ -19495,7 +19503,7 @@
       <c r="S99" s="15"/>
       <c r="T99" s="16"/>
       <c r="U99" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF99" s="15"/>
       <c r="AG99" s="16"/>
@@ -19522,7 +19530,7 @@
       <c r="S100" s="15"/>
       <c r="T100" s="16"/>
       <c r="U100" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF100" s="15"/>
       <c r="AG100" s="16"/>
@@ -19577,7 +19585,7 @@
       <c r="AF102" s="15"/>
       <c r="AG102" s="16"/>
       <c r="AH102" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BO102" s="26" t="str">
         <f t="shared" si="2"/>
@@ -19664,7 +19672,7 @@
       <c r="S104" s="15"/>
       <c r="T104" s="16"/>
       <c r="U104" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF104" s="15"/>
       <c r="AG104" s="16"/>
@@ -19691,7 +19699,7 @@
       <c r="S105" s="15"/>
       <c r="T105" s="16"/>
       <c r="U105" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AF105" s="15"/>
       <c r="AG105" s="16"/>
@@ -19714,7 +19722,7 @@
       <c r="S106" s="15"/>
       <c r="T106" s="16"/>
       <c r="U106" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF106" s="15"/>
       <c r="AG106" s="16"/>
@@ -19737,7 +19745,7 @@
       <c r="S107" s="15"/>
       <c r="T107" s="16"/>
       <c r="U107" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AH107" s="14" t="s">
         <v>381</v>
@@ -19755,14 +19763,19 @@
     <row r="108" spans="2:72">
       <c r="B108" s="14"/>
       <c r="E108" s="14"/>
-      <c r="R108" s="14"/>
+      <c r="R108" s="14" t="s">
+        <v>439</v>
+      </c>
       <c r="S108" s="15"/>
       <c r="T108" s="16"/>
       <c r="U108" s="15"/>
       <c r="AH108" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="BO108" s="14"/>
+      <c r="BO108" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>003-001-098</v>
+      </c>
       <c r="BP108" s="15"/>
       <c r="BQ108" s="15"/>
       <c r="BR108" s="16"/>
@@ -19772,16 +19785,18 @@
     <row r="109" spans="2:72">
       <c r="B109" s="14"/>
       <c r="E109" s="14"/>
-      <c r="R109" s="14"/>
+      <c r="R109" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="S109" s="15"/>
       <c r="T109" s="16"/>
       <c r="U109" s="15"/>
       <c r="AH109" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BO109" s="26" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>003-001-099</v>
       </c>
       <c r="BP109" s="15"/>
       <c r="BQ109" s="15"/>
@@ -19793,7 +19808,7 @@
       <c r="B110" s="14"/>
       <c r="E110" s="14"/>
       <c r="R110" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="4"/>
@@ -19813,7 +19828,7 @@
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
       <c r="AH110" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
@@ -19849,7 +19864,7 @@
       <c r="BN110" s="3"/>
       <c r="BO110" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-098</v>
+        <v>003-001-100</v>
       </c>
       <c r="BP110" s="3"/>
       <c r="BQ110" s="3"/>
@@ -19875,7 +19890,7 @@
       <c r="P111" s="27"/>
       <c r="Q111" s="28"/>
       <c r="R111" s="31" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="S111" s="32"/>
       <c r="T111" s="33"/>
@@ -19931,7 +19946,7 @@
       <c r="BN111" s="32"/>
       <c r="BO111" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-099</v>
+        <v>003-001-101</v>
       </c>
       <c r="BP111" s="32"/>
       <c r="BQ111" s="32"/>
@@ -19945,7 +19960,7 @@
         <v>18</v>
       </c>
       <c r="R112" s="14" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="S112" s="15"/>
       <c r="T112" s="16"/>
@@ -19957,7 +19972,7 @@
       </c>
       <c r="BO112" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-100</v>
+        <v>003-001-102</v>
       </c>
       <c r="BP112" s="15"/>
       <c r="BQ112" s="15"/>
@@ -19971,7 +19986,7 @@
         <v>79</v>
       </c>
       <c r="R113" s="14" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="S113" s="15"/>
       <c r="T113" s="16"/>
@@ -19980,7 +19995,7 @@
       </c>
       <c r="BO113" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-101</v>
+        <v>003-001-103</v>
       </c>
       <c r="BP113" s="15"/>
       <c r="BQ113" s="15"/>
@@ -19994,7 +20009,7 @@
         <v>17</v>
       </c>
       <c r="R114" s="26" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="S114" s="27"/>
       <c r="T114" s="28"/>
@@ -20048,7 +20063,7 @@
       <c r="BN114" s="27"/>
       <c r="BO114" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-102</v>
+        <v>003-001-104</v>
       </c>
       <c r="BP114" s="27"/>
       <c r="BQ114" s="27"/>
@@ -20062,7 +20077,7 @@
         <v>400</v>
       </c>
       <c r="R115" s="14" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="S115" s="15"/>
       <c r="T115" s="16"/>
@@ -20071,11 +20086,11 @@
       </c>
       <c r="V115" s="15"/>
       <c r="AH115" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BO115" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-103</v>
+        <v>003-001-105</v>
       </c>
       <c r="BP115" s="15"/>
       <c r="BQ115" s="15"/>
@@ -20087,12 +20102,12 @@
       <c r="B116" s="14"/>
       <c r="E116" s="14"/>
       <c r="R116" s="14" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="S116" s="15"/>
       <c r="T116" s="16"/>
       <c r="U116" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V116" s="15"/>
       <c r="AH116" s="14" t="s">
@@ -20100,7 +20115,7 @@
       </c>
       <c r="BO116" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-104</v>
+        <v>003-001-106</v>
       </c>
       <c r="BP116" s="15"/>
       <c r="BQ116" s="15"/>
@@ -20112,7 +20127,7 @@
       <c r="B117" s="14"/>
       <c r="E117" s="14"/>
       <c r="R117" s="14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="S117" s="15"/>
       <c r="T117" s="16"/>
@@ -20123,7 +20138,7 @@
       </c>
       <c r="BO117" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-105</v>
+        <v>003-001-107</v>
       </c>
       <c r="BP117" s="15"/>
       <c r="BQ117" s="15"/>
@@ -20136,7 +20151,7 @@
       <c r="B118" s="14"/>
       <c r="E118" s="14"/>
       <c r="R118" s="14" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="S118" s="15"/>
       <c r="T118" s="16"/>
@@ -20147,7 +20162,7 @@
       </c>
       <c r="BO118" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-106</v>
+        <v>003-001-108</v>
       </c>
       <c r="BP118" s="15"/>
       <c r="BQ118" s="15"/>
@@ -20160,7 +20175,7 @@
       <c r="B119" s="14"/>
       <c r="E119" s="14"/>
       <c r="R119" s="14" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S119" s="15"/>
       <c r="T119" s="16"/>
@@ -20169,11 +20184,11 @@
       </c>
       <c r="V119" s="15"/>
       <c r="AH119" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BO119" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-107</v>
+        <v>003-001-109</v>
       </c>
       <c r="BP119" s="15"/>
       <c r="BQ119" s="15"/>
@@ -20184,7 +20199,7 @@
       <c r="B120" s="14"/>
       <c r="E120" s="14"/>
       <c r="R120" s="14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="S120" s="15"/>
       <c r="T120" s="16"/>
@@ -20195,7 +20210,7 @@
       </c>
       <c r="BO120" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-108</v>
+        <v>003-001-110</v>
       </c>
       <c r="BP120" s="15"/>
       <c r="BQ120" s="15"/>
@@ -20206,18 +20221,18 @@
       <c r="B121" s="14"/>
       <c r="E121" s="14"/>
       <c r="R121" s="14" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="S121" s="15"/>
       <c r="T121" s="16"/>
       <c r="U121" s="15"/>
       <c r="V121" s="15"/>
       <c r="AH121" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BO121" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-109</v>
+        <v>003-001-111</v>
       </c>
       <c r="BP121" s="15"/>
       <c r="BQ121" s="15"/>
@@ -20228,18 +20243,18 @@
       <c r="B122" s="14"/>
       <c r="E122" s="14"/>
       <c r="R122" s="14" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="S122" s="15"/>
       <c r="T122" s="16"/>
       <c r="U122" s="15"/>
       <c r="V122" s="15"/>
       <c r="AH122" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BO122" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-110</v>
+        <v>003-001-112</v>
       </c>
       <c r="BP122" s="15"/>
       <c r="BQ122" s="15"/>
@@ -20250,18 +20265,18 @@
       <c r="B123" s="14"/>
       <c r="E123" s="14"/>
       <c r="R123" s="14" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="S123" s="15"/>
       <c r="T123" s="16"/>
       <c r="U123" s="15"/>
       <c r="V123" s="15"/>
       <c r="AH123" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="BO123" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-111</v>
+        <v>003-001-113</v>
       </c>
       <c r="BP123" s="15"/>
       <c r="BQ123" s="15"/>
@@ -20272,18 +20287,18 @@
       <c r="B124" s="14"/>
       <c r="E124" s="14"/>
       <c r="R124" s="14" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="S124" s="15"/>
       <c r="T124" s="16"/>
       <c r="U124" s="15"/>
       <c r="V124" s="15"/>
       <c r="AH124" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BO124" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-112</v>
+        <v>003-001-114</v>
       </c>
       <c r="BP124" s="15"/>
       <c r="BQ124" s="15"/>
@@ -20294,7 +20309,7 @@
       <c r="B125" s="14"/>
       <c r="E125" s="14"/>
       <c r="R125" s="14" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="S125" s="15"/>
       <c r="T125" s="16"/>
@@ -20305,7 +20320,7 @@
       </c>
       <c r="BO125" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-113</v>
+        <v>003-001-115</v>
       </c>
       <c r="BP125" s="15"/>
       <c r="BQ125" s="15"/>
@@ -20316,7 +20331,7 @@
       <c r="B126" s="14"/>
       <c r="E126" s="14"/>
       <c r="R126" s="14" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="S126" s="15"/>
       <c r="T126" s="16"/>
@@ -20325,11 +20340,11 @@
       </c>
       <c r="V126" s="15"/>
       <c r="AH126" s="38" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BO126" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-114</v>
+        <v>003-001-116</v>
       </c>
       <c r="BP126" s="15"/>
       <c r="BQ126" s="15"/>
@@ -20340,18 +20355,18 @@
       <c r="B127" s="14"/>
       <c r="E127" s="14"/>
       <c r="R127" s="14" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="S127" s="15"/>
       <c r="T127" s="16"/>
       <c r="U127" s="15"/>
       <c r="V127" s="15"/>
       <c r="AH127" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BO127" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-115</v>
+        <v>003-001-117</v>
       </c>
       <c r="BP127" s="15"/>
       <c r="BQ127" s="15"/>
@@ -20362,7 +20377,7 @@
       <c r="B128" s="14"/>
       <c r="E128" s="14"/>
       <c r="R128" s="14" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="S128" s="15"/>
       <c r="T128" s="16"/>
@@ -20373,7 +20388,7 @@
       </c>
       <c r="BO128" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-116</v>
+        <v>003-001-118</v>
       </c>
       <c r="BP128" s="15"/>
       <c r="BQ128" s="15"/>
@@ -20384,18 +20399,18 @@
       <c r="B129" s="14"/>
       <c r="E129" s="14"/>
       <c r="R129" s="14" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="S129" s="15"/>
       <c r="T129" s="16"/>
       <c r="U129" s="15"/>
       <c r="V129" s="15"/>
       <c r="AH129" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BO129" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-117</v>
+        <v>003-001-119</v>
       </c>
       <c r="BP129" s="15"/>
       <c r="BQ129" s="15"/>
@@ -20406,7 +20421,7 @@
       <c r="B130" s="14"/>
       <c r="E130" s="14"/>
       <c r="R130" s="14" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="S130" s="15"/>
       <c r="T130" s="16"/>
@@ -20419,7 +20434,7 @@
       </c>
       <c r="BO130" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-118</v>
+        <v>003-001-120</v>
       </c>
       <c r="BP130" s="15"/>
       <c r="BQ130" s="15"/>
@@ -20430,7 +20445,7 @@
       <c r="B131" s="14"/>
       <c r="E131" s="14"/>
       <c r="R131" s="14" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="S131" s="15"/>
       <c r="T131" s="16"/>
@@ -20443,7 +20458,7 @@
       </c>
       <c r="BO131" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-119</v>
+        <v>003-001-121</v>
       </c>
       <c r="BP131" s="15"/>
       <c r="BQ131" s="15"/>
@@ -20454,7 +20469,7 @@
       <c r="B132" s="14"/>
       <c r="E132" s="14"/>
       <c r="R132" s="14" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="S132" s="15"/>
       <c r="T132" s="16"/>
@@ -20465,7 +20480,7 @@
       </c>
       <c r="BO132" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-120</v>
+        <v>003-001-122</v>
       </c>
       <c r="BP132" s="15"/>
       <c r="BQ132" s="15"/>
@@ -20476,7 +20491,7 @@
       <c r="B133" s="14"/>
       <c r="E133" s="14"/>
       <c r="R133" s="14" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S133" s="15"/>
       <c r="T133" s="16"/>
@@ -20487,7 +20502,7 @@
       </c>
       <c r="BO133" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-121</v>
+        <v>003-001-123</v>
       </c>
       <c r="BP133" s="15"/>
       <c r="BQ133" s="15"/>
@@ -20498,7 +20513,7 @@
       <c r="B134" s="14"/>
       <c r="E134" s="14"/>
       <c r="R134" s="14" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S134" s="15"/>
       <c r="T134" s="16"/>
@@ -20509,7 +20524,7 @@
       <c r="AH134" s="14"/>
       <c r="BO134" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-122</v>
+        <v>003-001-124</v>
       </c>
       <c r="BP134" s="15"/>
       <c r="BQ134" s="15"/>
@@ -20520,7 +20535,7 @@
       <c r="B135" s="14"/>
       <c r="E135" s="14"/>
       <c r="R135" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="S135" s="3"/>
       <c r="T135" s="4"/>
@@ -20540,7 +20555,7 @@
       <c r="AF135" s="3"/>
       <c r="AG135" s="3"/>
       <c r="AH135" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
@@ -20576,7 +20591,7 @@
       <c r="BN135" s="3"/>
       <c r="BO135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-123</v>
+        <v>003-001-125</v>
       </c>
       <c r="BP135" s="3"/>
       <c r="BQ135" s="3"/>
@@ -20601,7 +20616,7 @@
       <c r="P136" s="27"/>
       <c r="Q136" s="28"/>
       <c r="R136" s="31" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="S136" s="32"/>
       <c r="T136" s="33"/>
@@ -20657,7 +20672,7 @@
       <c r="BN136" s="32"/>
       <c r="BO136" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>003-001-124</v>
+        <v>003-001-126</v>
       </c>
       <c r="BP136" s="32"/>
       <c r="BQ136" s="32"/>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="469">
   <si>
     <t>物件管理</t>
     <rPh sb="0" eb="2">
@@ -3419,10 +3419,6 @@
   </si>
   <si>
     <t>進捗情報⑧スケジュール（期日･費用）の設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4177,10 +4173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>可以选择変更後車室番号，与当前车室番号相同的车室不能选择</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">進捗情報①車室変更情報確認 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4482,6 +4474,31 @@
   </si>
   <si>
     <t>126</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵類･操作説明書･配置図･保管場所使用承諾証明書送付メールを送信できること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金金額、消費税、入金状況、入金日を反映されること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更可能の項目を変更できること。消費税を自動反映されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウショルイソウフサキジドウハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後の車室番号が選択できます。しかし、現在の車室と同じ番号の車室が選択できない。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4831,7 +4848,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541EA01-6FAB-48A4-A7B7-7B82327644E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4860,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4886,7 +4903,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E2872-674B-4C30-9DBA-BFEFBCA09095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4898,7 +4915,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4941,7 +4958,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E36B1A-877D-4AEF-B86B-A90F84B8864F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4953,7 +4970,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4990,7 +5007,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCE2CA-F9AF-49FA-B913-4029A4E1B2DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5002,7 +5019,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5044,7 +5061,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308EBF97-DA72-41C3-828D-64A4396BEE2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,7 +5073,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5093,7 +5110,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D538F92-0C60-4B3C-A99E-ED208ECC5A11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5122,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14430,8 +14447,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL116" sqref="AL116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -14675,7 +14692,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="1" t="s">
@@ -17935,7 +17952,7 @@
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="R59" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="16"/>
@@ -18121,7 +18138,7 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="4"/>
       <c r="AH64" s="2" t="s">
-        <v>324</v>
+        <v>466</v>
       </c>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
@@ -18170,14 +18187,14 @@
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
       <c r="R65" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="16"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="16"/>
       <c r="AH65" s="14" t="s">
-        <v>360</v>
+        <v>467</v>
       </c>
       <c r="BO65" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18194,7 +18211,7 @@
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
       <c r="R66" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="16"/>
@@ -18218,12 +18235,12 @@
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="R67" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S67" s="3"/>
       <c r="T67" s="4"/>
       <c r="U67" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
@@ -18238,7 +18255,7 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="4"/>
       <c r="AH67" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
@@ -18287,14 +18304,14 @@
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="R68" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S68" s="15"/>
       <c r="T68" s="16"/>
       <c r="AF68" s="15"/>
       <c r="AG68" s="15"/>
       <c r="AH68" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BO68" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18311,14 +18328,14 @@
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="R69" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="16"/>
       <c r="AF69" s="15"/>
       <c r="AG69" s="16"/>
       <c r="AH69" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BO69" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18335,14 +18352,14 @@
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="R70" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="16"/>
       <c r="AF70" s="15"/>
       <c r="AG70" s="16"/>
       <c r="AH70" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BO70" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18359,14 +18376,14 @@
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
       <c r="R71" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="16"/>
       <c r="AF71" s="15"/>
       <c r="AG71" s="16"/>
       <c r="AH71" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BO71" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18383,14 +18400,14 @@
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="R72" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="16"/>
       <c r="AF72" s="15"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BO72" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18407,14 +18424,14 @@
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
       <c r="R73" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
       <c r="AF73" s="15"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="BO73" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18431,12 +18448,12 @@
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="R74" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="4"/>
       <c r="U74" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -18451,7 +18468,7 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="4"/>
       <c r="AH74" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
@@ -18500,12 +18517,12 @@
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
       <c r="R75" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S75" s="3"/>
       <c r="T75" s="4"/>
       <c r="U75" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -18520,7 +18537,7 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="4"/>
       <c r="AH75" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
@@ -18569,14 +18586,14 @@
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="R76" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="16"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="16"/>
       <c r="AH76" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BO76" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18593,12 +18610,12 @@
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
       <c r="R77" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S77" s="3"/>
       <c r="T77" s="4"/>
       <c r="U77" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
@@ -18662,12 +18679,12 @@
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="R78" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="4"/>
       <c r="U78" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -18682,7 +18699,7 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="4"/>
       <c r="AH78" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
@@ -18731,14 +18748,14 @@
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="R79" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S79" s="15"/>
       <c r="T79" s="16"/>
       <c r="AF79" s="15"/>
-      <c r="AG79" s="16"/>
+      <c r="AG79" s="15"/>
       <c r="AH79" s="14" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="BO79" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18755,14 +18772,14 @@
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="R80" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="16"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="16"/>
       <c r="AH80" s="1" t="s">
-        <v>347</v>
+        <v>465</v>
       </c>
       <c r="BO80" s="14" t="str">
         <f t="shared" si="0"/>
@@ -18779,12 +18796,12 @@
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
       <c r="R81" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S81" s="3"/>
       <c r="T81" s="4"/>
       <c r="U81" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -18799,7 +18816,7 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="4"/>
       <c r="AH81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
@@ -18848,12 +18865,12 @@
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="R82" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S82" s="32"/>
       <c r="T82" s="33"/>
       <c r="U82" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
@@ -18868,7 +18885,7 @@
       <c r="AF82" s="32"/>
       <c r="AG82" s="33"/>
       <c r="AH82" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI82" s="32"/>
       <c r="AJ82" s="32"/>
@@ -18951,12 +18968,12 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="4"/>
       <c r="U84" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -18971,7 +18988,7 @@
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
       <c r="AH84" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
@@ -19023,14 +19040,14 @@
         <v>79</v>
       </c>
       <c r="R85" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="16"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
       <c r="AH85" s="38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BO85" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19050,14 +19067,14 @@
         <v>17</v>
       </c>
       <c r="R86" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="16"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
       <c r="AH86" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BO86" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19074,15 +19091,15 @@
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
       <c r="E87" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S87" s="3"/>
       <c r="T87" s="4"/>
       <c r="U87" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -19141,17 +19158,17 @@
       <c r="C88" s="15"/>
       <c r="D88" s="16"/>
       <c r="R88" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="16"/>
       <c r="U88" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
       <c r="AH88" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BO88" s="14" t="str">
         <f t="shared" ref="BO88:BO97" si="1">IF(R88="","",$G$2&amp;"-"&amp;$B$6&amp;"-"&amp;R88)</f>
@@ -19168,7 +19185,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
       <c r="R89" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="16"/>
@@ -19192,14 +19209,14 @@
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
       <c r="R90" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S90" s="15"/>
       <c r="T90" s="16"/>
       <c r="AF90" s="15"/>
       <c r="AG90" s="16"/>
       <c r="AH90" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BO90" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19216,14 +19233,14 @@
       <c r="C91" s="15"/>
       <c r="D91" s="16"/>
       <c r="R91" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="16"/>
       <c r="AF91" s="15"/>
       <c r="AG91" s="16"/>
       <c r="AH91" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BO91" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19240,14 +19257,14 @@
       <c r="C92" s="15"/>
       <c r="D92" s="16"/>
       <c r="R92" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="16"/>
       <c r="AF92" s="15"/>
       <c r="AG92" s="16"/>
       <c r="AH92" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BO92" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19264,14 +19281,14 @@
       <c r="C93" s="15"/>
       <c r="D93" s="16"/>
       <c r="R93" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="16"/>
       <c r="AF93" s="15"/>
       <c r="AG93" s="16"/>
       <c r="AH93" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BO93" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19288,12 +19305,12 @@
       <c r="C94" s="15"/>
       <c r="D94" s="16"/>
       <c r="R94" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S94" s="15"/>
       <c r="T94" s="15"/>
       <c r="U94" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="V94" s="15"/>
       <c r="W94" s="15"/>
@@ -19308,7 +19325,7 @@
       <c r="AF94" s="15"/>
       <c r="AG94" s="15"/>
       <c r="AH94" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI94" s="15"/>
       <c r="AJ94" s="15"/>
@@ -19357,17 +19374,17 @@
       <c r="C95" s="15"/>
       <c r="D95" s="16"/>
       <c r="R95" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="16"/>
       <c r="U95" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AF95" s="15"/>
       <c r="AG95" s="16"/>
       <c r="AH95" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO95" s="14" t="str">
         <f t="shared" si="1"/>
@@ -19384,7 +19401,7 @@
       <c r="C96" s="15"/>
       <c r="D96" s="16"/>
       <c r="R96" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="16"/>
@@ -19409,14 +19426,14 @@
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
       <c r="R97" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="16"/>
       <c r="AF97" s="15"/>
       <c r="AG97" s="16"/>
       <c r="AH97" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BO97" s="26" t="str">
         <f t="shared" si="1"/>
@@ -19436,7 +19453,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="4"/>
       <c r="U98" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -19498,17 +19515,17 @@
       <c r="C99" s="15"/>
       <c r="D99" s="16"/>
       <c r="R99" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="16"/>
       <c r="U99" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF99" s="15"/>
       <c r="AG99" s="16"/>
       <c r="AH99" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO99" s="14" t="str">
         <f t="shared" si="2"/>
@@ -19525,17 +19542,17 @@
       <c r="C100" s="15"/>
       <c r="D100" s="16"/>
       <c r="R100" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="16"/>
       <c r="U100" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF100" s="15"/>
       <c r="AG100" s="16"/>
       <c r="AH100" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO100" s="14" t="str">
         <f t="shared" si="2"/>
@@ -19552,7 +19569,7 @@
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
       <c r="R101" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S101" s="15"/>
       <c r="T101" s="16"/>
@@ -19577,7 +19594,7 @@
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
       <c r="R102" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="16"/>
@@ -19585,7 +19602,7 @@
       <c r="AF102" s="15"/>
       <c r="AG102" s="16"/>
       <c r="AH102" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BO102" s="26" t="str">
         <f t="shared" si="2"/>
@@ -19605,7 +19622,7 @@
       <c r="S103" s="3"/>
       <c r="T103" s="4"/>
       <c r="U103" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -19667,12 +19684,12 @@
       <c r="C104" s="15"/>
       <c r="D104" s="16"/>
       <c r="R104" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="16"/>
       <c r="U104" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF104" s="15"/>
       <c r="AG104" s="16"/>
@@ -19694,12 +19711,12 @@
       <c r="C105" s="15"/>
       <c r="D105" s="16"/>
       <c r="R105" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S105" s="15"/>
       <c r="T105" s="16"/>
       <c r="U105" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF105" s="15"/>
       <c r="AG105" s="16"/>
@@ -19717,12 +19734,12 @@
       <c r="B106" s="14"/>
       <c r="E106" s="14"/>
       <c r="R106" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S106" s="15"/>
       <c r="T106" s="16"/>
       <c r="U106" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF106" s="15"/>
       <c r="AG106" s="16"/>
@@ -19740,15 +19757,15 @@
       <c r="B107" s="14"/>
       <c r="E107" s="14"/>
       <c r="R107" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S107" s="15"/>
       <c r="T107" s="16"/>
       <c r="U107" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AH107" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO107" s="14" t="str">
         <f t="shared" si="2"/>
@@ -19764,7 +19781,7 @@
       <c r="B108" s="14"/>
       <c r="E108" s="14"/>
       <c r="R108" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S108" s="15"/>
       <c r="T108" s="16"/>
@@ -19786,13 +19803,13 @@
       <c r="B109" s="14"/>
       <c r="E109" s="14"/>
       <c r="R109" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S109" s="15"/>
       <c r="T109" s="16"/>
       <c r="U109" s="15"/>
       <c r="AH109" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BO109" s="26" t="str">
         <f t="shared" si="2"/>
@@ -19808,7 +19825,7 @@
       <c r="B110" s="14"/>
       <c r="E110" s="14"/>
       <c r="R110" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="4"/>
@@ -19828,7 +19845,7 @@
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
       <c r="AH110" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
@@ -19890,7 +19907,7 @@
       <c r="P111" s="27"/>
       <c r="Q111" s="28"/>
       <c r="R111" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S111" s="32"/>
       <c r="T111" s="33"/>
@@ -19910,7 +19927,7 @@
       <c r="AF111" s="32"/>
       <c r="AG111" s="32"/>
       <c r="AH111" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI111" s="32"/>
       <c r="AJ111" s="32"/>
@@ -19960,15 +19977,15 @@
         <v>18</v>
       </c>
       <c r="R112" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="S112" s="15"/>
       <c r="T112" s="16"/>
       <c r="U112" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AH112" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BO112" s="14" t="str">
         <f t="shared" si="2"/>
@@ -19986,12 +20003,12 @@
         <v>79</v>
       </c>
       <c r="R113" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S113" s="15"/>
       <c r="T113" s="16"/>
       <c r="AH113" s="14" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="BO113" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20009,7 +20026,7 @@
         <v>17</v>
       </c>
       <c r="R114" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S114" s="27"/>
       <c r="T114" s="28"/>
@@ -20027,7 +20044,7 @@
       <c r="AF114" s="27"/>
       <c r="AG114" s="27"/>
       <c r="AH114" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI114" s="27"/>
       <c r="AJ114" s="27"/>
@@ -20074,19 +20091,19 @@
     <row r="115" spans="2:73">
       <c r="B115" s="14"/>
       <c r="E115" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R115" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S115" s="15"/>
       <c r="T115" s="16"/>
       <c r="U115" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V115" s="15"/>
       <c r="AH115" s="39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BO115" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20102,12 +20119,12 @@
       <c r="B116" s="14"/>
       <c r="E116" s="14"/>
       <c r="R116" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S116" s="15"/>
       <c r="T116" s="16"/>
       <c r="U116" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V116" s="15"/>
       <c r="AH116" s="14" t="s">
@@ -20127,14 +20144,14 @@
       <c r="B117" s="14"/>
       <c r="E117" s="14"/>
       <c r="R117" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S117" s="15"/>
       <c r="T117" s="16"/>
       <c r="U117" s="15"/>
       <c r="V117" s="15"/>
       <c r="AH117" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BO117" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20151,7 +20168,7 @@
       <c r="B118" s="14"/>
       <c r="E118" s="14"/>
       <c r="R118" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S118" s="15"/>
       <c r="T118" s="16"/>
@@ -20175,16 +20192,16 @@
       <c r="B119" s="14"/>
       <c r="E119" s="14"/>
       <c r="R119" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="S119" s="15"/>
       <c r="T119" s="16"/>
       <c r="U119" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V119" s="15"/>
       <c r="AH119" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="BO119" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20199,7 +20216,7 @@
       <c r="B120" s="14"/>
       <c r="E120" s="14"/>
       <c r="R120" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S120" s="15"/>
       <c r="T120" s="16"/>
@@ -20221,14 +20238,14 @@
       <c r="B121" s="14"/>
       <c r="E121" s="14"/>
       <c r="R121" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S121" s="15"/>
       <c r="T121" s="16"/>
       <c r="U121" s="15"/>
       <c r="V121" s="15"/>
       <c r="AH121" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BO121" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20243,14 +20260,14 @@
       <c r="B122" s="14"/>
       <c r="E122" s="14"/>
       <c r="R122" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="S122" s="15"/>
       <c r="T122" s="16"/>
       <c r="U122" s="15"/>
       <c r="V122" s="15"/>
       <c r="AH122" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BO122" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20265,14 +20282,14 @@
       <c r="B123" s="14"/>
       <c r="E123" s="14"/>
       <c r="R123" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="S123" s="15"/>
       <c r="T123" s="16"/>
       <c r="U123" s="15"/>
       <c r="V123" s="15"/>
       <c r="AH123" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BO123" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20287,14 +20304,14 @@
       <c r="B124" s="14"/>
       <c r="E124" s="14"/>
       <c r="R124" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S124" s="15"/>
       <c r="T124" s="16"/>
       <c r="U124" s="15"/>
       <c r="V124" s="15"/>
       <c r="AH124" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BO124" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20309,7 +20326,7 @@
       <c r="B125" s="14"/>
       <c r="E125" s="14"/>
       <c r="R125" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="S125" s="15"/>
       <c r="T125" s="16"/>
@@ -20331,16 +20348,16 @@
       <c r="B126" s="14"/>
       <c r="E126" s="14"/>
       <c r="R126" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S126" s="15"/>
       <c r="T126" s="16"/>
       <c r="U126" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V126" s="15"/>
       <c r="AH126" s="38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BO126" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20355,14 +20372,14 @@
       <c r="B127" s="14"/>
       <c r="E127" s="14"/>
       <c r="R127" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S127" s="15"/>
       <c r="T127" s="16"/>
       <c r="U127" s="15"/>
       <c r="V127" s="15"/>
       <c r="AH127" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BO127" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20377,7 +20394,7 @@
       <c r="B128" s="14"/>
       <c r="E128" s="14"/>
       <c r="R128" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S128" s="15"/>
       <c r="T128" s="16"/>
@@ -20399,14 +20416,14 @@
       <c r="B129" s="14"/>
       <c r="E129" s="14"/>
       <c r="R129" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S129" s="15"/>
       <c r="T129" s="16"/>
       <c r="U129" s="15"/>
       <c r="V129" s="15"/>
       <c r="AH129" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BO129" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20421,12 +20438,12 @@
       <c r="B130" s="14"/>
       <c r="E130" s="14"/>
       <c r="R130" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S130" s="15"/>
       <c r="T130" s="16"/>
       <c r="U130" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="V130" s="15"/>
       <c r="AH130" s="14" t="s">
@@ -20445,12 +20462,12 @@
       <c r="B131" s="14"/>
       <c r="E131" s="14"/>
       <c r="R131" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S131" s="15"/>
       <c r="T131" s="16"/>
       <c r="U131" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V131" s="15"/>
       <c r="AH131" s="14" t="s">
@@ -20469,7 +20486,7 @@
       <c r="B132" s="14"/>
       <c r="E132" s="14"/>
       <c r="R132" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S132" s="15"/>
       <c r="T132" s="16"/>
@@ -20491,14 +20508,14 @@
       <c r="B133" s="14"/>
       <c r="E133" s="14"/>
       <c r="R133" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S133" s="15"/>
       <c r="T133" s="16"/>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
       <c r="AH133" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BO133" s="14" t="str">
         <f t="shared" si="2"/>
@@ -20513,12 +20530,12 @@
       <c r="B134" s="14"/>
       <c r="E134" s="14"/>
       <c r="R134" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S134" s="15"/>
       <c r="T134" s="16"/>
       <c r="U134" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V134" s="15"/>
       <c r="AH134" s="14"/>
@@ -20535,7 +20552,7 @@
       <c r="B135" s="14"/>
       <c r="E135" s="14"/>
       <c r="R135" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="S135" s="3"/>
       <c r="T135" s="4"/>
@@ -20555,7 +20572,7 @@
       <c r="AF135" s="3"/>
       <c r="AG135" s="3"/>
       <c r="AH135" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
@@ -20616,7 +20633,7 @@
       <c r="P136" s="27"/>
       <c r="Q136" s="28"/>
       <c r="R136" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S136" s="32"/>
       <c r="T136" s="33"/>
@@ -20636,7 +20653,7 @@
       <c r="AF136" s="32"/>
       <c r="AG136" s="32"/>
       <c r="AH136" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI136" s="32"/>
       <c r="AJ136" s="32"/>
